--- a/software/testing/CV/threading_kalman_test/output.xlsx
+++ b/software/testing/CV/threading_kalman_test/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:SG3"/>
+  <dimension ref="A1:ALM3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1934,1510 +1934,4510 @@
       <c r="SG1" s="1" t="n">
         <v>499</v>
       </c>
+      <c r="SH1" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="SI1" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="SJ1" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="SK1" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="SL1" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="SM1" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="SN1" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="SO1" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="SP1" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="SQ1" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="SR1" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="SS1" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="ST1" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="SU1" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="SV1" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="SW1" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="SX1" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="SY1" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="SZ1" s="1" t="n">
+        <v>518</v>
+      </c>
+      <c r="TA1" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="TB1" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="TC1" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="TD1" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="TE1" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="TF1" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="TG1" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="TH1" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="TI1" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="TJ1" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="TK1" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="TL1" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="TM1" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="TN1" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="TO1" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="TP1" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="TQ1" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="TR1" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="TS1" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="TT1" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="TU1" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="TV1" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="TW1" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="TX1" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="TY1" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="TZ1" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="UA1" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="UB1" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="UC1" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="UD1" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="UE1" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="UF1" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="UG1" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="UH1" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="UI1" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="UJ1" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="UK1" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="UL1" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="UM1" s="1" t="n">
+        <v>557</v>
+      </c>
+      <c r="UN1" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="UO1" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="UP1" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="UQ1" s="1" t="n">
+        <v>561</v>
+      </c>
+      <c r="UR1" s="1" t="n">
+        <v>562</v>
+      </c>
+      <c r="US1" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="UT1" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="UU1" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="UV1" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="UW1" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="UX1" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="UY1" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="UZ1" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="VA1" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="VB1" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="VC1" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="VD1" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="VE1" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="VF1" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="VG1" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="VH1" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="VI1" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="VJ1" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="VK1" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="VL1" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="VM1" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="VN1" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="VO1" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="VP1" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="VQ1" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="VR1" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="VS1" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="VT1" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="VU1" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="VV1" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="VW1" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="VX1" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="VY1" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="VZ1" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="WA1" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="WB1" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="WC1" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="WD1" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="WE1" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="WF1" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="WG1" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="WH1" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="WI1" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="WJ1" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="WK1" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="WL1" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="WM1" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="WN1" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="WO1" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="WP1" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="WQ1" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="WR1" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="WS1" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="WT1" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="WU1" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="WV1" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="WW1" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="WX1" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="WY1" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="WZ1" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="XA1" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="XB1" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="XC1" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="XD1" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="XE1" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="XF1" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="XG1" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="XH1" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="XI1" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="XJ1" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="XK1" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="XL1" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="XM1" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="XN1" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="XO1" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="XP1" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="XQ1" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="XR1" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="XS1" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="XT1" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="XU1" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="XV1" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="XW1" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="XX1" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="XY1" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="XZ1" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="YA1" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="YB1" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="YC1" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="YD1" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="YE1" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="YF1" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="YG1" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="YH1" s="1" t="n">
+        <v>656</v>
+      </c>
+      <c r="YI1" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="YJ1" s="1" t="n">
+        <v>658</v>
+      </c>
+      <c r="YK1" s="1" t="n">
+        <v>659</v>
+      </c>
+      <c r="YL1" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="YM1" s="1" t="n">
+        <v>661</v>
+      </c>
+      <c r="YN1" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="YO1" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="YP1" s="1" t="n">
+        <v>664</v>
+      </c>
+      <c r="YQ1" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="YR1" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="YS1" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="YT1" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="YU1" s="1" t="n">
+        <v>669</v>
+      </c>
+      <c r="YV1" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="YW1" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="YX1" s="1" t="n">
+        <v>672</v>
+      </c>
+      <c r="YY1" s="1" t="n">
+        <v>673</v>
+      </c>
+      <c r="YZ1" s="1" t="n">
+        <v>674</v>
+      </c>
+      <c r="ZA1" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="ZB1" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="ZC1" s="1" t="n">
+        <v>677</v>
+      </c>
+      <c r="ZD1" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="ZE1" s="1" t="n">
+        <v>679</v>
+      </c>
+      <c r="ZF1" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="ZG1" s="1" t="n">
+        <v>681</v>
+      </c>
+      <c r="ZH1" s="1" t="n">
+        <v>682</v>
+      </c>
+      <c r="ZI1" s="1" t="n">
+        <v>683</v>
+      </c>
+      <c r="ZJ1" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="ZK1" s="1" t="n">
+        <v>685</v>
+      </c>
+      <c r="ZL1" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="ZM1" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="ZN1" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="ZO1" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="ZP1" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="ZQ1" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="ZR1" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="ZS1" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="ZT1" s="1" t="n">
+        <v>694</v>
+      </c>
+      <c r="ZU1" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="ZV1" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="ZW1" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="ZX1" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="ZY1" s="1" t="n">
+        <v>699</v>
+      </c>
+      <c r="ZZ1" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="AAA1" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="AAB1" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="AAC1" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="AAD1" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="AAE1" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="AAF1" s="1" t="n">
+        <v>706</v>
+      </c>
+      <c r="AAG1" s="1" t="n">
+        <v>707</v>
+      </c>
+      <c r="AAH1" s="1" t="n">
+        <v>708</v>
+      </c>
+      <c r="AAI1" s="1" t="n">
+        <v>709</v>
+      </c>
+      <c r="AAJ1" s="1" t="n">
+        <v>710</v>
+      </c>
+      <c r="AAK1" s="1" t="n">
+        <v>711</v>
+      </c>
+      <c r="AAL1" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="AAM1" s="1" t="n">
+        <v>713</v>
+      </c>
+      <c r="AAN1" s="1" t="n">
+        <v>714</v>
+      </c>
+      <c r="AAO1" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="AAP1" s="1" t="n">
+        <v>716</v>
+      </c>
+      <c r="AAQ1" s="1" t="n">
+        <v>717</v>
+      </c>
+      <c r="AAR1" s="1" t="n">
+        <v>718</v>
+      </c>
+      <c r="AAS1" s="1" t="n">
+        <v>719</v>
+      </c>
+      <c r="AAT1" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="AAU1" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="AAV1" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="AAW1" s="1" t="n">
+        <v>723</v>
+      </c>
+      <c r="AAX1" s="1" t="n">
+        <v>724</v>
+      </c>
+      <c r="AAY1" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="AAZ1" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="ABA1" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="ABB1" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="ABC1" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="ABD1" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="ABE1" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="ABF1" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="ABG1" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="ABH1" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="ABI1" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="ABJ1" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="ABK1" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="ABL1" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="ABM1" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="ABN1" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="ABO1" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="ABP1" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="ABQ1" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="ABR1" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="ABS1" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="ABT1" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="ABU1" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="ABV1" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="ABW1" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="ABX1" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="ABY1" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="ABZ1" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="ACA1" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="ACB1" s="1" t="n">
+        <v>754</v>
+      </c>
+      <c r="ACC1" s="1" t="n">
+        <v>755</v>
+      </c>
+      <c r="ACD1" s="1" t="n">
+        <v>756</v>
+      </c>
+      <c r="ACE1" s="1" t="n">
+        <v>757</v>
+      </c>
+      <c r="ACF1" s="1" t="n">
+        <v>758</v>
+      </c>
+      <c r="ACG1" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="ACH1" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="ACI1" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="ACJ1" s="1" t="n">
+        <v>762</v>
+      </c>
+      <c r="ACK1" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="ACL1" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="ACM1" s="1" t="n">
+        <v>765</v>
+      </c>
+      <c r="ACN1" s="1" t="n">
+        <v>766</v>
+      </c>
+      <c r="ACO1" s="1" t="n">
+        <v>767</v>
+      </c>
+      <c r="ACP1" s="1" t="n">
+        <v>768</v>
+      </c>
+      <c r="ACQ1" s="1" t="n">
+        <v>769</v>
+      </c>
+      <c r="ACR1" s="1" t="n">
+        <v>770</v>
+      </c>
+      <c r="ACS1" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="ACT1" s="1" t="n">
+        <v>772</v>
+      </c>
+      <c r="ACU1" s="1" t="n">
+        <v>773</v>
+      </c>
+      <c r="ACV1" s="1" t="n">
+        <v>774</v>
+      </c>
+      <c r="ACW1" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="ACX1" s="1" t="n">
+        <v>776</v>
+      </c>
+      <c r="ACY1" s="1" t="n">
+        <v>777</v>
+      </c>
+      <c r="ACZ1" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="ADA1" s="1" t="n">
+        <v>779</v>
+      </c>
+      <c r="ADB1" s="1" t="n">
+        <v>780</v>
+      </c>
+      <c r="ADC1" s="1" t="n">
+        <v>781</v>
+      </c>
+      <c r="ADD1" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="ADE1" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="ADF1" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="ADG1" s="1" t="n">
+        <v>785</v>
+      </c>
+      <c r="ADH1" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="ADI1" s="1" t="n">
+        <v>787</v>
+      </c>
+      <c r="ADJ1" s="1" t="n">
+        <v>788</v>
+      </c>
+      <c r="ADK1" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="ADL1" s="1" t="n">
+        <v>790</v>
+      </c>
+      <c r="ADM1" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="ADN1" s="1" t="n">
+        <v>792</v>
+      </c>
+      <c r="ADO1" s="1" t="n">
+        <v>793</v>
+      </c>
+      <c r="ADP1" s="1" t="n">
+        <v>794</v>
+      </c>
+      <c r="ADQ1" s="1" t="n">
+        <v>795</v>
+      </c>
+      <c r="ADR1" s="1" t="n">
+        <v>796</v>
+      </c>
+      <c r="ADS1" s="1" t="n">
+        <v>797</v>
+      </c>
+      <c r="ADT1" s="1" t="n">
+        <v>798</v>
+      </c>
+      <c r="ADU1" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="ADV1" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="ADW1" s="1" t="n">
+        <v>801</v>
+      </c>
+      <c r="ADX1" s="1" t="n">
+        <v>802</v>
+      </c>
+      <c r="ADY1" s="1" t="n">
+        <v>803</v>
+      </c>
+      <c r="ADZ1" s="1" t="n">
+        <v>804</v>
+      </c>
+      <c r="AEA1" s="1" t="n">
+        <v>805</v>
+      </c>
+      <c r="AEB1" s="1" t="n">
+        <v>806</v>
+      </c>
+      <c r="AEC1" s="1" t="n">
+        <v>807</v>
+      </c>
+      <c r="AED1" s="1" t="n">
+        <v>808</v>
+      </c>
+      <c r="AEE1" s="1" t="n">
+        <v>809</v>
+      </c>
+      <c r="AEF1" s="1" t="n">
+        <v>810</v>
+      </c>
+      <c r="AEG1" s="1" t="n">
+        <v>811</v>
+      </c>
+      <c r="AEH1" s="1" t="n">
+        <v>812</v>
+      </c>
+      <c r="AEI1" s="1" t="n">
+        <v>813</v>
+      </c>
+      <c r="AEJ1" s="1" t="n">
+        <v>814</v>
+      </c>
+      <c r="AEK1" s="1" t="n">
+        <v>815</v>
+      </c>
+      <c r="AEL1" s="1" t="n">
+        <v>816</v>
+      </c>
+      <c r="AEM1" s="1" t="n">
+        <v>817</v>
+      </c>
+      <c r="AEN1" s="1" t="n">
+        <v>818</v>
+      </c>
+      <c r="AEO1" s="1" t="n">
+        <v>819</v>
+      </c>
+      <c r="AEP1" s="1" t="n">
+        <v>820</v>
+      </c>
+      <c r="AEQ1" s="1" t="n">
+        <v>821</v>
+      </c>
+      <c r="AER1" s="1" t="n">
+        <v>822</v>
+      </c>
+      <c r="AES1" s="1" t="n">
+        <v>823</v>
+      </c>
+      <c r="AET1" s="1" t="n">
+        <v>824</v>
+      </c>
+      <c r="AEU1" s="1" t="n">
+        <v>825</v>
+      </c>
+      <c r="AEV1" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="AEW1" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="AEX1" s="1" t="n">
+        <v>828</v>
+      </c>
+      <c r="AEY1" s="1" t="n">
+        <v>829</v>
+      </c>
+      <c r="AEZ1" s="1" t="n">
+        <v>830</v>
+      </c>
+      <c r="AFA1" s="1" t="n">
+        <v>831</v>
+      </c>
+      <c r="AFB1" s="1" t="n">
+        <v>832</v>
+      </c>
+      <c r="AFC1" s="1" t="n">
+        <v>833</v>
+      </c>
+      <c r="AFD1" s="1" t="n">
+        <v>834</v>
+      </c>
+      <c r="AFE1" s="1" t="n">
+        <v>835</v>
+      </c>
+      <c r="AFF1" s="1" t="n">
+        <v>836</v>
+      </c>
+      <c r="AFG1" s="1" t="n">
+        <v>837</v>
+      </c>
+      <c r="AFH1" s="1" t="n">
+        <v>838</v>
+      </c>
+      <c r="AFI1" s="1" t="n">
+        <v>839</v>
+      </c>
+      <c r="AFJ1" s="1" t="n">
+        <v>840</v>
+      </c>
+      <c r="AFK1" s="1" t="n">
+        <v>841</v>
+      </c>
+      <c r="AFL1" s="1" t="n">
+        <v>842</v>
+      </c>
+      <c r="AFM1" s="1" t="n">
+        <v>843</v>
+      </c>
+      <c r="AFN1" s="1" t="n">
+        <v>844</v>
+      </c>
+      <c r="AFO1" s="1" t="n">
+        <v>845</v>
+      </c>
+      <c r="AFP1" s="1" t="n">
+        <v>846</v>
+      </c>
+      <c r="AFQ1" s="1" t="n">
+        <v>847</v>
+      </c>
+      <c r="AFR1" s="1" t="n">
+        <v>848</v>
+      </c>
+      <c r="AFS1" s="1" t="n">
+        <v>849</v>
+      </c>
+      <c r="AFT1" s="1" t="n">
+        <v>850</v>
+      </c>
+      <c r="AFU1" s="1" t="n">
+        <v>851</v>
+      </c>
+      <c r="AFV1" s="1" t="n">
+        <v>852</v>
+      </c>
+      <c r="AFW1" s="1" t="n">
+        <v>853</v>
+      </c>
+      <c r="AFX1" s="1" t="n">
+        <v>854</v>
+      </c>
+      <c r="AFY1" s="1" t="n">
+        <v>855</v>
+      </c>
+      <c r="AFZ1" s="1" t="n">
+        <v>856</v>
+      </c>
+      <c r="AGA1" s="1" t="n">
+        <v>857</v>
+      </c>
+      <c r="AGB1" s="1" t="n">
+        <v>858</v>
+      </c>
+      <c r="AGC1" s="1" t="n">
+        <v>859</v>
+      </c>
+      <c r="AGD1" s="1" t="n">
+        <v>860</v>
+      </c>
+      <c r="AGE1" s="1" t="n">
+        <v>861</v>
+      </c>
+      <c r="AGF1" s="1" t="n">
+        <v>862</v>
+      </c>
+      <c r="AGG1" s="1" t="n">
+        <v>863</v>
+      </c>
+      <c r="AGH1" s="1" t="n">
+        <v>864</v>
+      </c>
+      <c r="AGI1" s="1" t="n">
+        <v>865</v>
+      </c>
+      <c r="AGJ1" s="1" t="n">
+        <v>866</v>
+      </c>
+      <c r="AGK1" s="1" t="n">
+        <v>867</v>
+      </c>
+      <c r="AGL1" s="1" t="n">
+        <v>868</v>
+      </c>
+      <c r="AGM1" s="1" t="n">
+        <v>869</v>
+      </c>
+      <c r="AGN1" s="1" t="n">
+        <v>870</v>
+      </c>
+      <c r="AGO1" s="1" t="n">
+        <v>871</v>
+      </c>
+      <c r="AGP1" s="1" t="n">
+        <v>872</v>
+      </c>
+      <c r="AGQ1" s="1" t="n">
+        <v>873</v>
+      </c>
+      <c r="AGR1" s="1" t="n">
+        <v>874</v>
+      </c>
+      <c r="AGS1" s="1" t="n">
+        <v>875</v>
+      </c>
+      <c r="AGT1" s="1" t="n">
+        <v>876</v>
+      </c>
+      <c r="AGU1" s="1" t="n">
+        <v>877</v>
+      </c>
+      <c r="AGV1" s="1" t="n">
+        <v>878</v>
+      </c>
+      <c r="AGW1" s="1" t="n">
+        <v>879</v>
+      </c>
+      <c r="AGX1" s="1" t="n">
+        <v>880</v>
+      </c>
+      <c r="AGY1" s="1" t="n">
+        <v>881</v>
+      </c>
+      <c r="AGZ1" s="1" t="n">
+        <v>882</v>
+      </c>
+      <c r="AHA1" s="1" t="n">
+        <v>883</v>
+      </c>
+      <c r="AHB1" s="1" t="n">
+        <v>884</v>
+      </c>
+      <c r="AHC1" s="1" t="n">
+        <v>885</v>
+      </c>
+      <c r="AHD1" s="1" t="n">
+        <v>886</v>
+      </c>
+      <c r="AHE1" s="1" t="n">
+        <v>887</v>
+      </c>
+      <c r="AHF1" s="1" t="n">
+        <v>888</v>
+      </c>
+      <c r="AHG1" s="1" t="n">
+        <v>889</v>
+      </c>
+      <c r="AHH1" s="1" t="n">
+        <v>890</v>
+      </c>
+      <c r="AHI1" s="1" t="n">
+        <v>891</v>
+      </c>
+      <c r="AHJ1" s="1" t="n">
+        <v>892</v>
+      </c>
+      <c r="AHK1" s="1" t="n">
+        <v>893</v>
+      </c>
+      <c r="AHL1" s="1" t="n">
+        <v>894</v>
+      </c>
+      <c r="AHM1" s="1" t="n">
+        <v>895</v>
+      </c>
+      <c r="AHN1" s="1" t="n">
+        <v>896</v>
+      </c>
+      <c r="AHO1" s="1" t="n">
+        <v>897</v>
+      </c>
+      <c r="AHP1" s="1" t="n">
+        <v>898</v>
+      </c>
+      <c r="AHQ1" s="1" t="n">
+        <v>899</v>
+      </c>
+      <c r="AHR1" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="AHS1" s="1" t="n">
+        <v>901</v>
+      </c>
+      <c r="AHT1" s="1" t="n">
+        <v>902</v>
+      </c>
+      <c r="AHU1" s="1" t="n">
+        <v>903</v>
+      </c>
+      <c r="AHV1" s="1" t="n">
+        <v>904</v>
+      </c>
+      <c r="AHW1" s="1" t="n">
+        <v>905</v>
+      </c>
+      <c r="AHX1" s="1" t="n">
+        <v>906</v>
+      </c>
+      <c r="AHY1" s="1" t="n">
+        <v>907</v>
+      </c>
+      <c r="AHZ1" s="1" t="n">
+        <v>908</v>
+      </c>
+      <c r="AIA1" s="1" t="n">
+        <v>909</v>
+      </c>
+      <c r="AIB1" s="1" t="n">
+        <v>910</v>
+      </c>
+      <c r="AIC1" s="1" t="n">
+        <v>911</v>
+      </c>
+      <c r="AID1" s="1" t="n">
+        <v>912</v>
+      </c>
+      <c r="AIE1" s="1" t="n">
+        <v>913</v>
+      </c>
+      <c r="AIF1" s="1" t="n">
+        <v>914</v>
+      </c>
+      <c r="AIG1" s="1" t="n">
+        <v>915</v>
+      </c>
+      <c r="AIH1" s="1" t="n">
+        <v>916</v>
+      </c>
+      <c r="AII1" s="1" t="n">
+        <v>917</v>
+      </c>
+      <c r="AIJ1" s="1" t="n">
+        <v>918</v>
+      </c>
+      <c r="AIK1" s="1" t="n">
+        <v>919</v>
+      </c>
+      <c r="AIL1" s="1" t="n">
+        <v>920</v>
+      </c>
+      <c r="AIM1" s="1" t="n">
+        <v>921</v>
+      </c>
+      <c r="AIN1" s="1" t="n">
+        <v>922</v>
+      </c>
+      <c r="AIO1" s="1" t="n">
+        <v>923</v>
+      </c>
+      <c r="AIP1" s="1" t="n">
+        <v>924</v>
+      </c>
+      <c r="AIQ1" s="1" t="n">
+        <v>925</v>
+      </c>
+      <c r="AIR1" s="1" t="n">
+        <v>926</v>
+      </c>
+      <c r="AIS1" s="1" t="n">
+        <v>927</v>
+      </c>
+      <c r="AIT1" s="1" t="n">
+        <v>928</v>
+      </c>
+      <c r="AIU1" s="1" t="n">
+        <v>929</v>
+      </c>
+      <c r="AIV1" s="1" t="n">
+        <v>930</v>
+      </c>
+      <c r="AIW1" s="1" t="n">
+        <v>931</v>
+      </c>
+      <c r="AIX1" s="1" t="n">
+        <v>932</v>
+      </c>
+      <c r="AIY1" s="1" t="n">
+        <v>933</v>
+      </c>
+      <c r="AIZ1" s="1" t="n">
+        <v>934</v>
+      </c>
+      <c r="AJA1" s="1" t="n">
+        <v>935</v>
+      </c>
+      <c r="AJB1" s="1" t="n">
+        <v>936</v>
+      </c>
+      <c r="AJC1" s="1" t="n">
+        <v>937</v>
+      </c>
+      <c r="AJD1" s="1" t="n">
+        <v>938</v>
+      </c>
+      <c r="AJE1" s="1" t="n">
+        <v>939</v>
+      </c>
+      <c r="AJF1" s="1" t="n">
+        <v>940</v>
+      </c>
+      <c r="AJG1" s="1" t="n">
+        <v>941</v>
+      </c>
+      <c r="AJH1" s="1" t="n">
+        <v>942</v>
+      </c>
+      <c r="AJI1" s="1" t="n">
+        <v>943</v>
+      </c>
+      <c r="AJJ1" s="1" t="n">
+        <v>944</v>
+      </c>
+      <c r="AJK1" s="1" t="n">
+        <v>945</v>
+      </c>
+      <c r="AJL1" s="1" t="n">
+        <v>946</v>
+      </c>
+      <c r="AJM1" s="1" t="n">
+        <v>947</v>
+      </c>
+      <c r="AJN1" s="1" t="n">
+        <v>948</v>
+      </c>
+      <c r="AJO1" s="1" t="n">
+        <v>949</v>
+      </c>
+      <c r="AJP1" s="1" t="n">
+        <v>950</v>
+      </c>
+      <c r="AJQ1" s="1" t="n">
+        <v>951</v>
+      </c>
+      <c r="AJR1" s="1" t="n">
+        <v>952</v>
+      </c>
+      <c r="AJS1" s="1" t="n">
+        <v>953</v>
+      </c>
+      <c r="AJT1" s="1" t="n">
+        <v>954</v>
+      </c>
+      <c r="AJU1" s="1" t="n">
+        <v>955</v>
+      </c>
+      <c r="AJV1" s="1" t="n">
+        <v>956</v>
+      </c>
+      <c r="AJW1" s="1" t="n">
+        <v>957</v>
+      </c>
+      <c r="AJX1" s="1" t="n">
+        <v>958</v>
+      </c>
+      <c r="AJY1" s="1" t="n">
+        <v>959</v>
+      </c>
+      <c r="AJZ1" s="1" t="n">
+        <v>960</v>
+      </c>
+      <c r="AKA1" s="1" t="n">
+        <v>961</v>
+      </c>
+      <c r="AKB1" s="1" t="n">
+        <v>962</v>
+      </c>
+      <c r="AKC1" s="1" t="n">
+        <v>963</v>
+      </c>
+      <c r="AKD1" s="1" t="n">
+        <v>964</v>
+      </c>
+      <c r="AKE1" s="1" t="n">
+        <v>965</v>
+      </c>
+      <c r="AKF1" s="1" t="n">
+        <v>966</v>
+      </c>
+      <c r="AKG1" s="1" t="n">
+        <v>967</v>
+      </c>
+      <c r="AKH1" s="1" t="n">
+        <v>968</v>
+      </c>
+      <c r="AKI1" s="1" t="n">
+        <v>969</v>
+      </c>
+      <c r="AKJ1" s="1" t="n">
+        <v>970</v>
+      </c>
+      <c r="AKK1" s="1" t="n">
+        <v>971</v>
+      </c>
+      <c r="AKL1" s="1" t="n">
+        <v>972</v>
+      </c>
+      <c r="AKM1" s="1" t="n">
+        <v>973</v>
+      </c>
+      <c r="AKN1" s="1" t="n">
+        <v>974</v>
+      </c>
+      <c r="AKO1" s="1" t="n">
+        <v>975</v>
+      </c>
+      <c r="AKP1" s="1" t="n">
+        <v>976</v>
+      </c>
+      <c r="AKQ1" s="1" t="n">
+        <v>977</v>
+      </c>
+      <c r="AKR1" s="1" t="n">
+        <v>978</v>
+      </c>
+      <c r="AKS1" s="1" t="n">
+        <v>979</v>
+      </c>
+      <c r="AKT1" s="1" t="n">
+        <v>980</v>
+      </c>
+      <c r="AKU1" s="1" t="n">
+        <v>981</v>
+      </c>
+      <c r="AKV1" s="1" t="n">
+        <v>982</v>
+      </c>
+      <c r="AKW1" s="1" t="n">
+        <v>983</v>
+      </c>
+      <c r="AKX1" s="1" t="n">
+        <v>984</v>
+      </c>
+      <c r="AKY1" s="1" t="n">
+        <v>985</v>
+      </c>
+      <c r="AKZ1" s="1" t="n">
+        <v>986</v>
+      </c>
+      <c r="ALA1" s="1" t="n">
+        <v>987</v>
+      </c>
+      <c r="ALB1" s="1" t="n">
+        <v>988</v>
+      </c>
+      <c r="ALC1" s="1" t="n">
+        <v>989</v>
+      </c>
+      <c r="ALD1" s="1" t="n">
+        <v>990</v>
+      </c>
+      <c r="ALE1" s="1" t="n">
+        <v>991</v>
+      </c>
+      <c r="ALF1" s="1" t="n">
+        <v>992</v>
+      </c>
+      <c r="ALG1" s="1" t="n">
+        <v>993</v>
+      </c>
+      <c r="ALH1" s="1" t="n">
+        <v>994</v>
+      </c>
+      <c r="ALI1" s="1" t="n">
+        <v>995</v>
+      </c>
+      <c r="ALJ1" s="1" t="n">
+        <v>996</v>
+      </c>
+      <c r="ALK1" s="1" t="n">
+        <v>997</v>
+      </c>
+      <c r="ALL1" s="1" t="n">
+        <v>998</v>
+      </c>
+      <c r="ALM1" s="1" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-4.862139849523613</v>
+        <v>-2.421932922168509</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.647691313569584</v>
+        <v>-3.259639517789837</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.622351911134267</v>
+        <v>-4.324080284781627</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.336670474058884</v>
+        <v>-4.580953902458623</v>
       </c>
       <c r="F2" t="n">
-        <v>-8.884687141783512</v>
+        <v>-5.364915214642509</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.295305796797606</v>
+        <v>-5.39299851467508</v>
       </c>
       <c r="H2" t="n">
-        <v>-11.61205860885921</v>
+        <v>-5.419735232447454</v>
       </c>
       <c r="I2" t="n">
-        <v>-13.47453431743917</v>
+        <v>-5.41375305359323</v>
       </c>
       <c r="J2" t="n">
-        <v>-14.92899540792226</v>
+        <v>-5.388571872686984</v>
       </c>
       <c r="K2" t="n">
-        <v>-16.04217735643778</v>
+        <v>-5.353704886888599</v>
       </c>
       <c r="L2" t="n">
-        <v>-16.88302556619006</v>
+        <v>-5.811708518691511</v>
       </c>
       <c r="M2" t="n">
-        <v>-17.51265268008963</v>
+        <v>-5.66327492705255</v>
       </c>
       <c r="N2" t="n">
-        <v>-18.22486160585735</v>
+        <v>-5.534197036483458</v>
       </c>
       <c r="O2" t="n">
-        <v>-18.77043693944784</v>
+        <v>-5.454972005536385</v>
       </c>
       <c r="P2" t="n">
-        <v>-19.18745862937183</v>
+        <v>-5.746564525839874</v>
       </c>
       <c r="Q2" t="n">
-        <v>-19.29465342006081</v>
+        <v>-5.639303943698254</v>
       </c>
       <c r="R2" t="n">
-        <v>-19.35995134334026</v>
+        <v>-5.792997587840495</v>
       </c>
       <c r="S2" t="n">
-        <v>-19.39426886204148</v>
+        <v>-5.682514934409659</v>
       </c>
       <c r="T2" t="n">
-        <v>-19.40566834889272</v>
+        <v>-5.586089737113276</v>
       </c>
       <c r="U2" t="n">
-        <v>-20.68338640773541</v>
+        <v>-5.796312492769389</v>
       </c>
       <c r="V2" t="n">
-        <v>-21.764921601631</v>
+        <v>-5.690905541316172</v>
       </c>
       <c r="W2" t="n">
-        <v>-22.61830658119379</v>
+        <v>-5.597820976938258</v>
       </c>
       <c r="X2" t="n">
-        <v>-23.34432410252938</v>
+        <v>-5.515280055603169</v>
       </c>
       <c r="Y2" t="n">
-        <v>-23.96363828192569</v>
+        <v>-5.739528024756905</v>
       </c>
       <c r="Z2" t="n">
-        <v>-24.49317060561079</v>
+        <v>-5.646588239518614</v>
       </c>
       <c r="AA2" t="n">
-        <v>-25.08254021030099</v>
+        <v>-5.563119763471863</v>
       </c>
       <c r="AB2" t="n">
-        <v>-25.59166605586498</v>
+        <v>-5.76063182918478</v>
       </c>
       <c r="AC2" t="n">
-        <v>-26.03225972650707</v>
+        <v>-5.669882889570004</v>
       </c>
       <c r="AD2" t="n">
-        <v>-26.38917598447518</v>
+        <v>-5.587419673031492</v>
       </c>
       <c r="AE2" t="n">
-        <v>-26.69821979100256</v>
+        <v>-5.765347606326173</v>
       </c>
       <c r="AF2" t="n">
-        <v>-26.96597491383259</v>
+        <v>-5.677300196639181</v>
       </c>
       <c r="AG2" t="n">
-        <v>-28.58445080944237</v>
+        <v>-5.596454453452974</v>
       </c>
       <c r="AH2" t="n">
-        <v>-30.03576138715155</v>
+        <v>-5.522051385874989</v>
       </c>
       <c r="AI2" t="n">
-        <v>-31.33971907575747</v>
+        <v>-5.453438365253246</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-32.51341642639315</v>
+        <v>-5.619546269764515</v>
       </c>
       <c r="AK2" t="n">
-        <v>-34.70734755387083</v>
+        <v>-5.545334542147692</v>
       </c>
       <c r="AL2" t="n">
-        <v>-36.69810429355008</v>
+        <v>-5.476304801902228</v>
       </c>
       <c r="AM2" t="n">
-        <v>-38.50744724643699</v>
+        <v>-5.631641708622424</v>
       </c>
       <c r="AN2" t="n">
-        <v>-40.15441920520129</v>
+        <v>-5.557700947033125</v>
       </c>
       <c r="AO2" t="n">
-        <v>-39.37991210971403</v>
+        <v>-5.702881445430985</v>
       </c>
       <c r="AP2" t="n">
-        <v>-38.65775038369208</v>
+        <v>-5.624734599023397</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-37.98331731982667</v>
+        <v>-5.761395762241084</v>
       </c>
       <c r="AR2" t="n">
-        <v>-37.35249067877663</v>
+        <v>-5.679557838993039</v>
       </c>
       <c r="AS2" t="n">
-        <v>-36.76090484369774</v>
+        <v>-5.602208664743196</v>
       </c>
       <c r="AT2" t="n">
-        <v>-36.20597644233751</v>
+        <v>-5.529129028675087</v>
       </c>
       <c r="AU2" t="n">
-        <v>-35.69374463364102</v>
+        <v>-5.460124391721608</v>
       </c>
       <c r="AV2" t="n">
-        <v>-35.21186715475225</v>
+        <v>-5.598027343475829</v>
       </c>
       <c r="AW2" t="n">
-        <v>-34.75797493746151</v>
+        <v>-5.525209898166536</v>
       </c>
       <c r="AX2" t="n">
-        <v>-34.33621141615559</v>
+        <v>-5.657389431060686</v>
       </c>
       <c r="AY2" t="n">
-        <v>-33.93792747591525</v>
+        <v>-5.58098329472718</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-33.56139298194901</v>
+        <v>-5.508393991253581</v>
       </c>
       <c r="BA2" t="n">
-        <v>-33.20503397519884</v>
+        <v>-5.439541936185482</v>
       </c>
       <c r="BB2" t="n">
-        <v>-32.85530032419536</v>
+        <v>-5.545736432592997</v>
       </c>
       <c r="BC2" t="n">
-        <v>-32.52375078580937</v>
+        <v>-5.474847642614209</v>
       </c>
       <c r="BD2" t="n">
-        <v>-32.20913221932103</v>
+        <v>-5.605501360712134</v>
       </c>
       <c r="BE2" t="n">
-        <v>-31.91024253866365</v>
+        <v>-5.531168556969345</v>
       </c>
       <c r="BF2" t="n">
-        <v>-31.62608796724248</v>
+        <v>-5.460453103988528</v>
       </c>
       <c r="BG2" t="n">
-        <v>-31.35570245548405</v>
+        <v>-5.563416039316026</v>
       </c>
       <c r="BH2" t="n">
-        <v>-31.09819772373865</v>
+        <v>-5.490803328797537</v>
       </c>
       <c r="BI2" t="n">
-        <v>-30.85275588440881</v>
+        <v>-5.618658512031688</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-30.62140820786808</v>
+        <v>-5.54277312616215</v>
       </c>
       <c r="BK2" t="n">
-        <v>-30.40052187597414</v>
+        <v>-5.470506857346391</v>
       </c>
       <c r="BL2" t="n">
-        <v>-30.18543631492197</v>
+        <v>-5.598478540764996</v>
       </c>
       <c r="BM2" t="n">
-        <v>-29.97980439585604</v>
+        <v>-5.523061928271418</v>
       </c>
       <c r="BN2" t="n">
-        <v>-29.78306936425863</v>
+        <v>-5.647815959655529</v>
       </c>
       <c r="BO2" t="n">
-        <v>-29.59598316727915</v>
+        <v>-5.569334008157812</v>
       </c>
       <c r="BP2" t="n">
-        <v>-29.41673402100442</v>
+        <v>-5.69102552532494</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-29.24488005459687</v>
+        <v>-6.267917482819153</v>
       </c>
       <c r="BR2" t="n">
-        <v>-29.08001007368609</v>
+        <v>-7.67663664112362</v>
       </c>
       <c r="BS2" t="n">
-        <v>-28.92174104114082</v>
+        <v>-7.488177156691062</v>
       </c>
       <c r="BT2" t="n">
-        <v>-28.76971579563482</v>
+        <v>-7.304292925526252</v>
       </c>
       <c r="BU2" t="n">
-        <v>-28.62360098275492</v>
+        <v>-7.29493753632145</v>
       </c>
       <c r="BV2" t="n">
-        <v>-28.48308517636792</v>
+        <v>-7.098233114389562</v>
       </c>
       <c r="BW2" t="n">
-        <v>-28.34787717055071</v>
+        <v>-6.922713304104683</v>
       </c>
       <c r="BX2" t="n">
-        <v>-28.21770442464604</v>
+        <v>-6.753450394643925</v>
       </c>
       <c r="BY2" t="n">
-        <v>-28.09120151511811</v>
+        <v>-6.787150330173167</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-27.9692879766786</v>
+        <v>-6.620798430282749</v>
       </c>
       <c r="CA2" t="n">
-        <v>-27.85173665493651</v>
+        <v>-6.657817591598452</v>
       </c>
       <c r="CB2" t="n">
-        <v>-27.73833425364418</v>
+        <v>-6.495138272887533</v>
       </c>
       <c r="CC2" t="n">
-        <v>-27.62888033265846</v>
+        <v>-6.339690530069984</v>
       </c>
       <c r="CD2" t="n">
-        <v>-27.52423201438442</v>
+        <v>-6.388000557067154</v>
       </c>
       <c r="CE2" t="n">
-        <v>-27.42312316064023</v>
+        <v>-6.236914602121389</v>
       </c>
       <c r="CF2" t="n">
-        <v>-27.32538883652913</v>
+        <v>-6.093264203053373</v>
       </c>
       <c r="CG2" t="n">
-        <v>-27.23087358583192</v>
+        <v>-6.126488040602748</v>
       </c>
       <c r="CH2" t="n">
-        <v>-27.13943078497301</v>
+        <v>-5.988787568185509</v>
       </c>
       <c r="CI2" t="n">
-        <v>-27.05092204782504</v>
+        <v>-5.858492522179672</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-26.96423852773573</v>
+        <v>-5.735548789859645</v>
       </c>
       <c r="CK2" t="n">
-        <v>-26.88027239798422</v>
+        <v>-5.619868772223475</v>
       </c>
       <c r="CL2" t="n">
-        <v>-26.79890510993646</v>
+        <v>-5.707722536106095</v>
       </c>
       <c r="CM2" t="n">
-        <v>-26.72097237704217</v>
+        <v>-5.595851836676734</v>
       </c>
       <c r="CN2" t="n">
-        <v>-26.64538496969558</v>
+        <v>-5.49087280769499</v>
       </c>
       <c r="CO2" t="n">
-        <v>-26.57204386918479</v>
+        <v>-5.392648870113804</v>
       </c>
       <c r="CP2" t="n">
-        <v>-26.50085521649499</v>
+        <v>-5.497385013356803</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-26.43172999361096</v>
+        <v>-5.401839074523889</v>
       </c>
       <c r="CR2" t="n">
-        <v>-26.36458372760644</v>
+        <v>-5.312572923057069</v>
       </c>
       <c r="CS2" t="n">
-        <v>-26.29933621567756</v>
+        <v>-5.425776002276563</v>
       </c>
       <c r="CT2" t="n">
-        <v>-26.235911269444</v>
+        <v>-5.338242776607204</v>
       </c>
       <c r="CU2" t="n">
-        <v>-26.17423647699026</v>
+        <v>-5.452860537564336</v>
       </c>
       <c r="CV2" t="n">
-        <v>-26.11337437087863</v>
+        <v>-5.366466847615003</v>
       </c>
       <c r="CW2" t="n">
-        <v>-26.05415725962641</v>
+        <v>-5.285622633803535</v>
       </c>
       <c r="CX2" t="n">
-        <v>-25.99652159754547</v>
+        <v>-5.406525347113474</v>
       </c>
       <c r="CY2" t="n">
-        <v>-25.94040687468742</v>
+        <v>-5.326043392670827</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-25.88575544546757</v>
+        <v>-5.447052629055634</v>
       </c>
       <c r="DA2" t="n">
-        <v>-25.83251236851653</v>
+        <v>-5.366459144500619</v>
       </c>
       <c r="DB2" t="n">
-        <v>-25.78062525692662</v>
+        <v>-5.290834084359128</v>
       </c>
       <c r="DC2" t="n">
-        <v>-25.73004413812878</v>
+        <v>-5.220078772782065</v>
       </c>
       <c r="DD2" t="n">
-        <v>-25.68153147299817</v>
+        <v>-5.350390302761653</v>
       </c>
       <c r="DE2" t="n">
-        <v>-25.63420648037066</v>
+        <v>-5.278686978100104</v>
       </c>
       <c r="DF2" t="n">
-        <v>-25.58802662084328</v>
+        <v>-5.407833115561074</v>
       </c>
       <c r="DG2" t="n">
-        <v>-25.54295124787504</v>
+        <v>-5.33478146867436</v>
       </c>
       <c r="DH2" t="n">
-        <v>-25.49894150875341</v>
+        <v>-5.266110055311478</v>
       </c>
       <c r="DI2" t="n">
-        <v>-25.45596025159201</v>
+        <v>-5.398047431258109</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-25.4139719379427</v>
+        <v>-5.327562793934576</v>
       </c>
       <c r="DK2" t="n">
-        <v>-25.37294256063761</v>
+        <v>-5.457542802657884</v>
       </c>
       <c r="DL2" t="n">
-        <v>-25.33283956650567</v>
+        <v>-5.38498462515516</v>
       </c>
       <c r="DM2" t="n">
-        <v>-25.29287667560224</v>
+        <v>-5.316492443708014</v>
       </c>
       <c r="DN2" t="n">
-        <v>-25.25380057706115</v>
+        <v>-5.448322257990021</v>
       </c>
       <c r="DO2" t="n">
-        <v>-25.21558192114301</v>
+        <v>-6.116391720260966</v>
       </c>
       <c r="DP2" t="n">
-        <v>-25.17819257750761</v>
+        <v>-6.010602256546338</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-25.14160557622778</v>
+        <v>-6.105206683381108</v>
       </c>
       <c r="DR2" t="n">
-        <v>-25.10579505213198</v>
+        <v>-5.997400717140082</v>
       </c>
       <c r="DS2" t="n">
-        <v>-25.07073619226153</v>
+        <v>-5.893958908626073</v>
       </c>
       <c r="DT2" t="n">
-        <v>-25.03640518624416</v>
+        <v>-5.991290336264871</v>
       </c>
       <c r="DU2" t="n">
-        <v>-25.21248022377071</v>
+        <v>-5.88653935864707</v>
       </c>
       <c r="DV2" t="n">
-        <v>-25.38370982846516</v>
+        <v>-5.786431138672556</v>
       </c>
       <c r="DW2" t="n">
-        <v>-25.55024937215232</v>
+        <v>-5.887329136986935</v>
       </c>
       <c r="DX2" t="n">
-        <v>-25.71224786514443</v>
+        <v>-5.786336047195855</v>
       </c>
       <c r="DY2" t="n">
-        <v>-25.86984825938941</v>
+        <v>-5.886438116892037</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-27.39667718420112</v>
+        <v>-6.523641551100252</v>
       </c>
       <c r="EA2" t="n">
-        <v>-28.88475853499943</v>
+        <v>-6.387932288114389</v>
       </c>
       <c r="EB2" t="n">
-        <v>-30.33527216290692</v>
+        <v>-6.257320050573855</v>
       </c>
       <c r="EC2" t="n">
-        <v>-31.74935149302671</v>
+        <v>-6.117495993782975</v>
       </c>
       <c r="ED2" t="n">
-        <v>-32.78887174821907</v>
+        <v>-5.983922712348718</v>
       </c>
       <c r="EE2" t="n">
-        <v>-33.80234722003212</v>
+        <v>-5.871092850801105</v>
       </c>
       <c r="EF2" t="n">
-        <v>-34.79054264511264</v>
+        <v>-5.908334501112721</v>
       </c>
       <c r="EG2" t="n">
-        <v>-35.75419344263955</v>
+        <v>-5.801452722314309</v>
       </c>
       <c r="EH2" t="n">
-        <v>-37.03416149196943</v>
+        <v>-5.686272904726224</v>
       </c>
       <c r="EI2" t="n">
-        <v>-38.28297851736321</v>
+        <v>-5.819299488179675</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-39.50152485380255</v>
+        <v>-5.699347116444796</v>
       </c>
       <c r="EK2" t="n">
-        <v>-40.69064798047335</v>
+        <v>-5.825237781987106</v>
       </c>
       <c r="EL2" t="n">
-        <v>-41.85116395169601</v>
+        <v>-5.708788244391346</v>
       </c>
       <c r="EM2" t="n">
-        <v>-42.32761229230422</v>
+        <v>-5.596005840194362</v>
       </c>
       <c r="EN2" t="n">
-        <v>-42.79177797620881</v>
+        <v>-5.729477697112229</v>
       </c>
       <c r="EO2" t="n">
-        <v>-43.24399404391776</v>
+        <v>-5.6198672994906</v>
       </c>
       <c r="EP2" t="n">
-        <v>-43.68458149137972</v>
+        <v>-5.728723083318396</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-43.56227640842435</v>
+        <v>-5.636454574503796</v>
       </c>
       <c r="ER2" t="n">
-        <v>-43.4409663822864</v>
+        <v>-5.845424143533343</v>
       </c>
       <c r="ES2" t="n">
-        <v>-43.32062944297675</v>
+        <v>-6.380439942828081</v>
       </c>
       <c r="ET2" t="n">
-        <v>-43.20124441248821</v>
+        <v>-7.498378715856696</v>
       </c>
       <c r="EU2" t="n">
-        <v>-43.08279088230083</v>
+        <v>-7.909652693363213</v>
       </c>
       <c r="EV2" t="n">
-        <v>-42.91372914356698</v>
+        <v>-9.688225214710585</v>
       </c>
       <c r="EW2" t="n">
-        <v>-42.74663765180185</v>
+        <v>-9.974654791285587</v>
       </c>
       <c r="EX2" t="n">
-        <v>-42.58147178350038</v>
+        <v>-11.963809314768</v>
       </c>
       <c r="EY2" t="n">
-        <v>-42.64403864031814</v>
+        <v>-13.7557422722532</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-42.70383632948275</v>
+        <v>-16.25701613107719</v>
       </c>
       <c r="FA2" t="n">
-        <v>-42.74088139676542</v>
+        <v>-20.11700704279801</v>
       </c>
       <c r="FB2" t="n">
-        <v>-42.77569681496077</v>
+        <v>-22.28467902288228</v>
       </c>
       <c r="FC2" t="n">
-        <v>-42.80833826239692</v>
+        <v>-25.48724600091451</v>
       </c>
       <c r="FD2" t="n">
-        <v>-42.83885966949487</v>
+        <v>-27.25608249779995</v>
       </c>
       <c r="FE2" t="n">
-        <v>-42.86731329447749</v>
+        <v>-29.73757894845849</v>
       </c>
       <c r="FF2" t="n">
-        <v>-42.92494523293803</v>
+        <v>-31.196929437324</v>
       </c>
       <c r="FG2" t="n">
-        <v>-42.98000641337495</v>
+        <v>-32.53204287874717</v>
       </c>
       <c r="FH2" t="n">
-        <v>-43.0325577571017</v>
+        <v>-34.42782302058772</v>
       </c>
       <c r="FI2" t="n">
-        <v>-43.22727956632336</v>
+        <v>-35.49496934634971</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-43.41687691527492</v>
+        <v>-37.1339721736549</v>
       </c>
       <c r="FK2" t="n">
-        <v>-43.60146351697953</v>
+        <v>-37.96172449794478</v>
       </c>
       <c r="FL2" t="n">
-        <v>-43.78114963036396</v>
+        <v>-38.69203172484606</v>
       </c>
       <c r="FM2" t="n">
-        <v>-43.79026306824372</v>
+        <v>-39.84633460951115</v>
       </c>
       <c r="FN2" t="n">
-        <v>-43.79772492355446</v>
+        <v>-40.38220414798201</v>
       </c>
       <c r="FO2" t="n">
-        <v>-43.80357428116649</v>
+        <v>-40.83761846932041</v>
       </c>
       <c r="FP2" t="n">
-        <v>-43.79707046580548</v>
+        <v>-41.73280574008297</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-43.78922253032424</v>
+        <v>-42.01516864336931</v>
       </c>
       <c r="FR2" t="n">
-        <v>-43.78006283043445</v>
+        <v>-42.1289910026556</v>
       </c>
       <c r="FS2" t="n">
-        <v>-43.76526655640954</v>
+        <v>-42.19045581688093</v>
       </c>
       <c r="FT2" t="n">
-        <v>-43.7492973413191</v>
+        <v>-42.19753914201884</v>
       </c>
       <c r="FU2" t="n">
-        <v>-43.73218384228369</v>
+        <v>-44.23135005423227</v>
       </c>
       <c r="FV2" t="n">
-        <v>-43.71395406956271</v>
+        <v>-49.09860810791407</v>
       </c>
       <c r="FW2" t="n">
-        <v>-43.69483465341107</v>
+        <v>-48.61476637662663</v>
       </c>
       <c r="FX2" t="n">
-        <v>-43.67330902722394</v>
+        <v>-50.44255254556356</v>
       </c>
       <c r="FY2" t="n">
-        <v>-43.65076692620487</v>
+        <v>-49.77227911395254</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-43.62723369527225</v>
+        <v>-49.86665678463701</v>
       </c>
       <c r="GA2" t="n">
-        <v>-43.60610412468337</v>
+        <v>-49.1287895655269</v>
       </c>
       <c r="GB2" t="n">
-        <v>-43.58397664464367</v>
+        <v>-48.38556788781715</v>
       </c>
       <c r="GC2" t="n">
-        <v>-43.56087607465815</v>
+        <v>-48.78827878889333</v>
       </c>
       <c r="GD2" t="n">
-        <v>-43.53682675667665</v>
+        <v>-47.98548635003743</v>
       </c>
       <c r="GE2" t="n">
-        <v>-43.51185257437887</v>
+        <v>-47.18743062274785</v>
       </c>
       <c r="GF2" t="n">
-        <v>-43.48597697150768</v>
+        <v>-47.17929595219589</v>
       </c>
       <c r="GG2" t="n">
-        <v>-43.45922296928938</v>
+        <v>-46.36829163992385</v>
       </c>
       <c r="GH2" t="n">
-        <v>-43.43161318297794</v>
+        <v>-45.57378652905556</v>
       </c>
       <c r="GI2" t="n">
-        <v>-43.40316983755875</v>
+        <v>-45.57822201501504</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-43.37391478264583</v>
+        <v>-44.78262909404863</v>
       </c>
       <c r="GK2" t="n">
-        <v>-43.34386950660524</v>
+        <v>-44.0103345998577</v>
       </c>
       <c r="GL2" t="n">
-        <v>-43.31305514993594</v>
+        <v>-43.75857487634199</v>
       </c>
       <c r="GM2" t="n">
-        <v>-43.2814925179383</v>
+        <v>-43.01171874210618</v>
       </c>
       <c r="GN2" t="n">
-        <v>-43.24920209269913</v>
+        <v>-42.78811577746972</v>
       </c>
       <c r="GO2" t="n">
-        <v>-43.21620404442119</v>
+        <v>-42.06851272836531</v>
       </c>
       <c r="GP2" t="n">
-        <v>-43.18251824212392</v>
+        <v>-41.37842977859189</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-43.14816426374121</v>
+        <v>-41.34286501121461</v>
       </c>
       <c r="GR2" t="n">
-        <v>-43.11316140564121</v>
+        <v>-40.67895935673334</v>
       </c>
       <c r="GS2" t="n">
-        <v>-43.07752869159211</v>
+        <v>-40.6701611343489</v>
       </c>
       <c r="GT2" t="n">
-        <v>-43.04128488119706</v>
+        <v>-40.04157128400003</v>
       </c>
       <c r="GU2" t="n">
-        <v>-43.00444847782071</v>
+        <v>-39.44200364340949</v>
       </c>
       <c r="GV2" t="n">
-        <v>-42.96703773602886</v>
+        <v>-39.35413752862267</v>
       </c>
       <c r="GW2" t="n">
-        <v>-42.9290706685622</v>
+        <v>-38.79483675443694</v>
       </c>
       <c r="GX2" t="n">
-        <v>-42.8905650528644</v>
+        <v>-38.2643206329827</v>
       </c>
       <c r="GY2" t="n">
-        <v>-42.8515384371839</v>
+        <v>-37.76476237741283</v>
       </c>
       <c r="GZ2" t="n">
-        <v>-42.8120081462686</v>
+        <v>-37.29569803805986</v>
       </c>
       <c r="HA2" t="n">
-        <v>-42.77199128667151</v>
+        <v>-36.85641426988015</v>
       </c>
       <c r="HB2" t="n">
-        <v>-42.73150475168535</v>
+        <v>-36.92639686123086</v>
       </c>
       <c r="HC2" t="n">
-        <v>-42.69056522592307</v>
+        <v>-36.52222777040946</v>
       </c>
       <c r="HD2" t="n">
-        <v>-42.64918918956111</v>
+        <v>-36.77012919766436</v>
       </c>
       <c r="HE2" t="n">
-        <v>-42.60739292226152</v>
+        <v>-36.3850782107541</v>
       </c>
       <c r="HF2" t="n">
-        <v>-42.56519250678851</v>
+        <v>-36.02872020405164</v>
       </c>
       <c r="HG2" t="n">
-        <v>-42.52260383233473</v>
+        <v>-36.17809754130455</v>
       </c>
       <c r="HH2" t="n">
-        <v>-42.47964259757201</v>
+        <v>-35.84162380702599</v>
       </c>
       <c r="HI2" t="n">
-        <v>-42.43632431344068</v>
+        <v>-36.15299807422178</v>
       </c>
       <c r="HJ2" t="n">
-        <v>-42.39266430569151</v>
+        <v>-35.83623032439906</v>
       </c>
       <c r="HK2" t="n">
-        <v>-42.34867771719361</v>
+        <v>-35.53944379693109</v>
       </c>
       <c r="HL2" t="n">
-        <v>-42.30437951002129</v>
+        <v>-35.74461013495286</v>
       </c>
       <c r="HM2" t="n">
-        <v>-42.2597844673326</v>
+        <v>-35.46820070392363</v>
       </c>
       <c r="HN2" t="n">
-        <v>-42.21490719505165</v>
+        <v>-35.83658281556367</v>
       </c>
       <c r="HO2" t="n">
-        <v>-42.16976212336673</v>
+        <v>-35.5650480969021</v>
       </c>
       <c r="HP2" t="n">
-        <v>-42.12436350805561</v>
+        <v>-35.31517285743192</v>
       </c>
       <c r="HQ2" t="n">
-        <v>-42.0787254316492</v>
+        <v>-35.07891916547661</v>
       </c>
       <c r="HR2" t="n">
-        <v>-42.03286180444433</v>
+        <v>-35.48450790729471</v>
       </c>
       <c r="HS2" t="n">
-        <v>-41.98678636537615</v>
+        <v>-35.25353606738534</v>
       </c>
       <c r="HT2" t="n">
-        <v>-41.94051268276014</v>
+        <v>-35.663436632494</v>
       </c>
       <c r="HU2" t="n">
-        <v>-41.8940541549135</v>
+        <v>-35.43529939162863</v>
       </c>
       <c r="HV2" t="n">
-        <v>-41.84742401066556</v>
+        <v>-35.2179760726269</v>
       </c>
       <c r="HW2" t="n">
-        <v>-41.80063530976591</v>
+        <v>-35.0186164558834</v>
       </c>
       <c r="HX2" t="n">
-        <v>-41.75370094319954</v>
+        <v>-35.45820509454843</v>
       </c>
       <c r="HY2" t="n">
-        <v>-41.70663363341702</v>
+        <v>-37.02239797284102</v>
       </c>
       <c r="HZ2" t="n">
-        <v>-41.65944593448818</v>
+        <v>-36.73818467102372</v>
       </c>
       <c r="IA2" t="n">
-        <v>-41.61215023218707</v>
+        <v>-37.09186640387323</v>
       </c>
       <c r="IB2" t="n">
-        <v>-41.56475874401568</v>
+        <v>-36.80570859483401</v>
       </c>
       <c r="IC2" t="n">
-        <v>-41.51728351917392</v>
+        <v>-36.53374508630473</v>
       </c>
       <c r="ID2" t="n">
-        <v>-41.46973643848255</v>
+        <v>-36.90000732702048</v>
       </c>
       <c r="IE2" t="n">
-        <v>-41.42212921426606</v>
+        <v>-36.62607984877067</v>
       </c>
       <c r="IF2" t="n">
-        <v>-41.37447339020168</v>
+        <v>-36.99059318859103</v>
       </c>
       <c r="IG2" t="n">
-        <v>-41.32678034114077</v>
+        <v>-36.70935955372948</v>
       </c>
       <c r="IH2" t="n">
-        <v>-41.27906127290848</v>
+        <v>-36.44485264192664</v>
       </c>
       <c r="II2" t="n">
-        <v>-41.23132722208722</v>
+        <v>-36.81879931550964</v>
       </c>
       <c r="IJ2" t="n">
-        <v>-41.18358905578928</v>
+        <v>-36.54454639985868</v>
       </c>
       <c r="IK2" t="n">
-        <v>-41.13585747142375</v>
+        <v>-36.28696050668069</v>
       </c>
       <c r="IL2" t="n">
-        <v>-41.08814299646244</v>
+        <v>-36.66746277351306</v>
       </c>
       <c r="IM2" t="n">
-        <v>-41.04045598820942</v>
+        <v>-36.40505923830496</v>
       </c>
       <c r="IN2" t="n">
-        <v>-40.99280663357864</v>
+        <v>-36.78060336215897</v>
       </c>
       <c r="IO2" t="n">
-        <v>-40.94520494888335</v>
+        <v>-36.51314136897192</v>
       </c>
       <c r="IP2" t="n">
-        <v>-40.89766077964163</v>
+        <v>-36.88356341457191</v>
       </c>
       <c r="IQ2" t="n">
-        <v>-40.85018380040122</v>
+        <v>-36.6109490822058</v>
       </c>
       <c r="IR2" t="n">
-        <v>-40.80278351458729</v>
+        <v>-36.35220071126016</v>
       </c>
       <c r="IS2" t="n">
-        <v>-40.75546925437622</v>
+        <v>-36.1072949483013</v>
       </c>
       <c r="IT2" t="n">
-        <v>-40.70825018059828</v>
+        <v>-36.50015581863443</v>
       </c>
       <c r="IU2" t="n">
-        <v>-40.66113528267204</v>
+        <v>-36.24975638908803</v>
       </c>
       <c r="IV2" t="n">
-        <v>-40.61413337857299</v>
+        <v>-36.63692231616989</v>
       </c>
       <c r="IW2" t="n">
-        <v>-40.56725311483855</v>
+        <v>-36.38067681543247</v>
       </c>
       <c r="IX2" t="n">
-        <v>-40.52050296661189</v>
+        <v>-36.13806512386566</v>
       </c>
       <c r="IY2" t="n">
-        <v>-40.47389123772615</v>
+        <v>-36.38891000928229</v>
       </c>
       <c r="IZ2" t="n">
-        <v>-40.42742606083102</v>
+        <v>-36.14745105294282</v>
       </c>
       <c r="JA2" t="n">
-        <v>-40.38111539756315</v>
+        <v>-36.39920596400191</v>
       </c>
       <c r="JB2" t="n">
-        <v>-40.33496703876182</v>
+        <v>-36.15875754967053</v>
       </c>
       <c r="JC2" t="n">
-        <v>-40.28898860473106</v>
+        <v>-35.93153231218489</v>
       </c>
       <c r="JD2" t="n">
-        <v>-40.24318754554917</v>
+        <v>-36.19731300384344</v>
       </c>
       <c r="JE2" t="n">
-        <v>-40.19757114142676</v>
+        <v>-35.97030556833983</v>
       </c>
       <c r="JF2" t="n">
-        <v>-40.15214650311384</v>
+        <v>-36.23599999448522</v>
       </c>
       <c r="JG2" t="n">
-        <v>-40.10692057235661</v>
+        <v>-36.00895684055244</v>
       </c>
       <c r="JH2" t="n">
-        <v>-40.06190012240442</v>
+        <v>-35.79439375115741</v>
       </c>
       <c r="JI2" t="n">
-        <v>-40.01709175856723</v>
+        <v>-36.072214799268</v>
       </c>
       <c r="JJ2" t="n">
-        <v>-39.97250191882367</v>
+        <v>-35.85714006430425</v>
       </c>
       <c r="JK2" t="n">
-        <v>-39.92813687447987</v>
+        <v>-35.65415838574359</v>
       </c>
       <c r="JL2" t="n">
-        <v>-39.88400273087884</v>
+        <v>-35.94321934534264</v>
       </c>
       <c r="JM2" t="n">
-        <v>-39.84010542816044</v>
+        <v>-35.73869420205723</v>
       </c>
       <c r="JN2" t="n">
-        <v>-39.79645074207144</v>
+        <v>-35.54583106214838</v>
       </c>
       <c r="JO2" t="n">
-        <v>-39.75304428482539</v>
+        <v>-35.84456929844493</v>
       </c>
       <c r="JP2" t="n">
-        <v>-39.70989150601189</v>
+        <v>-35.64927330781648</v>
       </c>
       <c r="JQ2" t="n">
-        <v>-39.66699769355449</v>
+        <v>-35.94527687993492</v>
       </c>
       <c r="JR2" t="n">
-        <v>-39.62436797471673</v>
+        <v>-35.74679736559993</v>
       </c>
       <c r="JS2" t="n">
-        <v>-39.58200731715552</v>
+        <v>-35.55951393896074</v>
       </c>
       <c r="JT2" t="n">
-        <v>-39.53992053002099</v>
+        <v>-35.86320161991658</v>
       </c>
       <c r="JU2" t="n">
-        <v>-39.49811226510199</v>
+        <v>-35.67226176754017</v>
       </c>
       <c r="JV2" t="n">
-        <v>-39.45658701801636</v>
+        <v>-35.9720645632114</v>
       </c>
       <c r="JW2" t="n">
-        <v>-39.41534912944466</v>
+        <v>-35.77705469424073</v>
       </c>
       <c r="JX2" t="n">
-        <v>-39.37440278640664</v>
+        <v>-35.59255281442118</v>
       </c>
       <c r="JY2" t="n">
-        <v>-39.3337520235791</v>
+        <v>-35.89856966905244</v>
       </c>
       <c r="JZ2" t="n">
-        <v>-39.29340072465405</v>
+        <v>-35.70953959380113</v>
       </c>
       <c r="KA2" t="n">
-        <v>-39.25335262373593</v>
+        <v>-35.53077516098448</v>
       </c>
       <c r="KB2" t="n">
-        <v>-39.21361130677665</v>
+        <v>-35.98628706508114</v>
       </c>
       <c r="KC2" t="n">
-        <v>-39.17418021304713</v>
+        <v>-35.79491651563041</v>
       </c>
       <c r="KD2" t="n">
-        <v>-39.13506263664411</v>
+        <v>-35.61359576534285</v>
       </c>
       <c r="KE2" t="n">
-        <v>-39.0962617280307</v>
+        <v>-36.06637057285279</v>
       </c>
       <c r="KF2" t="n">
-        <v>-39.05778049560955</v>
+        <v>-35.87211465705888</v>
       </c>
       <c r="KG2" t="n">
-        <v>-39.01962180732699</v>
+        <v>-36.1678798067467</v>
       </c>
       <c r="KH2" t="n">
-        <v>-38.98178839230701</v>
+        <v>-35.96820417108966</v>
       </c>
       <c r="KI2" t="n">
-        <v>-38.94428284251337</v>
+        <v>-35.7784958269089</v>
       </c>
       <c r="KJ2" t="n">
-        <v>-38.90710761443869</v>
+        <v>-35.59875754974423</v>
       </c>
       <c r="KK2" t="n">
-        <v>-38.87026503081881</v>
+        <v>-35.90902878886834</v>
       </c>
       <c r="KL2" t="n">
-        <v>-38.83375728237135</v>
+        <v>-37.51424780250321</v>
       </c>
       <c r="KM2" t="n">
-        <v>-38.79758642955658</v>
+        <v>-37.24459525049704</v>
       </c>
       <c r="KN2" t="n">
-        <v>-38.76175440435959</v>
+        <v>-37.46527243157219</v>
       </c>
       <c r="KO2" t="n">
-        <v>-38.72626301209203</v>
+        <v>-37.19118235910251</v>
       </c>
       <c r="KP2" t="n">
-        <v>-38.69111393321222</v>
+        <v>-36.9280579259302</v>
       </c>
       <c r="KQ2" t="n">
-        <v>-38.65630872516198</v>
+        <v>-36.67599731964786</v>
       </c>
       <c r="KR2" t="n">
-        <v>-38.62184882421905</v>
+        <v>-36.91542546190706</v>
       </c>
       <c r="KS2" t="n">
-        <v>-38.58773554736347</v>
+        <v>-36.66135434515855</v>
       </c>
       <c r="KT2" t="n">
-        <v>-38.55397009415671</v>
+        <v>-36.41903870154196</v>
       </c>
       <c r="KU2" t="n">
-        <v>-38.52055354863217</v>
+        <v>-36.81267513163823</v>
       </c>
       <c r="KV2" t="n">
-        <v>-38.48748688119559</v>
+        <v>-36.56126332261813</v>
       </c>
       <c r="KW2" t="n">
-        <v>-38.45477095053424</v>
+        <v>-36.94596392713587</v>
       </c>
       <c r="KX2" t="n">
-        <v>-38.4224065055335</v>
+        <v>-36.6858076881819</v>
       </c>
       <c r="KY2" t="n">
-        <v>-38.39039418719953</v>
+        <v>-36.43788675663129</v>
       </c>
       <c r="KZ2" t="n">
-        <v>-38.35873453058686</v>
+        <v>-36.68237333079321</v>
       </c>
       <c r="LA2" t="n">
-        <v>-38.32742796672966</v>
+        <v>-36.43383709421683</v>
       </c>
       <c r="LB2" t="n">
-        <v>-38.29647482457545</v>
+        <v>-36.67779125729694</v>
       </c>
       <c r="LC2" t="n">
-        <v>-38.26587533292017</v>
+        <v>-38.21927542362022</v>
       </c>
       <c r="LD2" t="n">
-        <v>-38.23562962234338</v>
+        <v>-37.88854785123847</v>
       </c>
       <c r="LE2" t="n">
-        <v>-38.20573772714258</v>
+        <v>-37.57077615915723</v>
       </c>
       <c r="LF2" t="n">
-        <v>-38.17619958726543</v>
+        <v>-37.26633910651844</v>
       </c>
       <c r="LG2" t="n">
-        <v>-38.14701505023906</v>
+        <v>-37.59960272792674</v>
       </c>
       <c r="LH2" t="n">
-        <v>-38.11818387309513</v>
+        <v>-37.2897099798373</v>
       </c>
       <c r="LI2" t="n">
-        <v>-38.08970572429</v>
+        <v>-37.47393453671688</v>
       </c>
       <c r="LJ2" t="n">
-        <v>-38.06158018561872</v>
+        <v>-37.1669926488716</v>
       </c>
       <c r="LK2" t="n">
-        <v>-38.03380675412222</v>
+        <v>-36.87443015094293</v>
       </c>
       <c r="LL2" t="n">
-        <v>-38.00638484398658</v>
+        <v>-37.07644003988771</v>
       </c>
       <c r="LM2" t="n">
-        <v>-37.97931378843364</v>
+        <v>-36.78759930763697</v>
       </c>
       <c r="LN2" t="n">
-        <v>-37.95259284160205</v>
+        <v>-37.13742223863909</v>
       </c>
       <c r="LO2" t="n">
-        <v>-37.92622118041805</v>
+        <v>-36.84486818512742</v>
       </c>
       <c r="LP2" t="n">
-        <v>-37.90019790645512</v>
+        <v>-36.56695197887811</v>
       </c>
       <c r="LQ2" t="n">
-        <v>-37.87452204778182</v>
+        <v>-36.92776951627388</v>
       </c>
       <c r="LR2" t="n">
-        <v>-37.84919256079711</v>
+        <v>-36.64621519359917</v>
       </c>
       <c r="LS2" t="n">
-        <v>-37.82420833205244</v>
+        <v>-37.00334079967495</v>
       </c>
       <c r="LT2" t="n">
-        <v>-37.79956818006001</v>
+        <v>-36.71806557187606</v>
       </c>
       <c r="LU2" t="n">
-        <v>-37.77527085708659</v>
+        <v>-36.44736836562013</v>
       </c>
       <c r="LV2" t="n">
-        <v>-37.75131505093228</v>
+        <v>-36.67130707006866</v>
       </c>
       <c r="LW2" t="n">
-        <v>-37.72769938669366</v>
+        <v>-38.45473947711673</v>
       </c>
       <c r="LX2" t="n">
-        <v>-37.70442242851088</v>
+        <v>-38.09428367950152</v>
       </c>
       <c r="LY2" t="n">
-        <v>-37.68148268129802</v>
+        <v>-37.7486732592138</v>
       </c>
       <c r="LZ2" t="n">
-        <v>-37.65887859245654</v>
+        <v>-37.41824468384988</v>
       </c>
       <c r="MA2" t="n">
-        <v>-37.63660855357101</v>
+        <v>-37.10322074929418</v>
       </c>
       <c r="MB2" t="n">
-        <v>-37.61467090208707</v>
+        <v>-36.80372077641292</v>
       </c>
       <c r="MC2" t="n">
-        <v>-37.59306392297098</v>
+        <v>-36.51977033309436</v>
       </c>
       <c r="MD2" t="n">
-        <v>-37.57178585035049</v>
+        <v>-36.25131047787784</v>
       </c>
       <c r="ME2" t="n">
-        <v>-37.55083486913671</v>
+        <v>-36.62230196658142</v>
       </c>
       <c r="MF2" t="n">
-        <v>-37.53020911662663</v>
+        <v>-38.14198919756613</v>
       </c>
       <c r="MG2" t="n">
-        <v>-37.50990668408606</v>
+        <v>-37.79205242698044</v>
       </c>
       <c r="MH2" t="n">
-        <v>-37.48992561831263</v>
+        <v>-37.45750165452396</v>
       </c>
       <c r="MI2" t="n">
-        <v>-37.47026392317868</v>
+        <v>-37.13817393810508</v>
       </c>
       <c r="MJ2" t="n">
-        <v>-37.45091956115388</v>
+        <v>-36.83742520916023</v>
       </c>
       <c r="MK2" t="n">
-        <v>-37.43189045480719</v>
+        <v>-36.54985988305136</v>
       </c>
       <c r="ML2" t="n">
-        <v>-37.41317448828817</v>
+        <v>-36.91738361651176</v>
       </c>
       <c r="MM2" t="n">
-        <v>-37.39476950878745</v>
+        <v>-36.62727714655988</v>
       </c>
       <c r="MN2" t="n">
-        <v>-37.37667332797613</v>
+        <v>-36.97677982341392</v>
       </c>
       <c r="MO2" t="n">
-        <v>-37.35888372342403</v>
+        <v>-36.68841159751373</v>
       </c>
       <c r="MP2" t="n">
-        <v>-37.34139843999684</v>
+        <v>-37.03990700199907</v>
       </c>
       <c r="MQ2" t="n">
-        <v>-37.32421519123181</v>
+        <v>-36.74569304096111</v>
       </c>
       <c r="MR2" t="n">
-        <v>-37.30733166069218</v>
+        <v>-37.1062793157396</v>
       </c>
       <c r="MS2" t="n">
-        <v>-37.29074550330012</v>
+        <v>-39.48505733435429</v>
       </c>
       <c r="MT2" t="n">
-        <v>-37.27445434664827</v>
+        <v>-39.06564613212654</v>
       </c>
       <c r="MU2" t="n">
-        <v>-37.25845579228974</v>
+        <v>-39.62646653927933</v>
       </c>
       <c r="MV2" t="n">
-        <v>-37.24274741700671</v>
+        <v>-41.25860084843703</v>
       </c>
       <c r="MW2" t="n">
-        <v>-37.22732677405753</v>
+        <v>-40.72534852114295</v>
       </c>
       <c r="MX2" t="n">
-        <v>-37.21219139440241</v>
+        <v>-40.21036660051804</v>
       </c>
       <c r="MY2" t="n">
-        <v>-37.19733878790765</v>
+        <v>-39.71789026730972</v>
       </c>
       <c r="MZ2" t="n">
-        <v>-37.18276644452862</v>
+        <v>-39.74066339645778</v>
       </c>
       <c r="NA2" t="n">
-        <v>-37.16847183547133</v>
+        <v>-39.25884878546363</v>
       </c>
       <c r="NB2" t="n">
-        <v>-37.15445241433289</v>
+        <v>-38.79762453555986</v>
       </c>
       <c r="NC2" t="n">
-        <v>-37.14070561822083</v>
+        <v>-38.35845006319329</v>
       </c>
       <c r="ND2" t="n">
-        <v>-37.12722886885127</v>
+        <v>-37.93961932361601</v>
       </c>
       <c r="NE2" t="n">
-        <v>-37.11401957362632</v>
+        <v>-37.54228069792808</v>
       </c>
       <c r="NF2" t="n">
-        <v>-37.10107512669053</v>
+        <v>-37.16658042807504</v>
       </c>
       <c r="NG2" t="n">
-        <v>-37.08839290996671</v>
+        <v>-37.43627838807809</v>
       </c>
       <c r="NH2" t="n">
-        <v>-37.07597029417114</v>
+        <v>-38.83735850767032</v>
       </c>
       <c r="NI2" t="n">
-        <v>-37.06380463980837</v>
+        <v>-38.40233589243915</v>
       </c>
       <c r="NJ2" t="n">
-        <v>-37.0518932981457</v>
+        <v>-37.98482836068337</v>
       </c>
       <c r="NK2" t="n">
-        <v>-37.04023361216758</v>
+        <v>-38.55173651491122</v>
       </c>
       <c r="NL2" t="n">
-        <v>-37.02882291750996</v>
+        <v>-38.12444750252452</v>
       </c>
       <c r="NM2" t="n">
-        <v>-37.01765854337486</v>
+        <v>-38.34230848820867</v>
       </c>
       <c r="NN2" t="n">
-        <v>-37.00673781342527</v>
+        <v>-37.92397018973756</v>
       </c>
       <c r="NO2" t="n">
-        <v>-36.99605804666061</v>
+        <v>-38.32172853533971</v>
       </c>
       <c r="NP2" t="n">
-        <v>-36.98561655827284</v>
+        <v>-37.90498570551567</v>
       </c>
       <c r="NQ2" t="n">
-        <v>-36.97541066048353</v>
+        <v>-38.14892552267741</v>
       </c>
       <c r="NR2" t="n">
-        <v>-36.96543766336195</v>
+        <v>-37.73595863292513</v>
       </c>
       <c r="NS2" t="n">
-        <v>-36.95569487562442</v>
+        <v>-38.28947531828356</v>
       </c>
       <c r="NT2" t="n">
-        <v>-36.94617960541519</v>
+        <v>-37.76709447903531</v>
       </c>
       <c r="NU2" t="n">
-        <v>-36.93688916106893</v>
+        <v>-38.16834584204316</v>
       </c>
       <c r="NV2" t="n">
-        <v>-36.92782085185507</v>
+        <v>-37.64826460633181</v>
       </c>
       <c r="NW2" t="n">
-        <v>-36.91897198870431</v>
+        <v>-38.03499301372346</v>
       </c>
       <c r="NX2" t="n">
-        <v>-36.91033988491721</v>
+        <v>-37.52161378700121</v>
       </c>
       <c r="NY2" t="n">
-        <v>-36.90192185685553</v>
+        <v>-37.03532299125477</v>
       </c>
       <c r="NZ2" t="n">
-        <v>-36.893715224616</v>
+        <v>-37.47088029576435</v>
       </c>
       <c r="OA2" t="n">
-        <v>-36.88571731268718</v>
+        <v>-36.9917612730441</v>
       </c>
       <c r="OB2" t="n">
-        <v>-36.8779254505894</v>
+        <v>-37.41858691285878</v>
       </c>
       <c r="OC2" t="n">
-        <v>-36.87033697349796</v>
+        <v>-36.94259824984339</v>
       </c>
       <c r="OD2" t="n">
-        <v>-36.86294922284999</v>
+        <v>-36.49191738674286</v>
       </c>
       <c r="OE2" t="n">
-        <v>-36.85575954693501</v>
+        <v>-36.66242079858315</v>
       </c>
       <c r="OF2" t="n">
-        <v>-36.84876530146951</v>
+        <v>-36.23350560898126</v>
       </c>
       <c r="OG2" t="n">
-        <v>-36.84196385015571</v>
+        <v>-36.72422294958009</v>
       </c>
       <c r="OH2" t="n">
-        <v>-36.83535256522482</v>
+        <v>-36.29824528908291</v>
       </c>
       <c r="OI2" t="n">
-        <v>-36.82892882796479</v>
+        <v>-35.89452217410948</v>
       </c>
       <c r="OJ2" t="n">
-        <v>-36.82269002923312</v>
+        <v>-36.55996227988431</v>
       </c>
       <c r="OK2" t="n">
-        <v>-36.81663356995453</v>
+        <v>-36.15210430617515</v>
       </c>
       <c r="OL2" t="n">
-        <v>-36.81075686160418</v>
+        <v>-36.49209815091118</v>
       </c>
       <c r="OM2" t="n">
-        <v>-36.80505732667616</v>
+        <v>-36.08964146208978</v>
       </c>
       <c r="ON2" t="n">
-        <v>-36.79953239913787</v>
+        <v>-35.71302462196148</v>
       </c>
       <c r="OO2" t="n">
-        <v>-36.79417952487029</v>
+        <v>-35.35917512617871</v>
       </c>
       <c r="OP2" t="n">
-        <v>-36.78899616209447</v>
+        <v>-35.02768040804229</v>
       </c>
       <c r="OQ2" t="n">
-        <v>-36.78397978178428</v>
+        <v>-34.71783375363907</v>
       </c>
       <c r="OR2" t="n">
-        <v>-36.77912786806589</v>
+        <v>-34.42690797198561</v>
       </c>
       <c r="OS2" t="n">
-        <v>-36.77443791860399</v>
+        <v>-34.15684597929049</v>
       </c>
       <c r="OT2" t="n">
-        <v>-36.769907444975</v>
+        <v>-33.9069294778533</v>
       </c>
       <c r="OU2" t="n">
-        <v>-36.76553397302759</v>
+        <v>-34.73711152034399</v>
       </c>
       <c r="OV2" t="n">
-        <v>-36.76131504323055</v>
+        <v>-34.46960264621157</v>
       </c>
       <c r="OW2" t="n">
-        <v>-36.75724821100839</v>
+        <v>-34.22276287946425</v>
       </c>
       <c r="OX2" t="n">
-        <v>-36.75333104706468</v>
+        <v>-33.99376884213546</v>
       </c>
       <c r="OY2" t="n">
-        <v>-36.74956113769357</v>
+        <v>-33.78183612180412</v>
       </c>
       <c r="OZ2" t="n">
-        <v>-36.74593608507949</v>
+        <v>-33.58637498875351</v>
       </c>
       <c r="PA2" t="n">
-        <v>-36.74245350758533</v>
+        <v>-33.40676789433258</v>
       </c>
       <c r="PB2" t="n">
-        <v>-36.73911104002929</v>
+        <v>-34.13640582601312</v>
       </c>
       <c r="PC2" t="n">
-        <v>-36.73590633395059</v>
+        <v>-33.93931386618569</v>
       </c>
       <c r="PD2" t="n">
-        <v>-36.73283705786419</v>
+        <v>-34.49566823537434</v>
       </c>
       <c r="PE2" t="n">
-        <v>-36.72990089750485</v>
+        <v>-34.28773450524442</v>
       </c>
       <c r="PF2" t="n">
-        <v>-36.72709555606055</v>
+        <v>-34.09298846239646</v>
       </c>
       <c r="PG2" t="n">
-        <v>-36.72441875439559</v>
+        <v>-34.80559133957446</v>
       </c>
       <c r="PH2" t="n">
-        <v>-36.72186823126353</v>
+        <v>-34.58964153805933</v>
       </c>
       <c r="PI2" t="n">
-        <v>-36.71944174351005</v>
+        <v>-35.82622773761402</v>
       </c>
       <c r="PJ2" t="n">
-        <v>-36.71713706626614</v>
+        <v>-35.55975068093709</v>
       </c>
       <c r="PK2" t="n">
-        <v>-36.7149519931316</v>
+        <v>-35.30561357819512</v>
       </c>
       <c r="PL2" t="n">
-        <v>-36.71288433634906</v>
+        <v>-36.50405902753323</v>
       </c>
       <c r="PM2" t="n">
-        <v>-36.71093192696887</v>
+        <v>-36.19968413074893</v>
       </c>
       <c r="PN2" t="n">
-        <v>-36.70909261500478</v>
+        <v>-37.3479990031731</v>
       </c>
       <c r="PO2" t="n">
-        <v>-36.70736426958081</v>
+        <v>-36.99406036293296</v>
       </c>
       <c r="PP2" t="n">
-        <v>-36.70574477906936</v>
+        <v>-36.65365137380439</v>
       </c>
       <c r="PQ2" t="n">
-        <v>-36.70423205122075</v>
+        <v>-36.3274188408863</v>
       </c>
       <c r="PR2" t="n">
-        <v>-36.70282401328442</v>
+        <v>-37.45559548597708</v>
       </c>
       <c r="PS2" t="n">
-        <v>-36.70151861212186</v>
+        <v>-37.0827484309741</v>
       </c>
       <c r="PT2" t="n">
-        <v>-36.70031381431155</v>
+        <v>-36.725061206864</v>
       </c>
       <c r="PU2" t="n">
-        <v>-36.69920760624594</v>
+        <v>-37.82283394338503</v>
       </c>
       <c r="PV2" t="n">
-        <v>-36.69819799422082</v>
+        <v>-37.42090648893605</v>
       </c>
       <c r="PW2" t="n">
-        <v>-36.69728300451699</v>
+        <v>-38.4749909784445</v>
       </c>
       <c r="PX2" t="n">
-        <v>-36.69646068347465</v>
+        <v>-38.03009083236991</v>
       </c>
       <c r="PY2" t="n">
-        <v>-36.69572909756047</v>
+        <v>-38.84544442942985</v>
       </c>
       <c r="PZ2" t="n">
-        <v>-36.6950863334276</v>
+        <v>-38.37062993056556</v>
       </c>
       <c r="QA2" t="n">
-        <v>-36.69453049796876</v>
+        <v>-37.91418161800056</v>
       </c>
       <c r="QB2" t="n">
-        <v>-36.69405971836247</v>
+        <v>-38.71975312905668</v>
       </c>
       <c r="QC2" t="n">
-        <v>-36.69367214211274</v>
+        <v>-38.23657991413889</v>
       </c>
       <c r="QD2" t="n">
-        <v>-36.69336593708218</v>
+        <v>-39.01640073484788</v>
       </c>
       <c r="QE2" t="n">
-        <v>-36.69313929151886</v>
+        <v>-38.50870690350479</v>
       </c>
       <c r="QF2" t="n">
-        <v>-36.69299041407685</v>
+        <v>-38.02215815639182</v>
       </c>
       <c r="QG2" t="n">
-        <v>-36.69291753383084</v>
+        <v>-38.61857685320468</v>
       </c>
       <c r="QH2" t="n">
-        <v>-36.6929189002847</v>
+        <v>-38.11966061061955</v>
       </c>
       <c r="QI2" t="n">
-        <v>-36.69299278337435</v>
+        <v>-37.6430618212442</v>
       </c>
       <c r="QJ2" t="n">
-        <v>-36.693137473465</v>
+        <v>-37.18905985605011</v>
       </c>
       <c r="QK2" t="n">
-        <v>-36.69335128134277</v>
+        <v>-36.75629173700619</v>
       </c>
       <c r="QL2" t="n">
-        <v>-36.69363253820103</v>
+        <v>-36.3480805673757</v>
       </c>
       <c r="QM2" t="n">
-        <v>-36.69397959562147</v>
+        <v>-36.68658978801968</v>
       </c>
       <c r="QN2" t="n">
-        <v>-36.69439082555002</v>
+        <v>-36.28589498642609</v>
       </c>
       <c r="QO2" t="n">
-        <v>-36.69486462026781</v>
+        <v>-36.8019623692653</v>
       </c>
       <c r="QP2" t="n">
-        <v>-36.69539939235725</v>
+        <v>-36.39800413412472</v>
       </c>
       <c r="QQ2" t="n">
-        <v>-36.69599357466338</v>
+        <v>-36.01568692733505</v>
       </c>
       <c r="QR2" t="n">
-        <v>-36.69664562025054</v>
+        <v>-36.53363340013468</v>
       </c>
       <c r="QS2" t="n">
-        <v>-36.69735400235466</v>
+        <v>-36.14898446569467</v>
       </c>
       <c r="QT2" t="n">
-        <v>-36.69811721433106</v>
+        <v>-35.78565670398888</v>
       </c>
       <c r="QU2" t="n">
-        <v>-36.69893376959797</v>
+        <v>-36.50539013409081</v>
       </c>
       <c r="QV2" t="n">
-        <v>-36.69980220157604</v>
+        <v>-36.127143372263</v>
       </c>
       <c r="QW2" t="n">
-        <v>-36.70072106362365</v>
+        <v>-35.76964288140723</v>
       </c>
       <c r="QX2" t="n">
-        <v>-36.70168892896841</v>
+        <v>-36.1717819035568</v>
       </c>
       <c r="QY2" t="n">
-        <v>-36.70270439063476</v>
+        <v>-35.81678648106261</v>
       </c>
       <c r="QZ2" t="n">
-        <v>-36.70376606136794</v>
+        <v>-36.92186467265207</v>
       </c>
       <c r="RA2" t="n">
-        <v>-36.7048725735543</v>
+        <v>-38.79808195064177</v>
       </c>
       <c r="RB2" t="n">
-        <v>-36.70602257913819</v>
+        <v>-38.30824508115197</v>
       </c>
       <c r="RC2" t="n">
-        <v>-36.70721474953536</v>
+        <v>-37.83887154262281</v>
       </c>
       <c r="RD2" t="n">
-        <v>-36.70844777554315</v>
+        <v>-37.39038809951005</v>
       </c>
       <c r="RE2" t="n">
-        <v>-36.70972036724746</v>
+        <v>-37.70262572909949</v>
       </c>
       <c r="RF2" t="n">
-        <v>-36.71103125392666</v>
+        <v>-39.28629382716379</v>
       </c>
       <c r="RG2" t="n">
-        <v>-36.71237918395248</v>
+        <v>-38.75575230038074</v>
       </c>
       <c r="RH2" t="n">
-        <v>-36.71376292468801</v>
+        <v>-39.14157857596593</v>
       </c>
       <c r="RI2" t="n">
-        <v>-36.71518126238291</v>
+        <v>-38.6091404138479</v>
       </c>
       <c r="RJ2" t="n">
-        <v>-36.71663300206597</v>
+        <v>-38.09984128437045</v>
       </c>
       <c r="RK2" t="n">
-        <v>-36.7181169674349</v>
+        <v>-38.50860818219515</v>
       </c>
       <c r="RL2" t="n">
-        <v>-36.71963200074379</v>
+        <v>-37.99946598384496</v>
       </c>
       <c r="RM2" t="n">
-        <v>-36.72117696268799</v>
+        <v>-38.40890312914104</v>
       </c>
       <c r="RN2" t="n">
-        <v>-36.72275073228671</v>
+        <v>-37.90088961363999</v>
       </c>
       <c r="RO2" t="n">
-        <v>-36.72435220676335</v>
+        <v>-37.41730460409809</v>
       </c>
       <c r="RP2" t="n">
-        <v>-36.72598030142365</v>
+        <v>-37.69781011849286</v>
       </c>
       <c r="RQ2" t="n">
-        <v>-36.72763394953174</v>
+        <v>-37.22396656049462</v>
       </c>
       <c r="RR2" t="n">
-        <v>-36.72931210218417</v>
+        <v>-38.21466898415221</v>
       </c>
       <c r="RS2" t="n">
-        <v>-36.73101372818206</v>
+        <v>-37.71352169864908</v>
       </c>
       <c r="RT2" t="n">
-        <v>-36.73273781390131</v>
+        <v>-37.23761751666822</v>
       </c>
       <c r="RU2" t="n">
-        <v>-36.73448336316113</v>
+        <v>-38.22639350097042</v>
       </c>
       <c r="RV2" t="n">
-        <v>-36.73624939709083</v>
+        <v>-37.72401422422082</v>
       </c>
       <c r="RW2" t="n">
-        <v>-36.73803495399494</v>
+        <v>-38.30799477877751</v>
       </c>
       <c r="RX2" t="n">
-        <v>-36.73983908921689</v>
+        <v>-37.79972889393699</v>
       </c>
       <c r="RY2" t="n">
-        <v>-36.74166087500112</v>
+        <v>-38.19512469738155</v>
       </c>
       <c r="RZ2" t="n">
-        <v>-36.74349940035382</v>
+        <v>-37.69026941593413</v>
       </c>
       <c r="SA2" t="n">
-        <v>-36.74535377090234</v>
+        <v>-37.21099445802025</v>
       </c>
       <c r="SB2" t="n">
-        <v>-36.74722310875333</v>
+        <v>-37.65146667131336</v>
       </c>
       <c r="SC2" t="n">
-        <v>-36.74910655234968</v>
+        <v>-37.17499807079867</v>
       </c>
       <c r="SD2" t="n">
-        <v>-36.75100325632632</v>
+        <v>-36.72360826772498</v>
       </c>
       <c r="SE2" t="n">
-        <v>-36.75291239136497</v>
+        <v>-36.29716754722836</v>
       </c>
       <c r="SF2" t="n">
-        <v>-36.75483314404786</v>
+        <v>-35.89542767938916</v>
       </c>
       <c r="SG2" t="n">
-        <v>-36.75676471671058</v>
+        <v>-35.51803508289801</v>
+      </c>
+      <c r="SH2" t="n">
+        <v>-36.22612585756875</v>
+      </c>
+      <c r="SI2" t="n">
+        <v>-35.8405273011953</v>
+      </c>
+      <c r="SJ2" t="n">
+        <v>-35.47759300005189</v>
+      </c>
+      <c r="SK2" t="n">
+        <v>-36.03153736722947</v>
+      </c>
+      <c r="SL2" t="n">
+        <v>-35.66679101530722</v>
+      </c>
+      <c r="SM2" t="n">
+        <v>-35.32353866626936</v>
+      </c>
+      <c r="SN2" t="n">
+        <v>-35.74103441546482</v>
+      </c>
+      <c r="SO2" t="n">
+        <v>-37.6963829235568</v>
+      </c>
+      <c r="SP2" t="n">
+        <v>-37.25678020308833</v>
+      </c>
+      <c r="SQ2" t="n">
+        <v>-36.83813745778835</v>
+      </c>
+      <c r="SR2" t="n">
+        <v>-37.33477548949944</v>
+      </c>
+      <c r="SS2" t="n">
+        <v>-36.91120918464711</v>
+      </c>
+      <c r="ST2" t="n">
+        <v>-36.50881997189721</v>
+      </c>
+      <c r="SU2" t="n">
+        <v>-36.1276101841724</v>
+      </c>
+      <c r="SV2" t="n">
+        <v>-35.76747029769491</v>
+      </c>
+      <c r="SW2" t="n">
+        <v>-35.42819069856579</v>
+      </c>
+      <c r="SX2" t="n">
+        <v>-36.00368388782383</v>
+      </c>
+      <c r="SY2" t="n">
+        <v>-35.65847756511135</v>
+      </c>
+      <c r="SZ2" t="n">
+        <v>-35.3328544146509</v>
+      </c>
+      <c r="TA2" t="n">
+        <v>-35.92114041572577</v>
+      </c>
+      <c r="TB2" t="n">
+        <v>-35.58750464403505</v>
+      </c>
+      <c r="TC2" t="n">
+        <v>-36.16723744949512</v>
+      </c>
+      <c r="TD2" t="n">
+        <v>-35.82498465472311</v>
+      </c>
+      <c r="TE2" t="n">
+        <v>-36.39607708799379</v>
+      </c>
+      <c r="TF2" t="n">
+        <v>-38.33871076116266</v>
+      </c>
+      <c r="TG2" t="n">
+        <v>-37.88427980433755</v>
+      </c>
+      <c r="TH2" t="n">
+        <v>-37.44898498113685</v>
+      </c>
+      <c r="TI2" t="n">
+        <v>-37.7724436497298</v>
+      </c>
+      <c r="TJ2" t="n">
+        <v>-37.33790119169346</v>
+      </c>
+      <c r="TK2" t="n">
+        <v>-36.92340487282416</v>
+      </c>
+      <c r="TL2" t="n">
+        <v>-36.52875637419388</v>
+      </c>
+      <c r="TM2" t="n">
+        <v>-36.1544079024508</v>
+      </c>
+      <c r="TN2" t="n">
+        <v>-36.6945128289162</v>
+      </c>
+      <c r="TO2" t="n">
+        <v>-36.31343971864248</v>
+      </c>
+      <c r="TP2" t="n">
+        <v>-35.95244344762869</v>
+      </c>
+      <c r="TQ2" t="n">
+        <v>-36.50562934230813</v>
+      </c>
+      <c r="TR2" t="n">
+        <v>-36.1373241584089</v>
+      </c>
+      <c r="TS2" t="n">
+        <v>-36.52798423240742</v>
+      </c>
+      <c r="TT2" t="n">
+        <v>-36.16047958627205</v>
+      </c>
+      <c r="TU2" t="n">
+        <v>-35.81214294346842</v>
+      </c>
+      <c r="TV2" t="n">
+        <v>-36.22248787189052</v>
+      </c>
+      <c r="TW2" t="n">
+        <v>-35.87393143188167</v>
+      </c>
+      <c r="TX2" t="n">
+        <v>-35.54451546442143</v>
+      </c>
+      <c r="TY2" t="n">
+        <v>-36.29564406603006</v>
+      </c>
+      <c r="TZ2" t="n">
+        <v>-35.94803415879462</v>
+      </c>
+      <c r="UA2" t="n">
+        <v>-35.61907949117342</v>
+      </c>
+      <c r="UB2" t="n">
+        <v>-36.2028587253264</v>
+      </c>
+      <c r="UC2" t="n">
+        <v>-35.86368225289415</v>
+      </c>
+      <c r="UD2" t="n">
+        <v>-35.54276196468988</v>
+      </c>
+      <c r="UE2" t="n">
+        <v>-35.23996300939965</v>
+      </c>
+      <c r="UF2" t="n">
+        <v>-35.84927960722356</v>
+      </c>
+      <c r="UG2" t="n">
+        <v>-37.82988142217101</v>
+      </c>
+      <c r="UH2" t="n">
+        <v>-37.41230226132075</v>
+      </c>
+      <c r="UI2" t="n">
+        <v>-37.01266033711659</v>
+      </c>
+      <c r="UJ2" t="n">
+        <v>-37.37050503301208</v>
+      </c>
+      <c r="UK2" t="n">
+        <v>-36.96864963922825</v>
+      </c>
+      <c r="UL2" t="n">
+        <v>-36.58549680015691</v>
+      </c>
+      <c r="UM2" t="n">
+        <v>-37.11540608911749</v>
+      </c>
+      <c r="UN2" t="n">
+        <v>-36.72293897868272</v>
+      </c>
+      <c r="UO2" t="n">
+        <v>-37.24374135909885</v>
+      </c>
+      <c r="UP2" t="n">
+        <v>-36.84277954980787</v>
+      </c>
+      <c r="UQ2" t="n">
+        <v>-36.46073658966844</v>
+      </c>
+      <c r="UR2" t="n">
+        <v>-36.99230226519544</v>
+      </c>
+      <c r="US2" t="n">
+        <v>-36.60197465046016</v>
+      </c>
+      <c r="UT2" t="n">
+        <v>-37.12534003298046</v>
+      </c>
+      <c r="UU2" t="n">
+        <v>-36.7269312664435</v>
+      </c>
+      <c r="UV2" t="n">
+        <v>-36.3481542229468</v>
+      </c>
+      <c r="UW2" t="n">
+        <v>-36.88325246637186</v>
+      </c>
+      <c r="UX2" t="n">
+        <v>-36.49667877896731</v>
+      </c>
+      <c r="UY2" t="n">
+        <v>-36.12976643244192</v>
+      </c>
+      <c r="UZ2" t="n">
+        <v>-36.67669349661815</v>
+      </c>
+      <c r="VA2" t="n">
+        <v>-36.30185400032632</v>
+      </c>
+      <c r="VB2" t="n">
+        <v>-35.94652883786388</v>
+      </c>
+      <c r="VC2" t="n">
+        <v>-36.50484971588678</v>
+      </c>
+      <c r="VD2" t="n">
+        <v>-36.14154755025773</v>
+      </c>
+      <c r="VE2" t="n">
+        <v>-36.8594283408046</v>
+      </c>
+      <c r="VF2" t="n">
+        <v>-36.47821188653081</v>
+      </c>
+      <c r="VG2" t="n">
+        <v>-36.11659579414845</v>
+      </c>
+      <c r="VH2" t="n">
+        <v>-36.83612550006376</v>
+      </c>
+      <c r="VI2" t="n">
+        <v>-36.4565158299018</v>
+      </c>
+      <c r="VJ2" t="n">
+        <v>-36.99029363133223</v>
+      </c>
+      <c r="VK2" t="n">
+        <v>-36.60234503661886</v>
+      </c>
+      <c r="VL2" t="n">
+        <v>-37.12821577871456</v>
+      </c>
+      <c r="VM2" t="n">
+        <v>-39.17994836226358</v>
+      </c>
+      <c r="VN2" t="n">
+        <v>-38.67370917177005</v>
+      </c>
+      <c r="VO2" t="n">
+        <v>-38.18800565331713</v>
+      </c>
+      <c r="VP2" t="n">
+        <v>-37.72298570063036</v>
+      </c>
+      <c r="VQ2" t="n">
+        <v>-38.1735885683266</v>
+      </c>
+      <c r="VR2" t="n">
+        <v>-37.70386304308114</v>
+      </c>
+      <c r="VS2" t="n">
+        <v>-38.31773233488317</v>
+      </c>
+      <c r="VT2" t="n">
+        <v>-37.83522315604193</v>
+      </c>
+      <c r="VU2" t="n">
+        <v>-37.37491740298901</v>
+      </c>
+      <c r="VV2" t="n">
+        <v>-37.81563545200898</v>
+      </c>
+      <c r="VW2" t="n">
+        <v>-37.3539826365181</v>
+      </c>
+      <c r="VX2" t="n">
+        <v>-37.80919432645777</v>
+      </c>
+      <c r="VY2" t="n">
+        <v>-37.34041461472289</v>
+      </c>
+      <c r="VZ2" t="n">
+        <v>-37.77211552425049</v>
+      </c>
+      <c r="WA2" t="n">
+        <v>-37.30894031174571</v>
+      </c>
+      <c r="WB2" t="n">
+        <v>-36.86909326889125</v>
+      </c>
+      <c r="WC2" t="n">
+        <v>-37.34672446330569</v>
+      </c>
+      <c r="WD2" t="n">
+        <v>-36.9057920379072</v>
+      </c>
+      <c r="WE2" t="n">
+        <v>-37.54964493156206</v>
+      </c>
+      <c r="WF2" t="n">
+        <v>-37.09866444699005</v>
+      </c>
+      <c r="WG2" t="n">
+        <v>-36.66981146846413</v>
+      </c>
+      <c r="WH2" t="n">
+        <v>-37.15793886631572</v>
+      </c>
+      <c r="WI2" t="n">
+        <v>-36.72857176924752</v>
+      </c>
+      <c r="WJ2" t="n">
+        <v>-37.21648020067157</v>
+      </c>
+      <c r="WK2" t="n">
+        <v>-36.7845672119813</v>
+      </c>
+      <c r="WL2" t="n">
+        <v>-36.37272356170789</v>
+      </c>
+      <c r="WM2" t="n">
+        <v>-36.87680964687616</v>
+      </c>
+      <c r="WN2" t="n">
+        <v>-36.4631020305173</v>
+      </c>
+      <c r="WO2" t="n">
+        <v>-36.96503427986013</v>
+      </c>
+      <c r="WP2" t="n">
+        <v>-36.55153340069055</v>
+      </c>
+      <c r="WQ2" t="n">
+        <v>-37.05410055181893</v>
+      </c>
+      <c r="WR2" t="n">
+        <v>-36.63749263662811</v>
+      </c>
+      <c r="WS2" t="n">
+        <v>-36.24017010856383</v>
+      </c>
+      <c r="WT2" t="n">
+        <v>-36.75802333141829</v>
+      </c>
+      <c r="WU2" t="n">
+        <v>-36.35972422877269</v>
+      </c>
+      <c r="WV2" t="n">
+        <v>-36.87718951849541</v>
+      </c>
+      <c r="WW2" t="n">
+        <v>-36.4747042244591</v>
+      </c>
+      <c r="WX2" t="n">
+        <v>-36.09354817577045</v>
+      </c>
+      <c r="WY2" t="n">
+        <v>-36.62784449559086</v>
+      </c>
+      <c r="WZ2" t="n">
+        <v>-36.23984810275353</v>
+      </c>
+      <c r="XA2" t="n">
+        <v>-36.93353112500895</v>
+      </c>
+      <c r="XB2" t="n">
+        <v>-36.53158529575562</v>
+      </c>
+      <c r="XC2" t="n">
+        <v>-37.58926533550452</v>
+      </c>
+      <c r="XD2" t="n">
+        <v>-37.15525299378884</v>
+      </c>
+      <c r="XE2" t="n">
+        <v>-37.78723024745467</v>
+      </c>
+      <c r="XF2" t="n">
+        <v>-39.74427747532836</v>
+      </c>
+      <c r="XG2" t="n">
+        <v>-39.19214499053962</v>
+      </c>
+      <c r="XH2" t="n">
+        <v>-39.72331985322614</v>
+      </c>
+      <c r="XI2" t="n">
+        <v>-39.15729005231218</v>
+      </c>
+      <c r="XJ2" t="n">
+        <v>-38.61805988446159</v>
+      </c>
+      <c r="XK2" t="n">
+        <v>-39.16453164740459</v>
+      </c>
+      <c r="XL2" t="n">
+        <v>-38.61517530183003</v>
+      </c>
+      <c r="XM2" t="n">
+        <v>-38.09050015813121</v>
+      </c>
+      <c r="XN2" t="n">
+        <v>-37.59147704163356</v>
+      </c>
+      <c r="XO2" t="n">
+        <v>-38.16254666486474</v>
+      </c>
+      <c r="XP2" t="n">
+        <v>-37.66230454822445</v>
+      </c>
+      <c r="XQ2" t="n">
+        <v>-37.19062303598189</v>
+      </c>
+      <c r="XR2" t="n">
+        <v>-37.98919859402327</v>
+      </c>
+      <c r="XS2" t="n">
+        <v>-42.00691870370193</v>
+      </c>
+      <c r="XT2" t="n">
+        <v>-41.30945020316227</v>
+      </c>
+      <c r="XU2" t="n">
+        <v>-41.70229483798058</v>
+      </c>
+      <c r="XV2" t="n">
+        <v>-41.00573618050025</v>
+      </c>
+      <c r="XW2" t="n">
+        <v>-41.99842687784186</v>
+      </c>
+      <c r="XX2" t="n">
+        <v>-44.1790205280528</v>
+      </c>
+      <c r="XY2" t="n">
+        <v>-43.33090090927894</v>
+      </c>
+      <c r="XZ2" t="n">
+        <v>-43.58050187696579</v>
+      </c>
+      <c r="YA2" t="n">
+        <v>-42.84759578348471</v>
+      </c>
+      <c r="YB2" t="n">
+        <v>-42.14211811432041</v>
+      </c>
+      <c r="YC2" t="n">
+        <v>-41.4705414465481</v>
+      </c>
+      <c r="YD2" t="n">
+        <v>-42.63060913550059</v>
+      </c>
+      <c r="YE2" t="n">
+        <v>-41.91504118440965</v>
+      </c>
+      <c r="YF2" t="n">
+        <v>-42.79010152687795</v>
+      </c>
+      <c r="YG2" t="n">
+        <v>-42.05796935319502</v>
+      </c>
+      <c r="YH2" t="n">
+        <v>-41.36062838876656</v>
+      </c>
+      <c r="YI2" t="n">
+        <v>-42.04434383580404</v>
+      </c>
+      <c r="YJ2" t="n">
+        <v>-41.3514511932564</v>
+      </c>
+      <c r="YK2" t="n">
+        <v>-42.49624528483429</v>
+      </c>
+      <c r="YL2" t="n">
+        <v>-42.7926467331717</v>
+      </c>
+      <c r="YM2" t="n">
+        <v>-45.6533849148318</v>
+      </c>
+      <c r="YN2" t="n">
+        <v>-45.78368387944841</v>
+      </c>
+      <c r="YO2" t="n">
+        <v>-48.87937872051138</v>
+      </c>
+      <c r="YP2" t="n">
+        <v>-48.83009610367703</v>
+      </c>
+      <c r="YQ2" t="n">
+        <v>-50.69546998917347</v>
+      </c>
+      <c r="YR2" t="n">
+        <v>-50.51867214326293</v>
+      </c>
+      <c r="YS2" t="n">
+        <v>-52.5832166149526</v>
+      </c>
+      <c r="YT2" t="n">
+        <v>-53.15990281405959</v>
+      </c>
+      <c r="YU2" t="n">
+        <v>-56.80933315658201</v>
+      </c>
+      <c r="YV2" t="n">
+        <v>-57.82847534652676</v>
+      </c>
+      <c r="YW2" t="n">
+        <v>-62.83354165214929</v>
+      </c>
+      <c r="YX2" t="n">
+        <v>-63.71193863867401</v>
+      </c>
+      <c r="YY2" t="n">
+        <v>-67.37336237161428</v>
+      </c>
+      <c r="YZ2" t="n">
+        <v>-68.1894672610354</v>
+      </c>
+      <c r="ZA2" t="n">
+        <v>-72.58123796084169</v>
+      </c>
+      <c r="ZB2" t="n">
+        <v>-73.03380673697653</v>
+      </c>
+      <c r="ZC2" t="n">
+        <v>-77.26533577045761</v>
+      </c>
+      <c r="ZD2" t="n">
+        <v>-77.37130355548102</v>
+      </c>
+      <c r="ZE2" t="n">
+        <v>-81.10394940085287</v>
+      </c>
+      <c r="ZF2" t="n">
+        <v>-81.01763046116142</v>
+      </c>
+      <c r="ZG2" t="n">
+        <v>-84.16914149307766</v>
+      </c>
+      <c r="ZH2" t="n">
+        <v>-84.11676261106835</v>
+      </c>
+      <c r="ZI2" t="n">
+        <v>-87.56693440681401</v>
+      </c>
+      <c r="ZJ2" t="n">
+        <v>-88.16235466835457</v>
+      </c>
+      <c r="ZK2" t="n">
+        <v>-92.71889652972961</v>
+      </c>
+      <c r="ZL2" t="n">
+        <v>-116.0803047379839</v>
+      </c>
+      <c r="ZM2" t="n">
+        <v>-115.3599669117603</v>
+      </c>
+      <c r="ZN2" t="n">
+        <v>-119.0731009334012</v>
+      </c>
+      <c r="ZO2" t="n">
+        <v>-118.3254831294688</v>
+      </c>
+      <c r="ZP2" t="n">
+        <v>-117.5144866649369</v>
+      </c>
+      <c r="ZQ2" t="n">
+        <v>-122.5686958559381</v>
+      </c>
+      <c r="ZR2" t="n">
+        <v>-134.6500453990158</v>
+      </c>
+      <c r="ZS2" t="n">
+        <v>-132.719243105169</v>
+      </c>
+      <c r="ZT2" t="n">
+        <v>-135.7808328630293</v>
+      </c>
+      <c r="ZU2" t="n">
+        <v>-133.54661193819</v>
+      </c>
+      <c r="ZV2" t="n">
+        <v>-136.3419949120236</v>
+      </c>
+      <c r="ZW2" t="n">
+        <v>-134.6271743549381</v>
+      </c>
+      <c r="ZX2" t="n">
+        <v>-132.9849330085457</v>
+      </c>
+      <c r="ZY2" t="n">
+        <v>-136.6092666587517</v>
+      </c>
+      <c r="ZZ2" t="n">
+        <v>-145.4472293074158</v>
+      </c>
+      <c r="AAA2" t="n">
+        <v>-142.9735999366159</v>
+      </c>
+      <c r="AAB2" t="n">
+        <v>-146.8733518302798</v>
+      </c>
+      <c r="AAC2" t="n">
+        <v>-144.1054531078902</v>
+      </c>
+      <c r="AAD2" t="n">
+        <v>-147.7445119931923</v>
+      </c>
+      <c r="AAE2" t="n">
+        <v>-144.7877657976395</v>
+      </c>
+      <c r="AAF2" t="n">
+        <v>-148.2854753104982</v>
+      </c>
+      <c r="AAG2" t="n">
+        <v>-167.7828970511908</v>
+      </c>
+      <c r="AAH2" t="n">
+        <v>-164.4497921046339</v>
+      </c>
+      <c r="AAI2" t="n">
+        <v>-167.8847048355738</v>
+      </c>
+      <c r="AAJ2" t="n">
+        <v>-163.8020772368013</v>
+      </c>
+      <c r="AAK2" t="n">
+        <v>-165.780144139456</v>
+      </c>
+      <c r="AAL2" t="n">
+        <v>-161.5976373663779</v>
+      </c>
+      <c r="AAM2" t="n">
+        <v>-163.4579934895674</v>
+      </c>
+      <c r="AAN2" t="n">
+        <v>-177.3499442142762</v>
+      </c>
+      <c r="AAO2" t="n">
+        <v>-172.2733156471746</v>
+      </c>
+      <c r="AAP2" t="n">
+        <v>-173.2826738501468</v>
+      </c>
+      <c r="AAQ2" t="n">
+        <v>-168.7137667049806</v>
+      </c>
+      <c r="AAR2" t="n">
+        <v>-167.6889371081599</v>
+      </c>
+      <c r="AAS2" t="n">
+        <v>-175.2012320788076</v>
+      </c>
+      <c r="AAT2" t="n">
+        <v>-170.8203932214597</v>
+      </c>
+      <c r="AAU2" t="n">
+        <v>-171.5665470401623</v>
+      </c>
+      <c r="AAV2" t="n">
+        <v>-167.2452303677615</v>
+      </c>
+      <c r="AAW2" t="n">
+        <v>-167.9869487371825</v>
+      </c>
+      <c r="AAX2" t="n">
+        <v>-163.7336243178283</v>
+      </c>
+      <c r="AAY2" t="n">
+        <v>-164.5584827074931</v>
+      </c>
+      <c r="AAZ2" t="n">
+        <v>-177.5656073918504</v>
+      </c>
+      <c r="ABA2" t="n">
+        <v>-172.687563171719</v>
+      </c>
+      <c r="ABB2" t="n">
+        <v>-172.9618028060445</v>
+      </c>
+      <c r="ABC2" t="n">
+        <v>-168.2055045099146</v>
+      </c>
+      <c r="ABD2" t="n">
+        <v>-169.8249594373475</v>
+      </c>
+      <c r="ABE2" t="n">
+        <v>-165.1238340680356</v>
+      </c>
+      <c r="ABF2" t="n">
+        <v>-165.5371580283416</v>
+      </c>
+      <c r="ABG2" t="n">
+        <v>-170.3489227522208</v>
+      </c>
+      <c r="ABH2" t="n">
+        <v>-165.536464374517</v>
+      </c>
+      <c r="ABI2" t="n">
+        <v>-160.9252277240512</v>
+      </c>
+      <c r="ABJ2" t="n">
+        <v>-162.702155959164</v>
+      </c>
+      <c r="ABK2" t="n">
+        <v>-158.2060244783512</v>
+      </c>
+      <c r="ABL2" t="n">
+        <v>-160.1008747781305</v>
+      </c>
+      <c r="ABM2" t="n">
+        <v>-163.338952761399</v>
+      </c>
+      <c r="ABN2" t="n">
+        <v>-158.78515896256</v>
+      </c>
+      <c r="ABO2" t="n">
+        <v>-160.6250628215719</v>
+      </c>
+      <c r="ABP2" t="n">
+        <v>-156.1965543731226</v>
+      </c>
+      <c r="ABQ2" t="n">
+        <v>-156.9550019666889</v>
+      </c>
+      <c r="ABR2" t="n">
+        <v>-152.716775577706</v>
+      </c>
+      <c r="ABS2" t="n">
+        <v>-153.610316817194</v>
+      </c>
+      <c r="ABT2" t="n">
+        <v>-149.5629205707024</v>
+      </c>
+      <c r="ABU2" t="n">
+        <v>-150.6993182930068</v>
+      </c>
+      <c r="ABV2" t="n">
+        <v>-151.7313071644918</v>
+      </c>
+      <c r="ABW2" t="n">
+        <v>-147.8273901627443</v>
+      </c>
+      <c r="ABX2" t="n">
+        <v>-144.1409877018866</v>
+      </c>
+      <c r="ABY2" t="n">
+        <v>-145.6308435319309</v>
+      </c>
+      <c r="ABZ2" t="n">
+        <v>-148.2692622956578</v>
+      </c>
+      <c r="ACA2" t="n">
+        <v>-144.634179060742</v>
+      </c>
+      <c r="ACB2" t="n">
+        <v>-147.3754730623129</v>
+      </c>
+      <c r="ACC2" t="n">
+        <v>-143.8280162904544</v>
+      </c>
+      <c r="ACD2" t="n">
+        <v>-140.4834944790342</v>
+      </c>
+      <c r="ACE2" t="n">
+        <v>-143.5668453134099</v>
+      </c>
+      <c r="ACF2" t="n">
+        <v>-140.2917077493389</v>
+      </c>
+      <c r="ACG2" t="n">
+        <v>-143.4385129107402</v>
+      </c>
+      <c r="ACH2" t="n">
+        <v>-146.3798778427174</v>
+      </c>
+      <c r="ACI2" t="n">
+        <v>-143.027393944274</v>
+      </c>
+      <c r="ACJ2" t="n">
+        <v>-143.7259688560758</v>
+      </c>
+      <c r="ACK2" t="n">
+        <v>-140.5419302999909</v>
+      </c>
+      <c r="ACL2" t="n">
+        <v>-143.7687010241603</v>
+      </c>
+      <c r="ACM2" t="n">
+        <v>-140.6220853173993</v>
+      </c>
+      <c r="ACN2" t="n">
+        <v>-143.823182208469</v>
+      </c>
+      <c r="ACO2" t="n">
+        <v>-140.7104839173785</v>
+      </c>
+      <c r="ACP2" t="n">
+        <v>-143.9425864992944</v>
+      </c>
+      <c r="ACQ2" t="n">
+        <v>-148.4693076571023</v>
+      </c>
+      <c r="ACR2" t="n">
+        <v>-145.1521345325743</v>
+      </c>
+      <c r="ACS2" t="n">
+        <v>-142.0078036404141</v>
+      </c>
+      <c r="ACT2" t="n">
+        <v>-145.2036535460973</v>
+      </c>
+      <c r="ACU2" t="n">
+        <v>-142.0774732705852</v>
+      </c>
+      <c r="ACV2" t="n">
+        <v>-144.081834897737</v>
+      </c>
+      <c r="ACW2" t="n">
+        <v>-145.9927948935006</v>
+      </c>
+      <c r="ACX2" t="n">
+        <v>-142.8508005725841</v>
+      </c>
+      <c r="ACY2" t="n">
+        <v>-139.8762537156554</v>
+      </c>
+      <c r="ACZ2" t="n">
+        <v>-143.2361377183673</v>
+      </c>
+      <c r="ADA2" t="n">
+        <v>-140.2765843287812</v>
+      </c>
+      <c r="ADB2" t="n">
+        <v>-142.3895874491515</v>
+      </c>
+      <c r="ADC2" t="n">
+        <v>-145.6434830329775</v>
+      </c>
+      <c r="ADD2" t="n">
+        <v>-142.5864333397651</v>
+      </c>
+      <c r="ADE2" t="n">
+        <v>-144.5987914731385</v>
+      </c>
+      <c r="ADF2" t="n">
+        <v>-149.2240565052753</v>
+      </c>
+      <c r="ADG2" t="n">
+        <v>-159.9489700824997</v>
+      </c>
+      <c r="ADH2" t="n">
+        <v>-156.1372972974894</v>
+      </c>
+      <c r="ADI2" t="n">
+        <v>-157.3982498321312</v>
+      </c>
+      <c r="ADJ2" t="n">
+        <v>-153.6539390518855</v>
+      </c>
+      <c r="ADK2" t="n">
+        <v>-154.9859295510135</v>
+      </c>
+      <c r="ADL2" t="n">
+        <v>-158.939591088544</v>
+      </c>
+      <c r="ADM2" t="n">
+        <v>-155.0482887836488</v>
+      </c>
+      <c r="ADN2" t="n">
+        <v>-151.327347553259</v>
+      </c>
+      <c r="ADO2" t="n">
+        <v>-153.9579295467278</v>
+      </c>
+      <c r="ADP2" t="n">
+        <v>-161.7138415333113</v>
+      </c>
+      <c r="ADQ2" t="n">
+        <v>-157.059444043216</v>
+      </c>
+      <c r="ADR2" t="n">
+        <v>-158.0803316251692</v>
+      </c>
+      <c r="ADS2" t="n">
+        <v>-153.5561713366233</v>
+      </c>
+      <c r="ADT2" t="n">
+        <v>-156.0070753565532</v>
+      </c>
+      <c r="ADU2" t="n">
+        <v>-151.049677907319</v>
+      </c>
+      <c r="ADV2" t="n">
+        <v>-153.5551569452493</v>
+      </c>
+      <c r="ADW2" t="n">
+        <v>-161.2033663626188</v>
+      </c>
+      <c r="ADX2" t="n">
+        <v>-155.9888907364559</v>
+      </c>
+      <c r="ADY2" t="n">
+        <v>-155.9005088854083</v>
+      </c>
+      <c r="ADZ2" t="n">
+        <v>-151.1168032993884</v>
+      </c>
+      <c r="AEA2" t="n">
+        <v>-153.9242243668282</v>
+      </c>
+      <c r="AEB2" t="n">
+        <v>-149.2283136461571</v>
+      </c>
+      <c r="AEC2" t="n">
+        <v>-152.0857768073082</v>
+      </c>
+      <c r="AED2" t="n">
+        <v>-160.175053926889</v>
+      </c>
+      <c r="AEE2" t="n">
+        <v>-154.6535202851311</v>
+      </c>
+      <c r="AEF2" t="n">
+        <v>-153.8090971285476</v>
+      </c>
+      <c r="AEG2" t="n">
+        <v>-148.5588793719447</v>
+      </c>
+      <c r="AEH2" t="n">
+        <v>-147.9764603685679</v>
+      </c>
+      <c r="AEI2" t="n">
+        <v>-158.745059076078</v>
+      </c>
+      <c r="AEJ2" t="n">
+        <v>-153.221674838255</v>
+      </c>
+      <c r="AEK2" t="n">
+        <v>-147.9573361463873</v>
+      </c>
+      <c r="AEL2" t="n">
+        <v>-149.4420971783506</v>
+      </c>
+      <c r="AEM2" t="n">
+        <v>-160.0810915007397</v>
+      </c>
+      <c r="AEN2" t="n">
+        <v>-154.0390957021052</v>
+      </c>
+      <c r="AEO2" t="n">
+        <v>-155.1792809289457</v>
+      </c>
+      <c r="AEP2" t="n">
+        <v>-148.9749940089881</v>
+      </c>
+      <c r="AEQ2" t="n">
+        <v>-143.0910523614914</v>
+      </c>
+      <c r="AER2" t="n">
+        <v>-137.4685198504341</v>
+      </c>
+      <c r="AES2" t="n">
+        <v>-136.4632280574562</v>
+      </c>
+      <c r="AET2" t="n">
+        <v>-131.2302014913633</v>
+      </c>
+      <c r="AEU2" t="n">
+        <v>-131.4648032129712</v>
+      </c>
+      <c r="AEV2" t="n">
+        <v>-126.2007717235708</v>
+      </c>
+      <c r="AEW2" t="n">
+        <v>-125.1283366511299</v>
+      </c>
+      <c r="AEX2" t="n">
+        <v>-119.9395971518964</v>
+      </c>
+      <c r="AEY2" t="n">
+        <v>-119.2916785933737</v>
+      </c>
+      <c r="AEZ2" t="n">
+        <v>-114.5304227829654</v>
+      </c>
+      <c r="AFA2" t="n">
+        <v>-110.0836067986535</v>
+      </c>
+      <c r="AFB2" t="n">
+        <v>-110.8958403861852</v>
+      </c>
+      <c r="AFC2" t="n">
+        <v>-106.8013334414683</v>
+      </c>
+      <c r="AFD2" t="n">
+        <v>-107.176913472679</v>
+      </c>
+      <c r="AFE2" t="n">
+        <v>-103.3956816028553</v>
+      </c>
+      <c r="AFF2" t="n">
+        <v>-99.88231415625863</v>
+      </c>
+      <c r="AFG2" t="n">
+        <v>-100.168080277129</v>
+      </c>
+      <c r="AFH2" t="n">
+        <v>-111.256572132761</v>
+      </c>
+      <c r="AFI2" t="n">
+        <v>-107.4585731855256</v>
+      </c>
+      <c r="AFJ2" t="n">
+        <v>-108.6795126999373</v>
+      </c>
+      <c r="AFK2" t="n">
+        <v>-104.7829899586547</v>
+      </c>
+      <c r="AFL2" t="n">
+        <v>-104.8987817581194</v>
+      </c>
+      <c r="AFM2" t="n">
+        <v>-101.2046204947359</v>
+      </c>
+      <c r="AFN2" t="n">
+        <v>-102.0726114531285</v>
+      </c>
+      <c r="AFO2" t="n">
+        <v>-109.0375228297085</v>
+      </c>
+      <c r="AFP2" t="n">
+        <v>-105.2584085753521</v>
+      </c>
+      <c r="AFQ2" t="n">
+        <v>-104.2763366797856</v>
+      </c>
+      <c r="AFR2" t="n">
+        <v>-111.0805502165238</v>
+      </c>
+      <c r="AFS2" t="n">
+        <v>-107.2701652973469</v>
+      </c>
+      <c r="AFT2" t="n">
+        <v>-103.6477303553046</v>
+      </c>
+      <c r="AFU2" t="n">
+        <v>-104.5383687211659</v>
+      </c>
+      <c r="AFV2" t="n">
+        <v>-101.7947781400301</v>
+      </c>
+      <c r="AFW2" t="n">
+        <v>-99.2294543983828</v>
+      </c>
+      <c r="AFX2" t="n">
+        <v>-96.54196392207986</v>
+      </c>
+      <c r="AFY2" t="n">
+        <v>-98.01359122226886</v>
+      </c>
+      <c r="AFZ2" t="n">
+        <v>-96.37866897182423</v>
+      </c>
+      <c r="AGA2" t="n">
+        <v>-98.13721979407684</v>
+      </c>
+      <c r="AGB2" t="n">
+        <v>-96.57155009131115</v>
+      </c>
+      <c r="AGC2" t="n">
+        <v>-98.97247480524523</v>
+      </c>
+      <c r="AGD2" t="n">
+        <v>-97.48184952110722</v>
+      </c>
+      <c r="AGE2" t="n">
+        <v>-99.36166542859677</v>
+      </c>
+      <c r="AGF2" t="n">
+        <v>-115.9080560160102</v>
+      </c>
+      <c r="AGG2" t="n">
+        <v>-113.3131076360224</v>
+      </c>
+      <c r="AGH2" t="n">
+        <v>-117.9678693264036</v>
+      </c>
+      <c r="AGI2" t="n">
+        <v>-133.7650347276522</v>
+      </c>
+      <c r="AGJ2" t="n">
+        <v>-160.0700499751232</v>
+      </c>
+      <c r="AGK2" t="n">
+        <v>-154.671330683217</v>
+      </c>
+      <c r="AGL2" t="n">
+        <v>-149.4354985921678</v>
+      </c>
+      <c r="AGM2" t="n">
+        <v>-147.6371473332391</v>
+      </c>
+      <c r="AGN2" t="n">
+        <v>-142.5856430927732</v>
+      </c>
+      <c r="AGO2" t="n">
+        <v>-142.0717171271643</v>
+      </c>
+      <c r="AGP2" t="n">
+        <v>-137.1661536328165</v>
+      </c>
+      <c r="AGQ2" t="n">
+        <v>-137.4550774166471</v>
+      </c>
+      <c r="AGR2" t="n">
+        <v>-132.6905508719481</v>
+      </c>
+      <c r="AGS2" t="n">
+        <v>-128.1398693782246</v>
+      </c>
+      <c r="AGT2" t="n">
+        <v>-123.8049831185143</v>
+      </c>
+      <c r="AGU2" t="n">
+        <v>-122.000044436055</v>
+      </c>
+      <c r="AGV2" t="n">
+        <v>-117.7249377337616</v>
+      </c>
+      <c r="AGW2" t="n">
+        <v>-116.6840932160185</v>
+      </c>
+      <c r="AGX2" t="n">
+        <v>-112.7086853923913</v>
+      </c>
+      <c r="AGY2" t="n">
+        <v>-110.7531171069907</v>
+      </c>
+      <c r="AGZ2" t="n">
+        <v>-112.3759914077574</v>
+      </c>
+      <c r="AHA2" t="n">
+        <v>-108.6980457200115</v>
+      </c>
+      <c r="AHB2" t="n">
+        <v>-107.4076567025201</v>
+      </c>
+      <c r="AHC2" t="n">
+        <v>-104.0512520724142</v>
+      </c>
+      <c r="AHD2" t="n">
+        <v>-103.0758218616128</v>
+      </c>
+      <c r="AHE2" t="n">
+        <v>-100.0219357076474</v>
+      </c>
+      <c r="AHF2" t="n">
+        <v>-98.96235707530126</v>
+      </c>
+      <c r="AHG2" t="n">
+        <v>-96.21261331753215</v>
+      </c>
+      <c r="AHH2" t="n">
+        <v>-93.65400075858933</v>
+      </c>
+      <c r="AHI2" t="n">
+        <v>-93.0738439658023</v>
+      </c>
+      <c r="AHJ2" t="n">
+        <v>-90.78583608826253</v>
+      </c>
+      <c r="AHK2" t="n">
+        <v>-90.11346290275937</v>
+      </c>
+      <c r="AHL2" t="n">
+        <v>-88.09044763393612</v>
+      </c>
+      <c r="AHM2" t="n">
+        <v>-86.22867360376279</v>
+      </c>
+      <c r="AHN2" t="n">
+        <v>-86.31478276420435</v>
+      </c>
+      <c r="AHO2" t="n">
+        <v>-84.66183931258578</v>
+      </c>
+      <c r="AHP2" t="n">
+        <v>-83.1511785095756</v>
+      </c>
+      <c r="AHQ2" t="n">
+        <v>-83.56966404334774</v>
+      </c>
+      <c r="AHR2" t="n">
+        <v>-82.23049192711761</v>
+      </c>
+      <c r="AHS2" t="n">
+        <v>-81.01503835782243</v>
+      </c>
+      <c r="AHT2" t="n">
+        <v>-79.91733329759687</v>
+      </c>
+      <c r="AHU2" t="n">
+        <v>-78.93167555084311</v>
+      </c>
+      <c r="AHV2" t="n">
+        <v>-79.49400326995936</v>
+      </c>
+      <c r="AHW2" t="n">
+        <v>-78.88639275038845</v>
+      </c>
+      <c r="AHX2" t="n">
+        <v>-78.11485160136293</v>
+      </c>
+      <c r="AHY2" t="n">
+        <v>-77.43212040496223</v>
+      </c>
+      <c r="AHZ2" t="n">
+        <v>-78.98869938472917</v>
+      </c>
+      <c r="AIA2" t="n">
+        <v>-78.35088483896818</v>
+      </c>
+      <c r="AIB2" t="n">
+        <v>-77.79057855989355</v>
+      </c>
+      <c r="AIC2" t="n">
+        <v>-77.29966083703351</v>
+      </c>
+      <c r="AID2" t="n">
+        <v>-76.87377784899218</v>
+      </c>
+      <c r="AIE2" t="n">
+        <v>-77.93655520613829</v>
+      </c>
+      <c r="AIF2" t="n">
+        <v>-77.55293347940227</v>
+      </c>
+      <c r="AIG2" t="n">
+        <v>-77.21906613262946</v>
+      </c>
+      <c r="AIH2" t="n">
+        <v>-76.93799121946979</v>
+      </c>
+      <c r="AII2" t="n">
+        <v>-76.70286599018694</v>
+      </c>
+      <c r="AIJ2" t="n">
+        <v>-76.51033316130525</v>
+      </c>
+      <c r="AIK2" t="n">
+        <v>-76.3571468105535</v>
+      </c>
+      <c r="AIL2" t="n">
+        <v>-78.01853500853149</v>
+      </c>
+      <c r="AIM2" t="n">
+        <v>-77.8412062672233</v>
+      </c>
+      <c r="AIN2" t="n">
+        <v>-79.47304557050893</v>
+      </c>
+      <c r="AIO2" t="n">
+        <v>-79.26145799210113</v>
+      </c>
+      <c r="AIP2" t="n">
+        <v>-79.07662355739974</v>
+      </c>
+      <c r="AIQ2" t="n">
+        <v>-81.07262611339209</v>
+      </c>
+      <c r="AIR2" t="n">
+        <v>-80.82279924193421</v>
+      </c>
+      <c r="AIS2" t="n">
+        <v>-82.02320852387007</v>
+      </c>
+      <c r="AIT2" t="n">
+        <v>-81.74191284233879</v>
+      </c>
+      <c r="AIU2" t="n">
+        <v>-83.63705639736746</v>
+      </c>
+      <c r="AIV2" t="n">
+        <v>-83.28294425475725</v>
+      </c>
+      <c r="AIW2" t="n">
+        <v>-82.94864769333135</v>
+      </c>
+      <c r="AIX2" t="n">
+        <v>-84.06183303197633</v>
+      </c>
+      <c r="AIY2" t="n">
+        <v>-83.69129437189254</v>
+      </c>
+      <c r="AIZ2" t="n">
+        <v>-85.1184189944677</v>
+      </c>
+      <c r="AJA2" t="n">
+        <v>-84.69284174937007</v>
+      </c>
+      <c r="AJB2" t="n">
+        <v>-84.28679826960074</v>
+      </c>
+      <c r="AJC2" t="n">
+        <v>-86.05626043015215</v>
+      </c>
+      <c r="AJD2" t="n">
+        <v>-85.576289074161</v>
+      </c>
+      <c r="AJE2" t="n">
+        <v>-85.11663659236686</v>
+      </c>
+      <c r="AJF2" t="n">
+        <v>-86.45604963037103</v>
+      </c>
+      <c r="AJG2" t="n">
+        <v>-85.94448504020457</v>
+      </c>
+      <c r="AJH2" t="n">
+        <v>-87.23281582328063</v>
+      </c>
+      <c r="AJI2" t="n">
+        <v>-86.67118504119679</v>
+      </c>
+      <c r="AJJ2" t="n">
+        <v>-86.13227125857777</v>
+      </c>
+      <c r="AJK2" t="n">
+        <v>-85.61664230147996</v>
+      </c>
+      <c r="AJL2" t="n">
+        <v>-85.12468647511554</v>
+      </c>
+      <c r="AJM2" t="n">
+        <v>-86.43498513958001</v>
+      </c>
+      <c r="AJN2" t="n">
+        <v>-85.89732958833926</v>
+      </c>
+      <c r="AJO2" t="n">
+        <v>-85.38407122680134</v>
+      </c>
+      <c r="AJP2" t="n">
+        <v>-87.05126048928867</v>
+      </c>
+      <c r="AJQ2" t="n">
+        <v>-86.47400287368596</v>
+      </c>
+      <c r="AJR2" t="n">
+        <v>-85.92206467712538</v>
+      </c>
+      <c r="AJS2" t="n">
+        <v>-87.55160793757021</v>
+      </c>
+      <c r="AJT2" t="n">
+        <v>-86.93783314383288</v>
+      </c>
+      <c r="AJU2" t="n">
+        <v>-88.12894279669027</v>
+      </c>
+      <c r="AJV2" t="n">
+        <v>-87.47509327730671</v>
+      </c>
+      <c r="AJW2" t="n">
+        <v>-86.84894877303505</v>
+      </c>
+      <c r="AJX2" t="n">
+        <v>-88.40682377820899</v>
+      </c>
+      <c r="AJY2" t="n">
+        <v>-87.72404261089378</v>
+      </c>
+      <c r="AJZ2" t="n">
+        <v>-88.84890518502932</v>
+      </c>
+      <c r="AKA2" t="n">
+        <v>-97.74786448695605</v>
+      </c>
+      <c r="AKB2" t="n">
+        <v>-96.55521258788359</v>
+      </c>
+      <c r="AKC2" t="n">
+        <v>-97.17466477015901</v>
+      </c>
+      <c r="AKD2" t="n">
+        <v>-102.6609053323684</v>
+      </c>
+      <c r="AKE2" t="n">
+        <v>-101.1314842266276</v>
+      </c>
+      <c r="AKF2" t="n">
+        <v>-101.4237365701139</v>
+      </c>
+      <c r="AKG2" t="n">
+        <v>-99.89087659898739</v>
+      </c>
+      <c r="AKH2" t="n">
+        <v>-99.8361025326364</v>
+      </c>
+      <c r="AKI2" t="n">
+        <v>-98.33130263935739</v>
+      </c>
+      <c r="AKJ2" t="n">
+        <v>-96.88211458319805</v>
+      </c>
+      <c r="AKK2" t="n">
+        <v>-96.91849976691833</v>
+      </c>
+      <c r="AKL2" t="n">
+        <v>-95.51111703640294</v>
+      </c>
+      <c r="AKM2" t="n">
+        <v>-94.1644646344695</v>
+      </c>
+      <c r="AKN2" t="n">
+        <v>-95.03535077861818</v>
+      </c>
+      <c r="AKO2" t="n">
+        <v>-93.69936746391949</v>
+      </c>
+      <c r="AKP2" t="n">
+        <v>-92.42652077220235</v>
+      </c>
+      <c r="AKQ2" t="n">
+        <v>-92.99555999747753</v>
+      </c>
+      <c r="AKR2" t="n">
+        <v>-91.75621869607204</v>
+      </c>
+      <c r="AKS2" t="n">
+        <v>-92.35894440827389</v>
+      </c>
+      <c r="AKT2" t="n">
+        <v>-91.1532750346615</v>
+      </c>
+      <c r="AKU2" t="n">
+        <v>-90.01112544426626</v>
+      </c>
+      <c r="AKV2" t="n">
+        <v>-90.71051778085362</v>
+      </c>
+      <c r="AKW2" t="n">
+        <v>-89.60053300239805</v>
+      </c>
+      <c r="AKX2" t="n">
+        <v>-88.55267992026938</v>
+      </c>
+      <c r="AKY2" t="n">
+        <v>-88.99415255448965</v>
+      </c>
+      <c r="AKZ2" t="n">
+        <v>-87.993099420568</v>
+      </c>
+      <c r="ALA2" t="n">
+        <v>-87.05175299997983</v>
+      </c>
+      <c r="ALB2" t="n">
+        <v>-87.59698856166271</v>
+      </c>
+      <c r="ALC2" t="n">
+        <v>-86.69668221611724</v>
+      </c>
+      <c r="ALD2" t="n">
+        <v>-87.63119384967789</v>
+      </c>
+      <c r="ALE2" t="n">
+        <v>-86.74903787138807</v>
+      </c>
+      <c r="ALF2" t="n">
+        <v>-85.92125164080247</v>
+      </c>
+      <c r="ALG2" t="n">
+        <v>-86.5746457951285</v>
+      </c>
+      <c r="ALH2" t="n">
+        <v>-85.77706674683277</v>
+      </c>
+      <c r="ALI2" t="n">
+        <v>-86.45840627898379</v>
+      </c>
+      <c r="ALJ2" t="n">
+        <v>-85.68658977649957</v>
+      </c>
+      <c r="ALK2" t="n">
+        <v>-84.9637049360619</v>
+      </c>
+      <c r="ALL2" t="n">
+        <v>-86.06702351445415</v>
+      </c>
+      <c r="ALM2" t="n">
+        <v>-85.34503198560502</v>
       </c>
     </row>
     <row r="3">
@@ -3445,1504 +6445,3004 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.272856275095097</v>
+        <v>-0.7698412582679545</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.740294575073003</v>
+        <v>-1.035853467812445</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.995059527032431</v>
+        <v>-1.373792416158184</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.181771386117773</v>
+        <v>-1.455378169643017</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.325005776228662</v>
+        <v>-1.704272376003824</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.432318833051098</v>
+        <v>-1.713209796396002</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.24381755341972</v>
+        <v>-1.721722784988456</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.899907602064804</v>
+        <v>-1.719841624322045</v>
       </c>
       <c r="J3" t="n">
-        <v>-4.415035562184033</v>
+        <v>-1.711859914949363</v>
       </c>
       <c r="K3" t="n">
-        <v>-4.811393402918796</v>
+        <v>-1.700799164029844</v>
       </c>
       <c r="L3" t="n">
-        <v>-5.112424236910539</v>
+        <v>-1.846183532372117</v>
       </c>
       <c r="M3" t="n">
-        <v>-5.339156960633439</v>
+        <v>-1.799059000333304</v>
       </c>
       <c r="N3" t="n">
-        <v>-5.58340889438202</v>
+        <v>-1.758078854414195</v>
       </c>
       <c r="O3" t="n">
-        <v>-5.77074013133327</v>
+        <v>-1.732932829000632</v>
       </c>
       <c r="P3" t="n">
-        <v>-5.914124480952696</v>
+        <v>-1.825480213425036</v>
       </c>
       <c r="Q3" t="n">
-        <v>-5.958855855599598</v>
+        <v>-1.791434911592791</v>
       </c>
       <c r="R3" t="n">
-        <v>-5.988021950059498</v>
+        <v>-1.840317755695519</v>
       </c>
       <c r="S3" t="n">
-        <v>-6.005565306331336</v>
+        <v>-1.805237115296296</v>
       </c>
       <c r="T3" t="n">
-        <v>-6.014416236567196</v>
+        <v>-1.774619747659851</v>
       </c>
       <c r="U3" t="n">
-        <v>-6.600805245755308</v>
+        <v>-1.841330963009515</v>
       </c>
       <c r="V3" t="n">
-        <v>-7.098722460985252</v>
+        <v>-1.807865411779044</v>
       </c>
       <c r="W3" t="n">
-        <v>-7.498184418875969</v>
+        <v>-1.778311896705034</v>
       </c>
       <c r="X3" t="n">
-        <v>-7.839359460804255</v>
+        <v>-1.752105726335468</v>
       </c>
       <c r="Y3" t="n">
-        <v>-8.131601549381141</v>
+        <v>-1.823281762996456</v>
       </c>
       <c r="Z3" t="n">
-        <v>-8.382584914252474</v>
+        <v>-1.793775672107605</v>
       </c>
       <c r="AA3" t="n">
-        <v>-8.646539922756778</v>
+        <v>-1.76727636482463</v>
       </c>
       <c r="AB3" t="n">
-        <v>-8.875187289232514</v>
+        <v>-1.829966957662912</v>
       </c>
       <c r="AC3" t="n">
-        <v>-9.073643128722962</v>
+        <v>-1.80115729278127</v>
       </c>
       <c r="AD3" t="n">
-        <v>-9.235337246286178</v>
+        <v>-1.774977964396321</v>
       </c>
       <c r="AE3" t="n">
-        <v>-9.37587127004004</v>
+        <v>-1.831452898656482</v>
       </c>
       <c r="AF3" t="n">
-        <v>-9.498130309742409</v>
+        <v>-1.803501461577626</v>
       </c>
       <c r="AG3" t="n">
-        <v>-10.08754655111949</v>
+        <v>-1.777836182666799</v>
       </c>
       <c r="AH3" t="n">
-        <v>-10.61576758927048</v>
+        <v>-1.754216122747054</v>
       </c>
       <c r="AI3" t="n">
-        <v>-11.09006215369264</v>
+        <v>-1.732434106934637</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-11.51669971323563</v>
+        <v>-1.785157951252104</v>
       </c>
       <c r="AK3" t="n">
-        <v>-12.29991656858039</v>
+        <v>-1.761599045379389</v>
       </c>
       <c r="AL3" t="n">
-        <v>-13.01030100996102</v>
+        <v>-1.739685136322382</v>
       </c>
       <c r="AM3" t="n">
-        <v>-13.65566679171966</v>
+        <v>-1.788990375246959</v>
       </c>
       <c r="AN3" t="n">
-        <v>-14.24285075047857</v>
+        <v>-1.765517806457336</v>
       </c>
       <c r="AO3" t="n">
-        <v>-13.98242496171487</v>
+        <v>-1.811599367642623</v>
       </c>
       <c r="AP3" t="n">
-        <v>-13.73915979702681</v>
+        <v>-1.786791876401902</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-13.51156304844029</v>
+        <v>-1.830169382070227</v>
       </c>
       <c r="AR3" t="n">
-        <v>-13.2983007157686</v>
+        <v>-1.804190424990262</v>
       </c>
       <c r="AS3" t="n">
-        <v>-13.09856924832478</v>
+        <v>-1.779636375524221</v>
       </c>
       <c r="AT3" t="n">
-        <v>-12.91087440569937</v>
+        <v>-1.756437648344966</v>
       </c>
       <c r="AU3" t="n">
-        <v>-12.73694259033324</v>
+        <v>-1.734532489896402</v>
       </c>
       <c r="AV3" t="n">
-        <v>-12.5730239736232</v>
+        <v>-1.778304541636923</v>
       </c>
       <c r="AW3" t="n">
-        <v>-12.41834920611083</v>
+        <v>-1.755189249584293</v>
       </c>
       <c r="AX3" t="n">
-        <v>-12.27450528464309</v>
+        <v>-1.797144693253709</v>
       </c>
       <c r="AY3" t="n">
-        <v>-12.1384235872457</v>
+        <v>-1.772890400740775</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-12.00954161011001</v>
+        <v>-1.749847720519913</v>
       </c>
       <c r="BA3" t="n">
-        <v>-11.88734704161948</v>
+        <v>-1.727991389333343</v>
       </c>
       <c r="BB3" t="n">
-        <v>-11.76755375840467</v>
+        <v>-1.761693390490051</v>
       </c>
       <c r="BC3" t="n">
-        <v>-11.65379046788142</v>
+        <v>-1.739190969103974</v>
       </c>
       <c r="BD3" t="n">
-        <v>-11.54564855103492</v>
+        <v>-1.780662744783394</v>
       </c>
       <c r="BE3" t="n">
-        <v>-11.44266456110181</v>
+        <v>-1.75706722231054</v>
       </c>
       <c r="BF3" t="n">
-        <v>-11.34458899532233</v>
+        <v>-1.734619978554595</v>
       </c>
       <c r="BG3" t="n">
-        <v>-11.2511055559769</v>
+        <v>-1.767296809713921</v>
       </c>
       <c r="BH3" t="n">
-        <v>-11.16192310796409</v>
+        <v>-1.744247714896141</v>
       </c>
       <c r="BI3" t="n">
-        <v>-11.07677331218571</v>
+        <v>-1.784831696824676</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-10.99587879056443</v>
+        <v>-1.760743859636509</v>
       </c>
       <c r="BK3" t="n">
-        <v>-10.91851485661588</v>
+        <v>-1.737804846404547</v>
       </c>
       <c r="BL3" t="n">
-        <v>-10.84353658582015</v>
+        <v>-1.778425911725766</v>
       </c>
       <c r="BM3" t="n">
-        <v>-10.7717334638524</v>
+        <v>-1.754486968241846</v>
       </c>
       <c r="BN3" t="n">
-        <v>-10.70292186135065</v>
+        <v>-1.794086732427331</v>
       </c>
       <c r="BO3" t="n">
-        <v>-10.63738938117711</v>
+        <v>-1.769174829985185</v>
       </c>
       <c r="BP3" t="n">
-        <v>-10.57449638218166</v>
+        <v>-1.807802526720803</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-10.51409681481652</v>
+        <v>-1.991130746408438</v>
       </c>
       <c r="BR3" t="n">
-        <v>-10.45605463490394</v>
+        <v>-2.438960340797366</v>
       </c>
       <c r="BS3" t="n">
-        <v>-10.40024298963553</v>
+        <v>-2.379092284786284</v>
       </c>
       <c r="BT3" t="n">
-        <v>-10.34654347985449</v>
+        <v>-2.320676827188053</v>
       </c>
       <c r="BU3" t="n">
-        <v>-10.29484549056851</v>
+        <v>-2.317655893053953</v>
       </c>
       <c r="BV3" t="n">
-        <v>-10.2450455825827</v>
+        <v>-2.25516844970252</v>
       </c>
       <c r="BW3" t="n">
-        <v>-10.19704693896336</v>
+        <v>-2.199410659785797</v>
       </c>
       <c r="BX3" t="n">
-        <v>-10.15075886076077</v>
+        <v>-2.145639972595912</v>
       </c>
       <c r="BY3" t="n">
-        <v>-10.10569536038923</v>
+        <v>-2.156295419999368</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-10.06219518569609</v>
+        <v>-2.103451148465517</v>
       </c>
       <c r="CA3" t="n">
-        <v>-10.02018245248477</v>
+        <v>-2.115162782453776</v>
       </c>
       <c r="CB3" t="n">
-        <v>-9.979585838935261</v>
+        <v>-2.063487021328962</v>
       </c>
       <c r="CC3" t="n">
-        <v>-9.940338259043196</v>
+        <v>-2.014108194750024</v>
       </c>
       <c r="CD3" t="n">
-        <v>-9.902754212094905</v>
+        <v>-2.029408198100039</v>
       </c>
       <c r="CE3" t="n">
-        <v>-9.866380992145809</v>
+        <v>-1.981416959664283</v>
       </c>
       <c r="CF3" t="n">
-        <v>-9.831163296448668</v>
+        <v>-1.935787499826317</v>
       </c>
       <c r="CG3" t="n">
-        <v>-9.797048951079178</v>
+        <v>-1.946298097901303</v>
       </c>
       <c r="CH3" t="n">
-        <v>-9.763988700000475</v>
+        <v>-1.902560714306238</v>
       </c>
       <c r="CI3" t="n">
-        <v>-9.731936010596147</v>
+        <v>-1.861175546878649</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-9.700493615496468</v>
+        <v>-1.822125402365671</v>
       </c>
       <c r="CK3" t="n">
-        <v>-9.6699867412601</v>
+        <v>-1.785382451680545</v>
       </c>
       <c r="CL3" t="n">
-        <v>-9.640375371505863</v>
+        <v>-1.813247216587791</v>
       </c>
       <c r="CM3" t="n">
-        <v>-9.611963955941789</v>
+        <v>-1.777716391253183</v>
       </c>
       <c r="CN3" t="n">
-        <v>-9.584361539408368</v>
+        <v>-1.744374563337446</v>
       </c>
       <c r="CO3" t="n">
-        <v>-9.557534642149818</v>
+        <v>-1.713178337597819</v>
       </c>
       <c r="CP3" t="n">
-        <v>-9.531451499585369</v>
+        <v>-1.746407562631151</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-9.506081957647162</v>
+        <v>-1.716064023714676</v>
       </c>
       <c r="CR3" t="n">
-        <v>-9.481397375539338</v>
+        <v>-1.687715072425701</v>
       </c>
       <c r="CS3" t="n">
-        <v>-9.457370535322314</v>
+        <v>-1.723635616527308</v>
       </c>
       <c r="CT3" t="n">
-        <v>-9.433975557779599</v>
+        <v>-1.695839062890041</v>
       </c>
       <c r="CU3" t="n">
-        <v>-9.411187824072533</v>
+        <v>-1.732210881333313</v>
       </c>
       <c r="CV3" t="n">
-        <v>-9.388670186179541</v>
+        <v>-1.704778157873336</v>
       </c>
       <c r="CW3" t="n">
-        <v>-9.366724597137349</v>
+        <v>-1.679107941018573</v>
       </c>
       <c r="CX3" t="n">
-        <v>-9.345329369762853</v>
+        <v>-1.71747767819904</v>
       </c>
       <c r="CY3" t="n">
-        <v>-9.324463834889761</v>
+        <v>-1.691924246202531</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-9.304108284662526</v>
+        <v>-1.730329486701224</v>
       </c>
       <c r="DA3" t="n">
-        <v>-9.284243919514106</v>
+        <v>-1.704742239565096</v>
       </c>
       <c r="DB3" t="n">
-        <v>-9.264852798556145</v>
+        <v>-1.680732800214328</v>
       </c>
       <c r="DC3" t="n">
-        <v>-9.245917793132449</v>
+        <v>-1.658269797763306</v>
       </c>
       <c r="DD3" t="n">
-        <v>-9.227715145796855</v>
+        <v>-1.699630571799045</v>
       </c>
       <c r="DE3" t="n">
-        <v>-9.209927556067926</v>
+        <v>-1.676867844880551</v>
       </c>
       <c r="DF3" t="n">
-        <v>-9.192540422839611</v>
+        <v>-1.717859802727749</v>
       </c>
       <c r="DG3" t="n">
-        <v>-9.175539782854166</v>
+        <v>-1.694670106258667</v>
       </c>
       <c r="DH3" t="n">
-        <v>-9.158912277850183</v>
+        <v>-1.672871241444378</v>
       </c>
       <c r="DI3" t="n">
-        <v>-9.142645123693349</v>
+        <v>-1.714750543075441</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-9.126726081353969</v>
+        <v>-1.692376897001441</v>
       </c>
       <c r="DK3" t="n">
-        <v>-9.111143429605656</v>
+        <v>-1.73363558970992</v>
       </c>
       <c r="DL3" t="n">
-        <v>-9.095885939329131</v>
+        <v>-1.710604389085615</v>
       </c>
       <c r="DM3" t="n">
-        <v>-9.080670126473647</v>
+        <v>-1.688864095270048</v>
       </c>
       <c r="DN3" t="n">
-        <v>-9.065766141364955</v>
+        <v>-1.730710763400666</v>
       </c>
       <c r="DO3" t="n">
-        <v>-9.051163824674756</v>
+        <v>-1.9430062364915</v>
       </c>
       <c r="DP3" t="n">
-        <v>-9.036853431975132</v>
+        <v>-1.909415257989299</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-9.022825614025763</v>
+        <v>-1.939434045393764</v>
       </c>
       <c r="DR3" t="n">
-        <v>-9.009071398163437</v>
+        <v>-1.905203459186528</v>
       </c>
       <c r="DS3" t="n">
-        <v>-8.995582170723546</v>
+        <v>-1.872358440455027</v>
       </c>
       <c r="DT3" t="n">
-        <v>-8.982349660428294</v>
+        <v>-1.903243690813915</v>
       </c>
       <c r="DU3" t="n">
-        <v>-9.041933210258113</v>
+        <v>-1.86998375510586</v>
       </c>
       <c r="DV3" t="n">
-        <v>-9.09984475999701</v>
+        <v>-1.838197885011067</v>
       </c>
       <c r="DW3" t="n">
-        <v>-9.156138033883554</v>
+        <v>-1.870216290377567</v>
       </c>
       <c r="DX3" t="n">
-        <v>-9.210864552067751</v>
+        <v>-1.838150279875993</v>
       </c>
       <c r="DY3" t="n">
-        <v>-9.264073735906816</v>
+        <v>-1.86991679484336</v>
       </c>
       <c r="DZ3" t="n">
-        <v>-9.792485168995904</v>
+        <v>-2.072405818770479</v>
       </c>
       <c r="EA3" t="n">
-        <v>-10.30745784695705</v>
+        <v>-2.029308953490077</v>
       </c>
       <c r="EB3" t="n">
-        <v>-10.80940106075001</v>
+        <v>-1.987830450837753</v>
       </c>
       <c r="EC3" t="n">
-        <v>-11.29870799312025</v>
+        <v>-1.943424332939217</v>
       </c>
       <c r="ED3" t="n">
-        <v>-11.65638098163246</v>
+        <v>-1.901315739555165</v>
       </c>
       <c r="EE3" t="n">
-        <v>-12.0050632150469</v>
+        <v>-1.865789789599742</v>
       </c>
       <c r="EF3" t="n">
-        <v>-12.34501875814854</v>
+        <v>-1.877971145596966</v>
       </c>
       <c r="EG3" t="n">
-        <v>-12.67650155019595</v>
+        <v>-1.843722596684684</v>
       </c>
       <c r="EH3" t="n">
-        <v>-13.11607554591174</v>
+        <v>-1.806137855978124</v>
       </c>
       <c r="EI3" t="n">
-        <v>-13.54492228504619</v>
+        <v>-1.846902045966082</v>
       </c>
       <c r="EJ3" t="n">
-        <v>-13.96334498934573</v>
+        <v>-1.808811117330122</v>
       </c>
       <c r="EK3" t="n">
-        <v>-14.37163556239439</v>
+        <v>-1.848726932834301</v>
       </c>
       <c r="EL3" t="n">
-        <v>-14.77007508273623</v>
+        <v>-1.811601773851331</v>
       </c>
       <c r="EM3" t="n">
-        <v>-14.9483863658679</v>
+        <v>-1.775508850526817</v>
       </c>
       <c r="EN3" t="n">
-        <v>-15.12212050985809</v>
+        <v>-1.817410887870929</v>
       </c>
       <c r="EO3" t="n">
-        <v>-15.29140158430382</v>
+        <v>-1.781237195226987</v>
       </c>
       <c r="EP3" t="n">
-        <v>-15.4563491720152</v>
+        <v>-1.81379815403671</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-15.41994763696673</v>
+        <v>-1.779980302272143</v>
       </c>
       <c r="ER3" t="n">
-        <v>-15.38373348878855</v>
+        <v>-1.839070745479035</v>
       </c>
       <c r="ES3" t="n">
-        <v>-15.34770323359566</v>
+        <v>-2.072786954176374</v>
       </c>
       <c r="ET3" t="n">
-        <v>-15.31185350714349</v>
+        <v>-2.517307658497114</v>
       </c>
       <c r="EU3" t="n">
-        <v>-15.27618107314571</v>
+        <v>-2.692722341984639</v>
       </c>
       <c r="EV3" t="n">
-        <v>-15.22243115468635</v>
+        <v>-3.354950884882831</v>
       </c>
       <c r="EW3" t="n">
-        <v>-15.16923409579829</v>
+        <v>-3.475515393304491</v>
       </c>
       <c r="EX3" t="n">
-        <v>-15.11657768269337</v>
+        <v>-3.98970213472698</v>
       </c>
       <c r="EY3" t="n">
-        <v>-15.13616165465073</v>
+        <v>-4.333169638010514</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-15.15479931255821</v>
+        <v>-4.781095485001559</v>
       </c>
       <c r="FA3" t="n">
-        <v>-15.16587061233942</v>
+        <v>-5.526150360556484</v>
       </c>
       <c r="FB3" t="n">
-        <v>-15.17617595351844</v>
+        <v>-5.904886025532228</v>
       </c>
       <c r="FC3" t="n">
-        <v>-15.1857345498732</v>
+        <v>-6.519817870858317</v>
       </c>
       <c r="FD3" t="n">
-        <v>-15.19456501412518</v>
+        <v>-6.824202619398156</v>
       </c>
       <c r="FE3" t="n">
-        <v>-15.20268538413429</v>
+        <v>-7.289793278047454</v>
       </c>
       <c r="FF3" t="n">
-        <v>-15.22116829296008</v>
+        <v>-7.534457328921608</v>
       </c>
       <c r="FG3" t="n">
-        <v>-15.23876194885123</v>
+        <v>-7.75593956071233</v>
       </c>
       <c r="FH3" t="n">
-        <v>-15.25548750936258</v>
+        <v>-8.105050911182008</v>
       </c>
       <c r="FI3" t="n">
-        <v>-15.32269849485828</v>
+        <v>-8.275750755273204</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-15.38811244595946</v>
+        <v>-8.576420027268368</v>
       </c>
       <c r="FK3" t="n">
-        <v>-15.45176930622952</v>
+        <v>-8.702169198389559</v>
       </c>
       <c r="FL3" t="n">
-        <v>-15.51370780802642</v>
+        <v>-8.810827202212149</v>
       </c>
       <c r="FM3" t="n">
-        <v>-15.51724403205186</v>
+        <v>-9.017694335579385</v>
       </c>
       <c r="FN3" t="n">
-        <v>-15.52017544492907</v>
+        <v>-9.091119882389048</v>
       </c>
       <c r="FO3" t="n">
-        <v>-15.52251634584493</v>
+        <v>-9.150902961081274</v>
       </c>
       <c r="FP3" t="n">
-        <v>-15.52017724982029</v>
+        <v>-9.311945154826205</v>
       </c>
       <c r="FQ3" t="n">
-        <v>-15.51734869525756</v>
+        <v>-9.340579544737281</v>
       </c>
       <c r="FR3" t="n">
-        <v>-15.51404246223864</v>
+        <v>-9.336846518504293</v>
       </c>
       <c r="FS3" t="n">
-        <v>-15.50881175846818</v>
+        <v>-9.324347198594612</v>
       </c>
       <c r="FT3" t="n">
-        <v>-15.50315167677415</v>
+        <v>-9.303607872806023</v>
       </c>
       <c r="FU3" t="n">
-        <v>-15.49707269268328</v>
+        <v>-9.734887095526386</v>
       </c>
       <c r="FV3" t="n">
-        <v>-15.49058504489189</v>
+        <v>-10.79690383158499</v>
       </c>
       <c r="FW3" t="n">
-        <v>-15.48363659833459</v>
+        <v>-10.67320022463761</v>
       </c>
       <c r="FX3" t="n">
-        <v>-15.47609612354774</v>
+        <v>-11.06905365211717</v>
       </c>
       <c r="FY3" t="n">
-        <v>-15.46818088085547</v>
+        <v>-10.91358728519315</v>
       </c>
       <c r="FZ3" t="n">
-        <v>-15.45990017865683</v>
+        <v>-10.92964179946445</v>
       </c>
       <c r="GA3" t="n">
-        <v>-15.45223099797921</v>
+        <v>-10.76428078990611</v>
       </c>
       <c r="GB3" t="n">
-        <v>-15.44419834580795</v>
+        <v>-10.59892332228389</v>
       </c>
       <c r="GC3" t="n">
-        <v>-15.43581125959004</v>
+        <v>-10.69134271598864</v>
       </c>
       <c r="GD3" t="n">
-        <v>-15.42707860283003</v>
+        <v>-10.51499442109241</v>
       </c>
       <c r="GE3" t="n">
-        <v>-15.41800907211378</v>
+        <v>-10.33979053872393</v>
       </c>
       <c r="GF3" t="n">
-        <v>-15.4086112037857</v>
+        <v>-10.34131667768468</v>
       </c>
       <c r="GG3" t="n">
-        <v>-15.39889338029356</v>
+        <v>-10.16417910200468</v>
       </c>
       <c r="GH3" t="n">
-        <v>-15.3888638362143</v>
+        <v>-9.991334114035054</v>
       </c>
       <c r="GI3" t="n">
-        <v>-15.37853066397373</v>
+        <v>-9.996871967390685</v>
       </c>
       <c r="GJ3" t="n">
-        <v>-15.36790181927267</v>
+        <v>-9.824831975925676</v>
       </c>
       <c r="GK3" t="n">
-        <v>-15.35698512623122</v>
+        <v>-9.658362246715299</v>
       </c>
       <c r="GL3" t="n">
-        <v>-15.34578828226268</v>
+        <v>-9.608837566253708</v>
       </c>
       <c r="GM3" t="n">
-        <v>-15.33431886268812</v>
+        <v>-9.448562380009214</v>
       </c>
       <c r="GN3" t="n">
-        <v>-15.32258432510202</v>
+        <v>-9.405718306673812</v>
       </c>
       <c r="GO3" t="n">
-        <v>-15.31059201349922</v>
+        <v>-9.251886260503882</v>
       </c>
       <c r="GP3" t="n">
-        <v>-15.29834916217297</v>
+        <v>-9.105255578905213</v>
       </c>
       <c r="GQ3" t="n">
-        <v>-15.28586289939333</v>
+        <v>-9.104366764437547</v>
       </c>
       <c r="GR3" t="n">
-        <v>-15.27314025087519</v>
+        <v>-8.963130432000108</v>
       </c>
       <c r="GS3" t="n">
-        <v>-15.2601881430445</v>
+        <v>-8.967646207627174</v>
       </c>
       <c r="GT3" t="n">
-        <v>-15.24701340611121</v>
+        <v>-8.834516138385524</v>
       </c>
       <c r="GU3" t="n">
-        <v>-15.23362277695708</v>
+        <v>-8.70736612754429</v>
       </c>
       <c r="GV3" t="n">
-        <v>-15.22002290184621</v>
+        <v>-8.693860261836186</v>
       </c>
       <c r="GW3" t="n">
-        <v>-15.20622033896588</v>
+        <v>-8.575873166240257</v>
       </c>
       <c r="GX3" t="n">
-        <v>-15.19222156080512</v>
+        <v>-8.463684733893791</v>
       </c>
       <c r="GY3" t="n">
-        <v>-15.17803295637808</v>
+        <v>-8.358220356487898</v>
       </c>
       <c r="GZ3" t="n">
-        <v>-15.16366083329904</v>
+        <v>-8.259363243302564</v>
       </c>
       <c r="HA3" t="n">
-        <v>-15.14911141971588</v>
+        <v>-8.16742340921815</v>
       </c>
       <c r="HB3" t="n">
-        <v>-15.13439086610837</v>
+        <v>-8.188531399751714</v>
       </c>
       <c r="HC3" t="n">
-        <v>-15.11950524695746</v>
+        <v>-8.103847789151605</v>
       </c>
       <c r="HD3" t="n">
-        <v>-15.10446056229186</v>
+        <v>-8.164085555272298</v>
       </c>
       <c r="HE3" t="n">
-        <v>-15.08926273911755</v>
+        <v>-8.082814165982059</v>
       </c>
       <c r="HF3" t="n">
-        <v>-15.07391763273612</v>
+        <v>-8.008146455804106</v>
       </c>
       <c r="HG3" t="n">
-        <v>-15.05843102795731</v>
+        <v>-8.045715294390698</v>
       </c>
       <c r="HH3" t="n">
-        <v>-15.04280864021123</v>
+        <v>-7.974605017620499</v>
       </c>
       <c r="HI3" t="n">
-        <v>-15.02705611656538</v>
+        <v>-8.047441827995202</v>
       </c>
       <c r="HJ3" t="n">
-        <v>-15.01117903665157</v>
+        <v>-7.980679654777963</v>
       </c>
       <c r="HK3" t="n">
-        <v>-14.99518291350757</v>
+        <v>-7.918178801171752</v>
       </c>
       <c r="HL3" t="n">
-        <v>-14.97907319433826</v>
+        <v>-7.967094516252459</v>
       </c>
       <c r="HM3" t="n">
-        <v>-14.96285526120097</v>
+        <v>-7.908635394021601</v>
       </c>
       <c r="HN3" t="n">
-        <v>-14.94653443161923</v>
+        <v>-7.993502692146352</v>
       </c>
       <c r="HO3" t="n">
-        <v>-14.93011595912952</v>
+        <v>-7.935268390178568</v>
       </c>
       <c r="HP3" t="n">
-        <v>-14.91360503376503</v>
+        <v>-7.882110921238985</v>
       </c>
       <c r="HQ3" t="n">
-        <v>-14.89700678248051</v>
+        <v>-7.831398665841482</v>
       </c>
       <c r="HR3" t="n">
-        <v>-14.88032626952224</v>
+        <v>-7.923347774468136</v>
       </c>
       <c r="HS3" t="n">
-        <v>-14.86356849674672</v>
+        <v>-7.873924989879452</v>
       </c>
       <c r="HT3" t="n">
-        <v>-14.846738403892</v>
+        <v>-7.967009648843632</v>
       </c>
       <c r="HU3" t="n">
-        <v>-14.82984086880499</v>
+        <v>-7.917830394951164</v>
       </c>
       <c r="HV3" t="n">
-        <v>-14.81288070762829</v>
+        <v>-7.870510147541468</v>
       </c>
       <c r="HW3" t="n">
-        <v>-14.79586267494986</v>
+        <v>-7.827498285723303</v>
       </c>
       <c r="HX3" t="n">
-        <v>-14.77879146391868</v>
+        <v>-7.926597250067316</v>
       </c>
       <c r="HY3" t="n">
-        <v>-14.76167170632955</v>
+        <v>-8.276094563120761</v>
       </c>
       <c r="HZ3" t="n">
-        <v>-14.7445079726799</v>
+        <v>-8.213339441177904</v>
       </c>
       <c r="IA3" t="n">
-        <v>-14.72730477220167</v>
+        <v>-8.292437398101375</v>
       </c>
       <c r="IB3" t="n">
-        <v>-14.71006655287073</v>
+        <v>-8.229503762085555</v>
       </c>
       <c r="IC3" t="n">
-        <v>-14.69279770139681</v>
+        <v>-8.169625006964768</v>
       </c>
       <c r="ID3" t="n">
-        <v>-14.6755025431962</v>
+        <v>-8.251741188853364</v>
       </c>
       <c r="IE3" t="n">
-        <v>-14.65818534234987</v>
+        <v>-8.191190026789615</v>
       </c>
       <c r="IF3" t="n">
-        <v>-14.6408503015492</v>
+        <v>-8.272685391345782</v>
       </c>
       <c r="IG3" t="n">
-        <v>-14.62350156203164</v>
+        <v>-8.210395010376407</v>
       </c>
       <c r="IH3" t="n">
-        <v>-14.60614320350844</v>
+        <v>-8.151710946200417</v>
       </c>
       <c r="II3" t="n">
-        <v>-14.58877924408641</v>
+        <v>-8.235094706670829</v>
       </c>
       <c r="IJ3" t="n">
-        <v>-14.57141364018577</v>
+        <v>-8.1737272550545</v>
       </c>
       <c r="IK3" t="n">
-        <v>-14.55405028645577</v>
+        <v>-8.116475306163684</v>
       </c>
       <c r="IL3" t="n">
-        <v>-14.53669301569007</v>
+        <v>-8.201235645665118</v>
       </c>
       <c r="IM3" t="n">
-        <v>-14.51934559874329</v>
+        <v>-8.142815248780076</v>
       </c>
       <c r="IN3" t="n">
-        <v>-14.50201174445051</v>
+        <v>-8.226385202364591</v>
       </c>
       <c r="IO3" t="n">
-        <v>-14.48469509955106</v>
+        <v>-8.166760949924065</v>
       </c>
       <c r="IP3" t="n">
-        <v>-14.46739924861812</v>
+        <v>-8.249121270481101</v>
       </c>
       <c r="IQ3" t="n">
-        <v>-14.45012771399528</v>
+        <v>-8.188288560687807</v>
       </c>
       <c r="IR3" t="n">
-        <v>-14.43288395574154</v>
+        <v>-8.130517789285827</v>
       </c>
       <c r="IS3" t="n">
-        <v>-14.4156713715856</v>
+        <v>-8.075807134870148</v>
       </c>
       <c r="IT3" t="n">
-        <v>-14.39849329689076</v>
+        <v>-8.163068891986045</v>
       </c>
       <c r="IU3" t="n">
-        <v>-14.38135300463131</v>
+        <v>-8.107100841465368</v>
       </c>
       <c r="IV3" t="n">
-        <v>-14.36425370538132</v>
+        <v>-8.193066054138635</v>
       </c>
       <c r="IW3" t="n">
-        <v>-14.34719854731668</v>
+        <v>-8.135773060223347</v>
       </c>
       <c r="IX3" t="n">
-        <v>-14.33019061623127</v>
+        <v>-8.081701468085583</v>
       </c>
       <c r="IY3" t="n">
-        <v>-14.31323293556774</v>
+        <v>-8.137397480918509</v>
       </c>
       <c r="IZ3" t="n">
-        <v>-14.29632846646374</v>
+        <v>-8.083362178924832</v>
       </c>
       <c r="JA3" t="n">
-        <v>-14.2794801078141</v>
+        <v>-8.139026035039349</v>
       </c>
       <c r="JB3" t="n">
-        <v>-14.26269069634944</v>
+        <v>-8.085218803314561</v>
       </c>
       <c r="JC3" t="n">
-        <v>-14.24596300673161</v>
+        <v>-8.034550721967484</v>
       </c>
       <c r="JD3" t="n">
-        <v>-14.2292997516665</v>
+        <v>-8.093558284287166</v>
       </c>
       <c r="JE3" t="n">
-        <v>-14.21270358203437</v>
+        <v>-8.042734316551936</v>
       </c>
       <c r="JF3" t="n">
-        <v>-14.19617708703804</v>
+        <v>-8.101502391606795</v>
       </c>
       <c r="JG3" t="n">
-        <v>-14.17972279436925</v>
+        <v>-8.050686618187662</v>
       </c>
       <c r="JH3" t="n">
-        <v>-14.16334317039313</v>
+        <v>-8.002655972744952</v>
       </c>
       <c r="JI3" t="n">
-        <v>-14.14704062035112</v>
+        <v>-8.064149173554362</v>
       </c>
       <c r="JJ3" t="n">
-        <v>-14.13081748858228</v>
+        <v>-8.016219564294177</v>
       </c>
       <c r="JK3" t="n">
-        <v>-14.11467605876303</v>
+        <v>-7.97098050050976</v>
       </c>
       <c r="JL3" t="n">
-        <v>-14.09861855416534</v>
+        <v>-8.035209038447418</v>
       </c>
       <c r="JM3" t="n">
-        <v>-14.08264713793328</v>
+        <v>-7.989628074424585</v>
       </c>
       <c r="JN3" t="n">
-        <v>-14.06676391337776</v>
+        <v>-7.946642861007106</v>
       </c>
       <c r="JO3" t="n">
-        <v>-14.0509709242895</v>
+        <v>-8.013028058428528</v>
       </c>
       <c r="JP3" t="n">
-        <v>-14.03527015526983</v>
+        <v>-7.969504918905348</v>
       </c>
       <c r="JQ3" t="n">
-        <v>-14.01966353207925</v>
+        <v>-8.035285509099809</v>
       </c>
       <c r="JR3" t="n">
-        <v>-14.00415292200357</v>
+        <v>-7.990864162578335</v>
       </c>
       <c r="JS3" t="n">
-        <v>-13.98874013423711</v>
+        <v>-7.949140352761989</v>
       </c>
       <c r="JT3" t="n">
-        <v>-13.97342692028298</v>
+        <v>-8.016647609241991</v>
       </c>
       <c r="JU3" t="n">
-        <v>-13.95821497436984</v>
+        <v>-7.974115209609637</v>
       </c>
       <c r="JV3" t="n">
-        <v>-13.94310593388499</v>
+        <v>-8.040763135200375</v>
       </c>
       <c r="JW3" t="n">
-        <v>-13.92810137982333</v>
+        <v>-7.997330268370374</v>
       </c>
       <c r="JX3" t="n">
-        <v>-13.91320283725175</v>
+        <v>-7.956237678394232</v>
       </c>
       <c r="JY3" t="n">
-        <v>-13.89841177578872</v>
+        <v>-8.024275606463524</v>
       </c>
       <c r="JZ3" t="n">
-        <v>-13.8837296100984</v>
+        <v>-7.982180591467864</v>
       </c>
       <c r="KA3" t="n">
-        <v>-13.8691577003991</v>
+        <v>-7.94237186849195</v>
       </c>
       <c r="KB3" t="n">
-        <v>-13.85469735298537</v>
+        <v>-8.043814574534244</v>
       </c>
       <c r="KC3" t="n">
-        <v>-13.8403498207635</v>
+        <v>-8.001198770946768</v>
       </c>
       <c r="KD3" t="n">
-        <v>-13.82611630379975</v>
+        <v>-7.960821122590727</v>
       </c>
       <c r="KE3" t="n">
-        <v>-13.81199794988091</v>
+        <v>-8.061654580171785</v>
       </c>
       <c r="KF3" t="n">
-        <v>-13.79799585508671</v>
+        <v>-8.018396449638933</v>
       </c>
       <c r="KG3" t="n">
-        <v>-13.78411106437354</v>
+        <v>-8.084157862924693</v>
       </c>
       <c r="KH3" t="n">
-        <v>-13.77034457216897</v>
+        <v>-8.039698458058387</v>
       </c>
       <c r="KI3" t="n">
-        <v>-13.75669732297653</v>
+        <v>-7.997458721724546</v>
       </c>
       <c r="KJ3" t="n">
-        <v>-13.74317021199033</v>
+        <v>-7.957439232958527</v>
       </c>
       <c r="KK3" t="n">
-        <v>-13.72976408571889</v>
+        <v>-8.0264365841914</v>
       </c>
       <c r="KL3" t="n">
-        <v>-13.71647974261767</v>
+        <v>-8.385727427749785</v>
       </c>
       <c r="KM3" t="n">
-        <v>-13.70331793372988</v>
+        <v>-8.325594797083655</v>
       </c>
       <c r="KN3" t="n">
-        <v>-13.69027936333493</v>
+        <v>-8.37455066735566</v>
       </c>
       <c r="KO3" t="n">
-        <v>-13.67736468960401</v>
+        <v>-8.313436349985674</v>
       </c>
       <c r="KP3" t="n">
-        <v>-13.66457452526244</v>
+        <v>-8.254765041145591</v>
       </c>
       <c r="KQ3" t="n">
-        <v>-13.65190943825799</v>
+        <v>-8.198364803477514</v>
       </c>
       <c r="KR3" t="n">
-        <v>-13.63936995243496</v>
+        <v>-8.251294189287451</v>
       </c>
       <c r="KS3" t="n">
-        <v>-13.62695654821332</v>
+        <v>-8.194671105362801</v>
       </c>
       <c r="KT3" t="n">
-        <v>-13.6146696632725</v>
+        <v>-8.14066769527677</v>
       </c>
       <c r="KU3" t="n">
-        <v>-13.60250969323927</v>
+        <v>-8.228290558084458</v>
       </c>
       <c r="KV3" t="n">
-        <v>-13.59047699237928</v>
+        <v>-8.172265094060776</v>
       </c>
       <c r="KW3" t="n">
-        <v>-13.57857187429181</v>
+        <v>-8.257901644955703</v>
       </c>
       <c r="KX3" t="n">
-        <v>-13.56679461260718</v>
+        <v>-8.199932504257861</v>
       </c>
       <c r="KY3" t="n">
-        <v>-13.55514544168634</v>
+        <v>-8.144689957845317</v>
       </c>
       <c r="KZ3" t="n">
-        <v>-13.54362455732235</v>
+        <v>-8.199000177917004</v>
       </c>
       <c r="LA3" t="n">
-        <v>-13.53223211744315</v>
+        <v>-8.143629814683594</v>
       </c>
       <c r="LB3" t="n">
-        <v>-13.52096824281518</v>
+        <v>-8.197830591163161</v>
       </c>
       <c r="LC3" t="n">
-        <v>-13.50983301774757</v>
+        <v>-8.542901694852297</v>
       </c>
       <c r="LD3" t="n">
-        <v>-13.49882649079636</v>
+        <v>-8.469143399981593</v>
       </c>
       <c r="LE3" t="n">
-        <v>-13.48794867546835</v>
+        <v>-8.39827229401612</v>
       </c>
       <c r="LF3" t="n">
-        <v>-13.47719955092426</v>
+        <v>-8.330373079810704</v>
       </c>
       <c r="LG3" t="n">
-        <v>-13.46657906268081</v>
+        <v>-8.404490359024482</v>
       </c>
       <c r="LH3" t="n">
-        <v>-13.45608712331125</v>
+        <v>-8.335381676420988</v>
       </c>
       <c r="LI3" t="n">
-        <v>-13.44572361314407</v>
+        <v>-8.376207814716768</v>
       </c>
       <c r="LJ3" t="n">
-        <v>-13.43548838095958</v>
+        <v>-8.307768272168266</v>
       </c>
       <c r="LK3" t="n">
-        <v>-13.42538124468389</v>
+        <v>-8.242534374429802</v>
       </c>
       <c r="LL3" t="n">
-        <v>-13.41540199208011</v>
+        <v>-8.287337030975614</v>
       </c>
       <c r="LM3" t="n">
-        <v>-13.4055503814363</v>
+        <v>-8.222944605669358</v>
       </c>
       <c r="LN3" t="n">
-        <v>-13.39582614225009</v>
+        <v>-8.300784066987452</v>
       </c>
       <c r="LO3" t="n">
-        <v>-13.38622897590938</v>
+        <v>-8.235571796025223</v>
       </c>
       <c r="LP3" t="n">
-        <v>-13.37675855636917</v>
+        <v>-8.173622838461515</v>
       </c>
       <c r="LQ3" t="n">
-        <v>-13.36741453082398</v>
+        <v>-8.253921284174147</v>
       </c>
       <c r="LR3" t="n">
-        <v>-13.35819652037576</v>
+        <v>-8.191169002334032</v>
       </c>
       <c r="LS3" t="n">
-        <v>-13.34910412069698</v>
+        <v>-8.270652007904246</v>
       </c>
       <c r="LT3" t="n">
-        <v>-13.34013690268869</v>
+        <v>-8.20707767970916</v>
       </c>
       <c r="LU3" t="n">
-        <v>-13.33129441313333</v>
+        <v>-8.146752991201703</v>
       </c>
       <c r="LV3" t="n">
-        <v>-13.32257617534206</v>
+        <v>-8.196478577589723</v>
       </c>
       <c r="LW3" t="n">
-        <v>-13.31398168979642</v>
+        <v>-8.595653537960546</v>
       </c>
       <c r="LX3" t="n">
-        <v>-13.30551043478413</v>
+        <v>-8.515247012277447</v>
       </c>
       <c r="LY3" t="n">
-        <v>-13.29716186702882</v>
+        <v>-8.438149734298285</v>
       </c>
       <c r="LZ3" t="n">
-        <v>-13.28893542231362</v>
+        <v>-8.364437001325376</v>
       </c>
       <c r="MA3" t="n">
-        <v>-13.28083051609824</v>
+        <v>-8.294158740661883</v>
       </c>
       <c r="MB3" t="n">
-        <v>-13.27284654412971</v>
+        <v>-8.227341784310935</v>
       </c>
       <c r="MC3" t="n">
-        <v>-13.26498288304628</v>
+        <v>-8.163992037850702</v>
       </c>
       <c r="MD3" t="n">
-        <v>-13.25723889097461</v>
+        <v>-8.104096542640566</v>
       </c>
       <c r="ME3" t="n">
-        <v>-13.24961390812004</v>
+        <v>-8.186609465994412</v>
       </c>
       <c r="MF3" t="n">
-        <v>-13.24210725734982</v>
+        <v>-8.526738697555365</v>
       </c>
       <c r="MG3" t="n">
-        <v>-13.23471824476916</v>
+        <v>-8.448618065218595</v>
       </c>
       <c r="MH3" t="n">
-        <v>-13.22744616029011</v>
+        <v>-8.373929175040082</v>
       </c>
       <c r="MI3" t="n">
-        <v>-13.2202902781931</v>
+        <v>-8.302680727070822</v>
       </c>
       <c r="MJ3" t="n">
-        <v>-13.21324985768105</v>
+        <v>-8.235866272946573</v>
       </c>
       <c r="MK3" t="n">
-        <v>-13.20632414342601</v>
+        <v>-8.171639176365495</v>
       </c>
       <c r="ML3" t="n">
-        <v>-13.19951236610831</v>
+        <v>-8.254277619181883</v>
       </c>
       <c r="MM3" t="n">
-        <v>-13.19281374294809</v>
+        <v>-8.189151060108745</v>
       </c>
       <c r="MN3" t="n">
-        <v>-13.18622747822915</v>
+        <v>-8.266436245212914</v>
       </c>
       <c r="MO3" t="n">
-        <v>-13.17975276381516</v>
+        <v>-8.201493402367793</v>
       </c>
       <c r="MP3" t="n">
-        <v>-13.17338877965814</v>
+        <v>-8.278985370452446</v>
       </c>
       <c r="MQ3" t="n">
-        <v>-13.16713469429916</v>
+        <v>-8.212638076128792</v>
       </c>
       <c r="MR3" t="n">
-        <v>-13.16098966536132</v>
+        <v>-8.292986382599969</v>
       </c>
       <c r="MS3" t="n">
-        <v>-13.15495284003484</v>
+        <v>-8.824936853696324</v>
       </c>
       <c r="MT3" t="n">
-        <v>-13.14902335555445</v>
+        <v>-8.730826215223926</v>
       </c>
       <c r="MU3" t="n">
-        <v>-13.14320033966891</v>
+        <v>-8.856184853176115</v>
       </c>
       <c r="MV3" t="n">
-        <v>-13.13748291110272</v>
+        <v>-9.221560331594667</v>
       </c>
       <c r="MW3" t="n">
-        <v>-13.13187018001004</v>
+        <v>-9.101826592890919</v>
       </c>
       <c r="MX3" t="n">
-        <v>-13.12636124842079</v>
+        <v>-8.986207570807276</v>
       </c>
       <c r="MY3" t="n">
-        <v>-13.12095521067896</v>
+        <v>-8.875828180049259</v>
       </c>
       <c r="MZ3" t="n">
-        <v>-13.11565115387322</v>
+        <v>-8.88098604646289</v>
       </c>
       <c r="NA3" t="n">
-        <v>-13.11044815825967</v>
+        <v>-8.773159414139663</v>
       </c>
       <c r="NB3" t="n">
-        <v>-13.10534529767694</v>
+        <v>-8.670000474650353</v>
       </c>
       <c r="NC3" t="n">
-        <v>-13.10034163995363</v>
+        <v>-8.57162210008347</v>
       </c>
       <c r="ND3" t="n">
-        <v>-13.09543624730801</v>
+        <v>-8.478017938287065</v>
       </c>
       <c r="NE3" t="n">
-        <v>-13.09062817674017</v>
+        <v>-8.389222084044643</v>
       </c>
       <c r="NF3" t="n">
-        <v>-13.08591648041658</v>
+        <v>-8.305212120574776</v>
       </c>
       <c r="NG3" t="n">
-        <v>-13.0813002060471</v>
+        <v>-8.364896302023837</v>
       </c>
       <c r="NH3" t="n">
-        <v>-13.07677839725452</v>
+        <v>-8.676607640123404</v>
       </c>
       <c r="NI3" t="n">
-        <v>-13.07235009393664</v>
+        <v>-8.579261323845826</v>
       </c>
       <c r="NJ3" t="n">
-        <v>-13.06801433262101</v>
+        <v>-8.485666038090157</v>
       </c>
       <c r="NK3" t="n">
-        <v>-13.06377014681232</v>
+        <v>-8.61241172264034</v>
       </c>
       <c r="NL3" t="n">
-        <v>-13.05961656733249</v>
+        <v>-8.517407556606088</v>
       </c>
       <c r="NM3" t="n">
-        <v>-13.05555262265359</v>
+        <v>-8.566074563667609</v>
       </c>
       <c r="NN3" t="n">
-        <v>-13.0515773392236</v>
+        <v>-8.47377747815616</v>
       </c>
       <c r="NO3" t="n">
-        <v>-13.04768974178507</v>
+        <v>-8.564503187283679</v>
       </c>
       <c r="NP3" t="n">
-        <v>-13.04388885368676</v>
+        <v>-8.473865022574444</v>
       </c>
       <c r="NQ3" t="n">
-        <v>-13.04017369718835</v>
+        <v>-8.531679123072898</v>
       </c>
       <c r="NR3" t="n">
-        <v>-13.03654329375824</v>
+        <v>-8.442778930343176</v>
       </c>
       <c r="NS3" t="n">
-        <v>-13.03299666436453</v>
+        <v>-8.570064459161268</v>
       </c>
       <c r="NT3" t="n">
-        <v>-13.02953282975925</v>
+        <v>-8.457344542232425</v>
       </c>
       <c r="NU3" t="n">
-        <v>-13.02615081075599</v>
+        <v>-8.552612426081691</v>
       </c>
       <c r="NV3" t="n">
-        <v>-13.02284962850081</v>
+        <v>-8.440255125583773</v>
       </c>
       <c r="NW3" t="n">
-        <v>-13.0196283047367</v>
+        <v>-8.531035625324606</v>
       </c>
       <c r="NX3" t="n">
-        <v>-13.01648586206161</v>
+        <v>-8.42013510504216</v>
       </c>
       <c r="NY3" t="n">
-        <v>-13.01342132418002</v>
+        <v>-8.315020718465046</v>
       </c>
       <c r="NZ3" t="n">
-        <v>-13.01043371614833</v>
+        <v>-8.417739196101374</v>
       </c>
       <c r="OA3" t="n">
-        <v>-13.00752206461389</v>
+        <v>-8.314663160834208</v>
       </c>
       <c r="OB3" t="n">
-        <v>-13.00468539804804</v>
+        <v>-8.414877787879687</v>
       </c>
       <c r="OC3" t="n">
-        <v>-13.00192274697293</v>
+        <v>-8.312317973350758</v>
       </c>
       <c r="OD3" t="n">
-        <v>-12.99923314418252</v>
+        <v>-8.216272213201751</v>
       </c>
       <c r="OE3" t="n">
-        <v>-12.99661562495749</v>
+        <v>-8.260761213716707</v>
       </c>
       <c r="OF3" t="n">
-        <v>-12.99406922727453</v>
+        <v>-8.169699148035905</v>
       </c>
       <c r="OG3" t="n">
-        <v>-12.99159299200968</v>
+        <v>-8.286914972393607</v>
       </c>
       <c r="OH3" t="n">
-        <v>-12.98918596313613</v>
+        <v>-8.195666306916328</v>
       </c>
       <c r="OI3" t="n">
-        <v>-12.98684718791642</v>
+        <v>-8.109035814438961</v>
       </c>
       <c r="OJ3" t="n">
-        <v>-12.98457571708908</v>
+        <v>-8.263237077755031</v>
       </c>
       <c r="OK3" t="n">
-        <v>-12.98237060504985</v>
+        <v>-8.17493181462118</v>
       </c>
       <c r="OL3" t="n">
-        <v>-12.9802309100276</v>
+        <v>-8.254825721449638</v>
       </c>
       <c r="OM3" t="n">
-        <v>-12.97815569425494</v>
+        <v>-8.166890357199183</v>
       </c>
       <c r="ON3" t="n">
-        <v>-12.97614402413364</v>
+        <v>-8.084812468880502</v>
       </c>
       <c r="OO3" t="n">
-        <v>-12.97419497039491</v>
+        <v>-8.007566060127353</v>
       </c>
       <c r="OP3" t="n">
-        <v>-12.97230760825472</v>
+        <v>-7.935074940965936</v>
       </c>
       <c r="OQ3" t="n">
-        <v>-12.9704810175641</v>
+        <v>-7.867248841030412</v>
       </c>
       <c r="OR3" t="n">
-        <v>-12.96871428295456</v>
+        <v>-7.803428179952266</v>
       </c>
       <c r="OS3" t="n">
-        <v>-12.96700649397875</v>
+        <v>-7.744310578743498</v>
       </c>
       <c r="OT3" t="n">
-        <v>-12.96535674524637</v>
+        <v>-7.689262863129127</v>
       </c>
       <c r="OU3" t="n">
-        <v>-12.96376413655541</v>
+        <v>-7.87915300745328</v>
       </c>
       <c r="OV3" t="n">
-        <v>-12.96222777301887</v>
+        <v>-7.819654341513061</v>
       </c>
       <c r="OW3" t="n">
-        <v>-12.96074676518695</v>
+        <v>-7.764644527581607</v>
       </c>
       <c r="OX3" t="n">
-        <v>-12.95932022916479</v>
+        <v>-7.713442714747091</v>
       </c>
       <c r="OY3" t="n">
-        <v>-12.95794728672595</v>
+        <v>-7.66594101316391</v>
       </c>
       <c r="OZ3" t="n">
-        <v>-12.9566270654215</v>
+        <v>-7.622019641391329</v>
       </c>
       <c r="PA3" t="n">
-        <v>-12.95535869868505</v>
+        <v>-7.581551930421933</v>
       </c>
       <c r="PB3" t="n">
-        <v>-12.95414132593351</v>
+        <v>-7.747393265139411</v>
       </c>
       <c r="PC3" t="n">
-        <v>-12.95297409266387</v>
+        <v>-7.702754773946857</v>
       </c>
       <c r="PD3" t="n">
-        <v>-12.95185615054603</v>
+        <v>-7.829104270039595</v>
       </c>
       <c r="PE3" t="n">
-        <v>-12.95078665751165</v>
+        <v>-7.78173762689331</v>
       </c>
       <c r="PF3" t="n">
-        <v>-12.94976477783915</v>
+        <v>-7.737330872905637</v>
       </c>
       <c r="PG3" t="n">
-        <v>-12.94878968223505</v>
+        <v>-7.898803003154947</v>
       </c>
       <c r="PH3" t="n">
-        <v>-12.94786054791145</v>
+        <v>-7.849434386831123</v>
       </c>
       <c r="PI3" t="n">
-        <v>-12.94697655866001</v>
+        <v>-8.1294502152824</v>
       </c>
       <c r="PJ3" t="n">
-        <v>-12.94613690492227</v>
+        <v>-8.068460068590344</v>
       </c>
       <c r="PK3" t="n">
-        <v>-12.94534078385653</v>
+        <v>-8.01028147712462</v>
       </c>
       <c r="PL3" t="n">
-        <v>-12.94458739940124</v>
+        <v>-8.281520894583169</v>
       </c>
       <c r="PM3" t="n">
-        <v>-12.94387596233511</v>
+        <v>-8.211830798430974</v>
       </c>
       <c r="PN3" t="n">
-        <v>-12.94320569033378</v>
+        <v>-8.471651184667957</v>
       </c>
       <c r="PO3" t="n">
-        <v>-12.94257580802339</v>
+        <v>-8.390682279664796</v>
       </c>
       <c r="PP3" t="n">
-        <v>-12.9419855470309</v>
+        <v>-8.312825233652315</v>
       </c>
       <c r="PQ3" t="n">
-        <v>-12.94143414603128</v>
+        <v>-8.238175910366174</v>
       </c>
       <c r="PR3" t="n">
-        <v>-12.94092085079172</v>
+        <v>-8.493391123703425</v>
       </c>
       <c r="PS3" t="n">
-        <v>-12.94044491421276</v>
+        <v>-8.408166497325251</v>
       </c>
       <c r="PT3" t="n">
-        <v>-12.94000559636659</v>
+        <v>-8.326384110618951</v>
       </c>
       <c r="PU3" t="n">
-        <v>-12.93960216453237</v>
+        <v>-8.5747149119324</v>
       </c>
       <c r="PV3" t="n">
-        <v>-12.93923389322885</v>
+        <v>-8.482862574760047</v>
       </c>
       <c r="PW3" t="n">
-        <v>-12.93890006424414</v>
+        <v>-8.72130923617415</v>
       </c>
       <c r="PX3" t="n">
-        <v>-12.93859996666286</v>
+        <v>-8.619792252578835</v>
       </c>
       <c r="PY3" t="n">
-        <v>-12.93833289689061</v>
+        <v>-8.80418285034547</v>
       </c>
       <c r="PZ3" t="n">
-        <v>-12.93809815867587</v>
+        <v>-8.695858832140171</v>
       </c>
       <c r="QA3" t="n">
-        <v>-12.93789506312939</v>
+        <v>-8.591774691643097</v>
       </c>
       <c r="QB3" t="n">
-        <v>-12.93772292874106</v>
+        <v>-8.774002595441521</v>
       </c>
       <c r="QC3" t="n">
-        <v>-12.93758108139445</v>
+        <v>-8.663894645019456</v>
       </c>
       <c r="QD3" t="n">
-        <v>-12.93746885437891</v>
+        <v>-8.840321219415003</v>
       </c>
       <c r="QE3" t="n">
-        <v>-12.93738558839937</v>
+        <v>-8.724639379651261</v>
       </c>
       <c r="QF3" t="n">
-        <v>-12.93733063158394</v>
+        <v>-8.613778397482502</v>
       </c>
       <c r="QG3" t="n">
-        <v>-12.93730333948924</v>
+        <v>-8.748731903051057</v>
       </c>
       <c r="QH3" t="n">
-        <v>-12.93730307510359</v>
+        <v>-8.63510761163198</v>
       </c>
       <c r="QI3" t="n">
-        <v>-12.93732920884813</v>
+        <v>-8.526570220531882</v>
       </c>
       <c r="QJ3" t="n">
-        <v>-12.93738111857586</v>
+        <v>-8.423182904245335</v>
       </c>
       <c r="QK3" t="n">
-        <v>-12.93745818956863</v>
+        <v>-8.324017670687258</v>
       </c>
       <c r="QL3" t="n">
-        <v>-12.93755981453227</v>
+        <v>-8.231044010287464</v>
       </c>
       <c r="QM3" t="n">
-        <v>-12.93768539358972</v>
+        <v>-8.306436913877924</v>
       </c>
       <c r="QN3" t="n">
-        <v>-12.93783433427234</v>
+        <v>-8.214707629081706</v>
       </c>
       <c r="QO3" t="n">
-        <v>-12.93800605150939</v>
+        <v>-8.330925526794244</v>
       </c>
       <c r="QP3" t="n">
-        <v>-12.93819996761577</v>
+        <v>-8.238371173331382</v>
       </c>
       <c r="QQ3" t="n">
-        <v>-12.93841551227795</v>
+        <v>-8.151547619971977</v>
       </c>
       <c r="QR3" t="n">
-        <v>-12.9386521225383</v>
+        <v>-8.267811030160113</v>
       </c>
       <c r="QS3" t="n">
-        <v>-12.93890924277779</v>
+        <v>-8.179990422004511</v>
       </c>
       <c r="QT3" t="n">
-        <v>-12.939186324697</v>
+        <v>-8.097052374427626</v>
       </c>
       <c r="QU3" t="n">
-        <v>-12.93948282729566</v>
+        <v>-8.259684436666815</v>
       </c>
       <c r="QV3" t="n">
-        <v>-12.93979821685065</v>
+        <v>-8.17368736156501</v>
       </c>
       <c r="QW3" t="n">
-        <v>-12.94013196689257</v>
+        <v>-8.092424550263859</v>
       </c>
       <c r="QX3" t="n">
-        <v>-12.94048355818076</v>
+        <v>-8.183555827105407</v>
       </c>
       <c r="QY3" t="n">
-        <v>-12.94085247867713</v>
+        <v>-8.102484376794457</v>
       </c>
       <c r="QZ3" t="n">
-        <v>-12.94123822351843</v>
+        <v>-8.352183660074449</v>
       </c>
       <c r="RA3" t="n">
-        <v>-12.94164029498736</v>
+        <v>-8.787014539313837</v>
       </c>
       <c r="RB3" t="n">
-        <v>-12.94205820248233</v>
+        <v>-8.675195691274535</v>
       </c>
       <c r="RC3" t="n">
-        <v>-12.94249146248603</v>
+        <v>-8.568050103820534</v>
       </c>
       <c r="RD3" t="n">
-        <v>-12.94293959853279</v>
+        <v>-8.465674993708465</v>
       </c>
       <c r="RE3" t="n">
-        <v>-12.94340214117473</v>
+        <v>-8.5359131478056</v>
       </c>
       <c r="RF3" t="n">
-        <v>-12.94387862794688</v>
+        <v>-8.90847571642635</v>
       </c>
       <c r="RG3" t="n">
-        <v>-12.94436860333113</v>
+        <v>-8.786655573685149</v>
       </c>
       <c r="RH3" t="n">
-        <v>-12.94487161871918</v>
+        <v>-8.872604689193544</v>
       </c>
       <c r="RI3" t="n">
-        <v>-12.94538723237441</v>
+        <v>-8.75065021598216</v>
       </c>
       <c r="RJ3" t="n">
-        <v>-12.94591500939285</v>
+        <v>-8.633985226221045</v>
       </c>
       <c r="RK3" t="n">
-        <v>-12.94645452166312</v>
+        <v>-8.725552062972289</v>
       </c>
       <c r="RL3" t="n">
-        <v>-12.9470053478255</v>
+        <v>-8.609012679231709</v>
       </c>
       <c r="RM3" t="n">
-        <v>-12.94756707323008</v>
+        <v>-8.700824171744717</v>
       </c>
       <c r="RN3" t="n">
-        <v>-12.94813928989409</v>
+        <v>-8.584635295192125</v>
       </c>
       <c r="RO3" t="n">
-        <v>-12.94872159645834</v>
+        <v>-8.47403411227427</v>
       </c>
       <c r="RP3" t="n">
-        <v>-12.949313598143</v>
+        <v>-8.536825015770471</v>
       </c>
       <c r="RQ3" t="n">
-        <v>-12.94991490670245</v>
+        <v>-8.428331085415003</v>
       </c>
       <c r="RR3" t="n">
-        <v>-12.95052514037953</v>
+        <v>-8.651633706970019</v>
       </c>
       <c r="RS3" t="n">
-        <v>-12.95114392385901</v>
+        <v>-8.537507924163155</v>
       </c>
       <c r="RT3" t="n">
-        <v>-12.95177088822042</v>
+        <v>-8.428715766561535</v>
       </c>
       <c r="RU3" t="n">
-        <v>-12.95240567089025</v>
+        <v>-8.651747965992618</v>
       </c>
       <c r="RV3" t="n">
-        <v>-12.95304791559346</v>
+        <v>-8.537081243199987</v>
       </c>
       <c r="RW3" t="n">
-        <v>-12.9536972723045</v>
+        <v>-8.668648250801754</v>
       </c>
       <c r="RX3" t="n">
-        <v>-12.95435339719766</v>
+        <v>-8.55295355653459</v>
       </c>
       <c r="RY3" t="n">
-        <v>-12.95501595259698</v>
+        <v>-8.64099119344703</v>
       </c>
       <c r="RZ3" t="n">
-        <v>-12.95568460692559</v>
+        <v>-8.526016424153392</v>
       </c>
       <c r="SA3" t="n">
-        <v>-12.95635903465454</v>
+        <v>-8.417082032057699</v>
       </c>
       <c r="SB3" t="n">
-        <v>-12.95703891625129</v>
+        <v>-8.516749311781995</v>
       </c>
       <c r="SC3" t="n">
-        <v>-12.95772393812758</v>
+        <v>-8.408320587007955</v>
       </c>
       <c r="SD3" t="n">
-        <v>-12.95841379258707</v>
+        <v>-8.30561777956764</v>
       </c>
       <c r="SE3" t="n">
-        <v>-12.95910817777246</v>
+        <v>-8.208609390843822</v>
       </c>
       <c r="SF3" t="n">
-        <v>-12.95980679761231</v>
+        <v>-8.117237061443477</v>
       </c>
       <c r="SG3" t="n">
-        <v>-12.96050936176749</v>
+        <v>-8.031418565734166</v>
+      </c>
+      <c r="SH3" t="n">
+        <v>-8.191613056557824</v>
+      </c>
+      <c r="SI3" t="n">
+        <v>-8.104196305969554</v>
+      </c>
+      <c r="SJ3" t="n">
+        <v>-8.021741239371899</v>
+      </c>
+      <c r="SK3" t="n">
+        <v>-8.147149007612864</v>
+      </c>
+      <c r="SL3" t="n">
+        <v>-8.064529441426371</v>
+      </c>
+      <c r="SM3" t="n">
+        <v>-7.986600741931307</v>
+      </c>
+      <c r="SN3" t="n">
+        <v>-8.081207386460337</v>
+      </c>
+      <c r="SO3" t="n">
+        <v>-8.53941102200875</v>
+      </c>
+      <c r="SP3" t="n">
+        <v>-8.438905975211989</v>
+      </c>
+      <c r="SQ3" t="n">
+        <v>-8.343173021149656</v>
+      </c>
+      <c r="SR3" t="n">
+        <v>-8.454937064076717</v>
+      </c>
+      <c r="SS3" t="n">
+        <v>-8.358136497659492</v>
+      </c>
+      <c r="ST3" t="n">
+        <v>-8.26616313885037</v>
+      </c>
+      <c r="SU3" t="n">
+        <v>-8.179018841435536</v>
+      </c>
+      <c r="SV3" t="n">
+        <v>-8.096679822838347</v>
+      </c>
+      <c r="SW3" t="n">
+        <v>-8.019099353941645</v>
+      </c>
+      <c r="SX3" t="n">
+        <v>-8.148908023500079</v>
+      </c>
+      <c r="SY3" t="n">
+        <v>-8.070239853102306</v>
+      </c>
+      <c r="SZ3" t="n">
+        <v>-7.995837183899747</v>
+      </c>
+      <c r="TA3" t="n">
+        <v>-8.128628368831079</v>
+      </c>
+      <c r="TB3" t="n">
+        <v>-8.052471305073935</v>
+      </c>
+      <c r="TC3" t="n">
+        <v>-8.183385110032228</v>
+      </c>
+      <c r="TD3" t="n">
+        <v>-8.105529818267421</v>
+      </c>
+      <c r="TE3" t="n">
+        <v>-8.234809260487765</v>
+      </c>
+      <c r="TF3" t="n">
+        <v>-8.689779308955888</v>
+      </c>
+      <c r="TG3" t="n">
+        <v>-8.585571644157085</v>
+      </c>
+      <c r="TH3" t="n">
+        <v>-8.485733473842572</v>
+      </c>
+      <c r="TI3" t="n">
+        <v>-8.557991702788609</v>
+      </c>
+      <c r="TJ3" t="n">
+        <v>-8.458586738059401</v>
+      </c>
+      <c r="TK3" t="n">
+        <v>-8.363754845875205</v>
+      </c>
+      <c r="TL3" t="n">
+        <v>-8.273258427088328</v>
+      </c>
+      <c r="TM3" t="n">
+        <v>-8.187405932350096</v>
+      </c>
+      <c r="TN3" t="n">
+        <v>-8.308883013357811</v>
+      </c>
+      <c r="TO3" t="n">
+        <v>-8.22159362013816</v>
+      </c>
+      <c r="TP3" t="n">
+        <v>-8.138899635402563</v>
+      </c>
+      <c r="TQ3" t="n">
+        <v>-8.263474917495175</v>
+      </c>
+      <c r="TR3" t="n">
+        <v>-8.179213120662816</v>
+      </c>
+      <c r="TS3" t="n">
+        <v>-8.267105048051668</v>
+      </c>
+      <c r="TT3" t="n">
+        <v>-8.183302977024502</v>
+      </c>
+      <c r="TU3" t="n">
+        <v>-8.103684082004275</v>
+      </c>
+      <c r="TV3" t="n">
+        <v>-8.196152534039063</v>
+      </c>
+      <c r="TW3" t="n">
+        <v>-8.116563190112533</v>
+      </c>
+      <c r="TX3" t="n">
+        <v>-8.041352545354847</v>
+      </c>
+      <c r="TY3" t="n">
+        <v>-8.211041397446522</v>
+      </c>
+      <c r="TZ3" t="n">
+        <v>-8.131786924951937</v>
+      </c>
+      <c r="UA3" t="n">
+        <v>-8.056797418808005</v>
+      </c>
+      <c r="UB3" t="n">
+        <v>-8.188739187014315</v>
+      </c>
+      <c r="UC3" t="n">
+        <v>-8.111500870100121</v>
+      </c>
+      <c r="UD3" t="n">
+        <v>-8.038432752613637</v>
+      </c>
+      <c r="UE3" t="n">
+        <v>-7.969502773217116</v>
+      </c>
+      <c r="UF3" t="n">
+        <v>-8.107357990980816</v>
+      </c>
+      <c r="UG3" t="n">
+        <v>-8.57113336641145</v>
+      </c>
+      <c r="UH3" t="n">
+        <v>-8.475475513882801</v>
+      </c>
+      <c r="UI3" t="n">
+        <v>-8.383912140374902</v>
+      </c>
+      <c r="UJ3" t="n">
+        <v>-8.464154050043572</v>
+      </c>
+      <c r="UK3" t="n">
+        <v>-8.372148753895855</v>
+      </c>
+      <c r="UL3" t="n">
+        <v>-8.284417130895065</v>
+      </c>
+      <c r="UM3" t="n">
+        <v>-8.403691773700222</v>
+      </c>
+      <c r="UN3" t="n">
+        <v>-8.313920581621614</v>
+      </c>
+      <c r="UO3" t="n">
+        <v>-8.431204185337531</v>
+      </c>
+      <c r="UP3" t="n">
+        <v>-8.339776063385715</v>
+      </c>
+      <c r="UQ3" t="n">
+        <v>-8.252469302834552</v>
+      </c>
+      <c r="UR3" t="n">
+        <v>-8.372294684633047</v>
+      </c>
+      <c r="US3" t="n">
+        <v>-8.283184613700916</v>
+      </c>
+      <c r="UT3" t="n">
+        <v>-8.401225194520118</v>
+      </c>
+      <c r="UU3" t="n">
+        <v>-8.310356387016689</v>
+      </c>
+      <c r="UV3" t="n">
+        <v>-8.223973234836809</v>
+      </c>
+      <c r="UW3" t="n">
+        <v>-8.34478001851468</v>
+      </c>
+      <c r="UX3" t="n">
+        <v>-8.256698189370917</v>
+      </c>
+      <c r="UY3" t="n">
+        <v>-8.173106024421035</v>
+      </c>
+      <c r="UZ3" t="n">
+        <v>-8.296692693654846</v>
+      </c>
+      <c r="VA3" t="n">
+        <v>-8.211366107909871</v>
+      </c>
+      <c r="VB3" t="n">
+        <v>-8.130492488085357</v>
+      </c>
+      <c r="VC3" t="n">
+        <v>-8.256750347476345</v>
+      </c>
+      <c r="VD3" t="n">
+        <v>-8.174318196140296</v>
+      </c>
+      <c r="VE3" t="n">
+        <v>-8.336998329162265</v>
+      </c>
+      <c r="VF3" t="n">
+        <v>-8.250340076856437</v>
+      </c>
+      <c r="VG3" t="n">
+        <v>-8.168342534141241</v>
+      </c>
+      <c r="VH3" t="n">
+        <v>-8.331445294557009</v>
+      </c>
+      <c r="VI3" t="n">
+        <v>-8.245196659533436</v>
+      </c>
+      <c r="VJ3" t="n">
+        <v>-8.36601264900208</v>
+      </c>
+      <c r="VK3" t="n">
+        <v>-8.278107141340239</v>
+      </c>
+      <c r="VL3" t="n">
+        <v>-8.397432174052286</v>
+      </c>
+      <c r="VM3" t="n">
+        <v>-8.862751241255399</v>
+      </c>
+      <c r="VN3" t="n">
+        <v>-8.74784339163088</v>
+      </c>
+      <c r="VO3" t="n">
+        <v>-8.637800115625501</v>
+      </c>
+      <c r="VP3" t="n">
+        <v>-8.532449572994226</v>
+      </c>
+      <c r="VQ3" t="n">
+        <v>-8.634734170150177</v>
+      </c>
+      <c r="VR3" t="n">
+        <v>-8.528319061860712</v>
+      </c>
+      <c r="VS3" t="n">
+        <v>-8.66754960809374</v>
+      </c>
+      <c r="VT3" t="n">
+        <v>-8.558045372521201</v>
+      </c>
+      <c r="VU3" t="n">
+        <v>-8.453585536245132</v>
+      </c>
+      <c r="VV3" t="n">
+        <v>-8.552184226094225</v>
+      </c>
+      <c r="VW3" t="n">
+        <v>-8.447503096694403</v>
+      </c>
+      <c r="VX3" t="n">
+        <v>-8.550664218377273</v>
+      </c>
+      <c r="VY3" t="n">
+        <v>-8.444172520399563</v>
+      </c>
+      <c r="VZ3" t="n">
+        <v>-8.540579347581255</v>
+      </c>
+      <c r="WA3" t="n">
+        <v>-8.435673978405564</v>
+      </c>
+      <c r="WB3" t="n">
+        <v>-8.336011874911357</v>
+      </c>
+      <c r="WC3" t="n">
+        <v>-8.444327625113702</v>
+      </c>
+      <c r="WD3" t="n">
+        <v>-8.344433624124973</v>
+      </c>
+      <c r="WE3" t="n">
+        <v>-8.490363521615686</v>
+      </c>
+      <c r="WF3" t="n">
+        <v>-8.388206242764468</v>
+      </c>
+      <c r="WG3" t="n">
+        <v>-8.291933210262425</v>
+      </c>
+      <c r="WH3" t="n">
+        <v>-8.40380762127236</v>
+      </c>
+      <c r="WI3" t="n">
+        <v>-8.30716092580046</v>
+      </c>
+      <c r="WJ3" t="n">
+        <v>-8.418623391496705</v>
+      </c>
+      <c r="WK3" t="n">
+        <v>-8.321083654516377</v>
+      </c>
+      <c r="WL3" t="n">
+        <v>-8.228130754609779</v>
+      </c>
+      <c r="WM3" t="n">
+        <v>-8.342912661181831</v>
+      </c>
+      <c r="WN3" t="n">
+        <v>-8.24948070760737</v>
+      </c>
+      <c r="WO3" t="n">
+        <v>-8.363718959557294</v>
+      </c>
+      <c r="WP3" t="n">
+        <v>-8.270609247625217</v>
+      </c>
+      <c r="WQ3" t="n">
+        <v>-8.385442928209173</v>
+      </c>
+      <c r="WR3" t="n">
+        <v>-8.29153311008459</v>
+      </c>
+      <c r="WS3" t="n">
+        <v>-8.201627690364292</v>
+      </c>
+      <c r="WT3" t="n">
+        <v>-8.319291909738322</v>
+      </c>
+      <c r="WU3" t="n">
+        <v>-8.22950296287056</v>
+      </c>
+      <c r="WV3" t="n">
+        <v>-8.347538684796746</v>
+      </c>
+      <c r="WW3" t="n">
+        <v>-8.256713728047202</v>
+      </c>
+      <c r="WX3" t="n">
+        <v>-8.170689439789275</v>
+      </c>
+      <c r="WY3" t="n">
+        <v>-8.292423199470562</v>
+      </c>
+      <c r="WZ3" t="n">
+        <v>-8.205211201113777</v>
+      </c>
+      <c r="XA3" t="n">
+        <v>-8.363615450502998</v>
+      </c>
+      <c r="XB3" t="n">
+        <v>-8.27311213647395</v>
+      </c>
+      <c r="XC3" t="n">
+        <v>-8.513893515472764</v>
+      </c>
+      <c r="XD3" t="n">
+        <v>-8.415558517471071</v>
+      </c>
+      <c r="XE3" t="n">
+        <v>-8.557778976984626</v>
+      </c>
+      <c r="XF3" t="n">
+        <v>-8.998793865049924</v>
+      </c>
+      <c r="XG3" t="n">
+        <v>-8.874013040944726</v>
+      </c>
+      <c r="XH3" t="n">
+        <v>-8.995144025409601</v>
+      </c>
+      <c r="XI3" t="n">
+        <v>-8.86717963989247</v>
+      </c>
+      <c r="XJ3" t="n">
+        <v>-8.744821157834831</v>
+      </c>
+      <c r="XK3" t="n">
+        <v>-8.868742304230492</v>
+      </c>
+      <c r="XL3" t="n">
+        <v>-8.743316508466835</v>
+      </c>
+      <c r="XM3" t="n">
+        <v>-8.623523884231727</v>
+      </c>
+      <c r="XN3" t="n">
+        <v>-8.508801855943048</v>
+      </c>
+      <c r="XO3" t="n">
+        <v>-8.635144604396906</v>
+      </c>
+      <c r="XP3" t="n">
+        <v>-8.520504232336194</v>
+      </c>
+      <c r="XQ3" t="n">
+        <v>-8.411689145998828</v>
+      </c>
+      <c r="XR3" t="n">
+        <v>-8.590189683961908</v>
+      </c>
+      <c r="XS3" t="n">
+        <v>-9.496487904630976</v>
+      </c>
+      <c r="XT3" t="n">
+        <v>-9.336482423992903</v>
+      </c>
+      <c r="XU3" t="n">
+        <v>-9.423092023071741</v>
+      </c>
+      <c r="XV3" t="n">
+        <v>-9.263283089272209</v>
+      </c>
+      <c r="XW3" t="n">
+        <v>-9.485081618214499</v>
+      </c>
+      <c r="XX3" t="n">
+        <v>-9.990422521199147</v>
+      </c>
+      <c r="XY3" t="n">
+        <v>-9.795524436463531</v>
+      </c>
+      <c r="XZ3" t="n">
+        <v>-9.848637916851185</v>
+      </c>
+      <c r="YA3" t="n">
+        <v>-9.679254763351084</v>
+      </c>
+      <c r="YB3" t="n">
+        <v>-9.516289904597718</v>
+      </c>
+      <c r="YC3" t="n">
+        <v>-9.361006150771111</v>
+      </c>
+      <c r="YD3" t="n">
+        <v>-9.61865066635564</v>
+      </c>
+      <c r="YE3" t="n">
+        <v>-9.475099881767807</v>
+      </c>
+      <c r="YF3" t="n">
+        <v>-9.697434200843741</v>
+      </c>
+      <c r="YG3" t="n">
+        <v>-9.546241142053915</v>
+      </c>
+      <c r="YH3" t="n">
+        <v>-9.401452281708615</v>
+      </c>
+      <c r="YI3" t="n">
+        <v>-9.574524236441665</v>
+      </c>
+      <c r="YJ3" t="n">
+        <v>-9.428487261081493</v>
+      </c>
+      <c r="YK3" t="n">
+        <v>-9.704721651291631</v>
+      </c>
+      <c r="YL3" t="n">
+        <v>-9.782720398370312</v>
+      </c>
+      <c r="YM3" t="n">
+        <v>-10.44884004537895</v>
+      </c>
+      <c r="YN3" t="n">
+        <v>-10.48653076288339</v>
+      </c>
+      <c r="YO3" t="n">
+        <v>-11.20324783808162</v>
+      </c>
+      <c r="YP3" t="n">
+        <v>-11.19682273975437</v>
+      </c>
+      <c r="YQ3" t="n">
+        <v>-11.62769043153565</v>
+      </c>
+      <c r="YR3" t="n">
+        <v>-11.58897931569954</v>
+      </c>
+      <c r="YS3" t="n">
+        <v>-12.06324170507011</v>
+      </c>
+      <c r="YT3" t="n">
+        <v>-12.28531259193327</v>
+      </c>
+      <c r="YU3" t="n">
+        <v>-13.25687328484237</v>
+      </c>
+      <c r="YV3" t="n">
+        <v>-13.58296038238751</v>
+      </c>
+      <c r="YW3" t="n">
+        <v>-14.882567375143</v>
+      </c>
+      <c r="YX3" t="n">
+        <v>-15.15850763474581</v>
+      </c>
+      <c r="YY3" t="n">
+        <v>-16.11076339614605</v>
+      </c>
+      <c r="YZ3" t="n">
+        <v>-16.35844870662852</v>
+      </c>
+      <c r="ZA3" t="n">
+        <v>-17.47299495453904</v>
+      </c>
+      <c r="ZB3" t="n">
+        <v>-17.6213911890557</v>
+      </c>
+      <c r="ZC3" t="n">
+        <v>-18.69031302194851</v>
+      </c>
+      <c r="ZD3" t="n">
+        <v>-18.74505709182324</v>
+      </c>
+      <c r="ZE3" t="n">
+        <v>-19.67798836851926</v>
+      </c>
+      <c r="ZF3" t="n">
+        <v>-19.6787231011367</v>
+      </c>
+      <c r="ZG3" t="n">
+        <v>-20.45038499880806</v>
+      </c>
+      <c r="ZH3" t="n">
+        <v>-20.44588012741075</v>
+      </c>
+      <c r="ZI3" t="n">
+        <v>-21.27963568739197</v>
+      </c>
+      <c r="ZJ3" t="n">
+        <v>-21.52154272088625</v>
+      </c>
+      <c r="ZK3" t="n">
+        <v>-22.73447448650685</v>
+      </c>
+      <c r="ZL3" t="n">
+        <v>-28.65044130095364</v>
+      </c>
+      <c r="ZM3" t="n">
+        <v>-28.52522719523081</v>
+      </c>
+      <c r="ZN3" t="n">
+        <v>-29.49659925453032</v>
+      </c>
+      <c r="ZO3" t="n">
+        <v>-29.35137970087514</v>
+      </c>
+      <c r="ZP3" t="n">
+        <v>-29.18279285317258</v>
+      </c>
+      <c r="ZQ3" t="n">
+        <v>-30.46394823943014</v>
+      </c>
+      <c r="ZR3" t="n">
+        <v>-33.48738237197237</v>
+      </c>
+      <c r="ZS3" t="n">
+        <v>-33.0141008010383</v>
+      </c>
+      <c r="ZT3" t="n">
+        <v>-33.76840736414744</v>
+      </c>
+      <c r="ZU3" t="n">
+        <v>-33.21202537724756</v>
+      </c>
+      <c r="ZV3" t="n">
+        <v>-33.88993760821553</v>
+      </c>
+      <c r="ZW3" t="n">
+        <v>-33.45617661220321</v>
+      </c>
+      <c r="ZX3" t="n">
+        <v>-33.02660649159448</v>
+      </c>
+      <c r="ZY3" t="n">
+        <v>-33.88080794669742</v>
+      </c>
+      <c r="ZZ3" t="n">
+        <v>-36.00660838636057</v>
+      </c>
+      <c r="AAA3" t="n">
+        <v>-35.37133960919915</v>
+      </c>
+      <c r="AAB3" t="n">
+        <v>-36.29088325956862</v>
+      </c>
+      <c r="AAC3" t="n">
+        <v>-35.58424192150999</v>
+      </c>
+      <c r="AAD3" t="n">
+        <v>-36.43880709645001</v>
+      </c>
+      <c r="AAE3" t="n">
+        <v>-35.67736609183979</v>
+      </c>
+      <c r="AAF3" t="n">
+        <v>-36.48232862213671</v>
+      </c>
+      <c r="AAG3" t="n">
+        <v>-41.17244667295645</v>
+      </c>
+      <c r="AAH3" t="n">
+        <v>-40.32272213054947</v>
+      </c>
+      <c r="AAI3" t="n">
+        <v>-41.11411052372735</v>
+      </c>
+      <c r="AAJ3" t="n">
+        <v>-40.0847169376237</v>
+      </c>
+      <c r="AAK3" t="n">
+        <v>-40.52407413480277</v>
+      </c>
+      <c r="AAL3" t="n">
+        <v>-39.46806281327854</v>
+      </c>
+      <c r="AAM3" t="n">
+        <v>-39.87526784144198</v>
+      </c>
+      <c r="AAN3" t="n">
+        <v>-43.19187015751827</v>
+      </c>
+      <c r="AAO3" t="n">
+        <v>-41.9255717967108</v>
+      </c>
+      <c r="AAP3" t="n">
+        <v>-42.13136391528382</v>
+      </c>
+      <c r="AAQ3" t="n">
+        <v>-40.99052586273913</v>
+      </c>
+      <c r="AAR3" t="n">
+        <v>-40.70686099047217</v>
+      </c>
+      <c r="AAS3" t="n">
+        <v>-42.48491531545825</v>
+      </c>
+      <c r="AAT3" t="n">
+        <v>-41.38993384319847</v>
+      </c>
+      <c r="AAU3" t="n">
+        <v>-41.53112881738078</v>
+      </c>
+      <c r="AAV3" t="n">
+        <v>-40.45550697382403</v>
+      </c>
+      <c r="AAW3" t="n">
+        <v>-40.60064061396307</v>
+      </c>
+      <c r="AAX3" t="n">
+        <v>-39.54487036679527</v>
+      </c>
+      <c r="AAY3" t="n">
+        <v>-39.71271491171637</v>
+      </c>
+      <c r="AAZ3" t="n">
+        <v>-42.81238608110155</v>
+      </c>
+      <c r="ABA3" t="n">
+        <v>-41.61282121868342</v>
+      </c>
+      <c r="ABB3" t="n">
+        <v>-41.65213430892476</v>
+      </c>
+      <c r="ABC3" t="n">
+        <v>-40.48628823328604</v>
+      </c>
+      <c r="ABD3" t="n">
+        <v>-40.85697231445469</v>
+      </c>
+      <c r="ABE3" t="n">
+        <v>-39.70930438971001</v>
+      </c>
+      <c r="ABF3" t="n">
+        <v>-39.79472835307846</v>
+      </c>
+      <c r="ABG3" t="n">
+        <v>-40.94086805046619</v>
+      </c>
+      <c r="ABH3" t="n">
+        <v>-39.77238514831352</v>
+      </c>
+      <c r="ABI3" t="n">
+        <v>-38.6541399619952</v>
+      </c>
+      <c r="ABJ3" t="n">
+        <v>-39.07577815682276</v>
+      </c>
+      <c r="ABK3" t="n">
+        <v>-37.98775701946591</v>
+      </c>
+      <c r="ABL3" t="n">
+        <v>-38.44010794665277</v>
+      </c>
+      <c r="ABM3" t="n">
+        <v>-39.2171417979027</v>
+      </c>
+      <c r="ABN3" t="n">
+        <v>-38.11828642482144</v>
+      </c>
+      <c r="ABO3" t="n">
+        <v>-38.56019895837611</v>
+      </c>
+      <c r="ABP3" t="n">
+        <v>-37.49314135040177</v>
+      </c>
+      <c r="ABQ3" t="n">
+        <v>-37.67267471090032</v>
+      </c>
+      <c r="ABR3" t="n">
+        <v>-36.65294780656113</v>
+      </c>
+      <c r="ABS3" t="n">
+        <v>-36.8697827761752</v>
+      </c>
+      <c r="ABT3" t="n">
+        <v>-35.89706797544575</v>
+      </c>
+      <c r="ABU3" t="n">
+        <v>-36.16991865127493</v>
+      </c>
+      <c r="ABV3" t="n">
+        <v>-36.4187240564493</v>
+      </c>
+      <c r="ABW3" t="n">
+        <v>-35.48202592537015</v>
+      </c>
+      <c r="ABX3" t="n">
+        <v>-34.59798775313351</v>
+      </c>
+      <c r="ABY3" t="n">
+        <v>-34.95749110701527</v>
+      </c>
+      <c r="ABZ3" t="n">
+        <v>-35.59428925150491</v>
+      </c>
+      <c r="ACA3" t="n">
+        <v>-34.72349519041457</v>
+      </c>
+      <c r="ACB3" t="n">
+        <v>-35.38854719807336</v>
+      </c>
+      <c r="ACC3" t="n">
+        <v>-34.53902354517454</v>
+      </c>
+      <c r="ACD3" t="n">
+        <v>-33.73840950439359</v>
+      </c>
+      <c r="ACE3" t="n">
+        <v>-34.48228347214727</v>
+      </c>
+      <c r="ACF3" t="n">
+        <v>-33.69855449722363</v>
+      </c>
+      <c r="ACG3" t="n">
+        <v>-34.45783451941926</v>
+      </c>
+      <c r="ACH3" t="n">
+        <v>-35.16834730284499</v>
+      </c>
+      <c r="ACI3" t="n">
+        <v>-34.36613886260316</v>
+      </c>
+      <c r="ACJ3" t="n">
+        <v>-34.53638171202753</v>
+      </c>
+      <c r="ACK3" t="n">
+        <v>-33.77427006835493</v>
+      </c>
+      <c r="ACL3" t="n">
+        <v>-34.55218082267605</v>
+      </c>
+      <c r="ACM3" t="n">
+        <v>-33.79903981337903</v>
+      </c>
+      <c r="ACN3" t="n">
+        <v>-34.57438990058113</v>
+      </c>
+      <c r="ACO3" t="n">
+        <v>-33.82954097814832</v>
+      </c>
+      <c r="ACP3" t="n">
+        <v>-34.61265093476731</v>
+      </c>
+      <c r="ACQ3" t="n">
+        <v>-35.70752913545903</v>
+      </c>
+      <c r="ACR3" t="n">
+        <v>-34.91245652719483</v>
+      </c>
+      <c r="ACS3" t="n">
+        <v>-34.15883827365406</v>
+      </c>
+      <c r="ACT3" t="n">
+        <v>-34.93186258699244</v>
+      </c>
+      <c r="ACU3" t="n">
+        <v>-34.18227289133826</v>
+      </c>
+      <c r="ACV3" t="n">
+        <v>-34.66462335249247</v>
+      </c>
+      <c r="ACW3" t="n">
+        <v>-35.12684541285081</v>
+      </c>
+      <c r="ACX3" t="n">
+        <v>-34.37316958596906</v>
+      </c>
+      <c r="ACY3" t="n">
+        <v>-33.6596493140096</v>
+      </c>
+      <c r="ACZ3" t="n">
+        <v>-34.47139140076619</v>
+      </c>
+      <c r="ADA3" t="n">
+        <v>-33.76179521416416</v>
+      </c>
+      <c r="ADB3" t="n">
+        <v>-34.27383909206622</v>
+      </c>
+      <c r="ADC3" t="n">
+        <v>-35.06062364801443</v>
+      </c>
+      <c r="ADD3" t="n">
+        <v>-34.32652889456801</v>
+      </c>
+      <c r="ADE3" t="n">
+        <v>-34.81318587722998</v>
+      </c>
+      <c r="ADF3" t="n">
+        <v>-35.9290772167199</v>
+      </c>
+      <c r="ADG3" t="n">
+        <v>-38.51399155353818</v>
+      </c>
+      <c r="ADH3" t="n">
+        <v>-37.59794268441317</v>
+      </c>
+      <c r="ADI3" t="n">
+        <v>-37.90359452020283</v>
+      </c>
+      <c r="ADJ3" t="n">
+        <v>-37.0038137756381</v>
+      </c>
+      <c r="ADK3" t="n">
+        <v>-37.32676178536875</v>
+      </c>
+      <c r="ADL3" t="n">
+        <v>-38.28121972783441</v>
+      </c>
+      <c r="ADM3" t="n">
+        <v>-37.34676054078419</v>
+      </c>
+      <c r="ADN3" t="n">
+        <v>-36.45479733166804</v>
+      </c>
+      <c r="ADO3" t="n">
+        <v>-37.0924168900538</v>
+      </c>
+      <c r="ADP3" t="n">
+        <v>-38.96317051187235</v>
+      </c>
+      <c r="ADQ3" t="n">
+        <v>-37.84684257309961</v>
+      </c>
+      <c r="ADR3" t="n">
+        <v>-38.09775960041505</v>
+      </c>
+      <c r="ADS3" t="n">
+        <v>-37.01433219526135</v>
+      </c>
+      <c r="ADT3" t="n">
+        <v>-37.61123469914618</v>
+      </c>
+      <c r="ADU3" t="n">
+        <v>-36.42348145322868</v>
+      </c>
+      <c r="ADV3" t="n">
+        <v>-37.03626267593553</v>
+      </c>
+      <c r="ADW3" t="n">
+        <v>-38.88820701607965</v>
+      </c>
+      <c r="ADX3" t="n">
+        <v>-37.62238306156913</v>
+      </c>
+      <c r="ADY3" t="n">
+        <v>-37.5926828252704</v>
+      </c>
+      <c r="ADZ3" t="n">
+        <v>-36.41345181378756</v>
+      </c>
+      <c r="AEA3" t="n">
+        <v>-37.05047373384139</v>
+      </c>
+      <c r="AEB3" t="n">
+        <v>-35.90089101048663</v>
+      </c>
+      <c r="AEC3" t="n">
+        <v>-36.56161161787812</v>
+      </c>
+      <c r="AED3" t="n">
+        <v>-38.47290421812581</v>
+      </c>
+      <c r="AEE3" t="n">
+        <v>-37.13374870972409</v>
+      </c>
+      <c r="AEF3" t="n">
+        <v>-36.9203026110774</v>
+      </c>
+      <c r="AEG3" t="n">
+        <v>-35.65230619459216</v>
+      </c>
+      <c r="AEH3" t="n">
+        <v>-35.50722487636153</v>
+      </c>
+      <c r="AEI3" t="n">
+        <v>-38.08242301725113</v>
+      </c>
+      <c r="AEJ3" t="n">
+        <v>-36.75529594329711</v>
+      </c>
+      <c r="AEK3" t="n">
+        <v>-35.49273166852637</v>
+      </c>
+      <c r="AEL3" t="n">
+        <v>-35.85175263487317</v>
+      </c>
+      <c r="AEM3" t="n">
+        <v>-38.4069756440929</v>
+      </c>
+      <c r="AEN3" t="n">
+        <v>-36.96015633727877</v>
+      </c>
+      <c r="AEO3" t="n">
+        <v>-37.23911054737793</v>
+      </c>
+      <c r="AEP3" t="n">
+        <v>-35.75463981810793</v>
+      </c>
+      <c r="AEQ3" t="n">
+        <v>-34.34699107763183</v>
+      </c>
+      <c r="AER3" t="n">
+        <v>-33.00976970530509</v>
+      </c>
+      <c r="AES3" t="n">
+        <v>-32.78840554940506</v>
+      </c>
+      <c r="AET3" t="n">
+        <v>-31.54632886494669</v>
+      </c>
+      <c r="AEU3" t="n">
+        <v>-31.62417356877579</v>
+      </c>
+      <c r="AEV3" t="n">
+        <v>-30.3876999907435</v>
+      </c>
+      <c r="AEW3" t="n">
+        <v>-30.17318098274252</v>
+      </c>
+      <c r="AEX3" t="n">
+        <v>-28.95351152294215</v>
+      </c>
+      <c r="AEY3" t="n">
+        <v>-28.83832303932163</v>
+      </c>
+      <c r="AEZ3" t="n">
+        <v>-27.71883663795523</v>
+      </c>
+      <c r="AFA3" t="n">
+        <v>-26.67324308343456</v>
+      </c>
+      <c r="AFB3" t="n">
+        <v>-26.90853639340762</v>
+      </c>
+      <c r="AFC3" t="n">
+        <v>-25.94519282205679</v>
+      </c>
+      <c r="AFD3" t="n">
+        <v>-26.07321575688406</v>
+      </c>
+      <c r="AFE3" t="n">
+        <v>-25.18354507005163</v>
+      </c>
+      <c r="AFF3" t="n">
+        <v>-24.35786059628322</v>
+      </c>
+      <c r="AFG3" t="n">
+        <v>-24.45903750913256</v>
+      </c>
+      <c r="AFH3" t="n">
+        <v>-27.20836771405526</v>
+      </c>
+      <c r="AFI3" t="n">
+        <v>-26.33639883354254</v>
+      </c>
+      <c r="AFJ3" t="n">
+        <v>-26.70972025970787</v>
+      </c>
+      <c r="AFK3" t="n">
+        <v>-25.80448756244063</v>
+      </c>
+      <c r="AFL3" t="n">
+        <v>-25.8941050756671</v>
+      </c>
+      <c r="AFM3" t="n">
+        <v>-25.05035732283125</v>
+      </c>
+      <c r="AFN3" t="n">
+        <v>-25.35143183270888</v>
+      </c>
+      <c r="AFO3" t="n">
+        <v>-27.18256581706915</v>
+      </c>
+      <c r="AFP3" t="n">
+        <v>-26.30740726721935</v>
+      </c>
+      <c r="AFQ3" t="n">
+        <v>-26.13514416415124</v>
+      </c>
+      <c r="AFR3" t="n">
+        <v>-27.92684193699495</v>
+      </c>
+      <c r="AFS3" t="n">
+        <v>-27.02665578697946</v>
+      </c>
+      <c r="AFT3" t="n">
+        <v>-26.17470201197818</v>
+      </c>
+      <c r="AFU3" t="n">
+        <v>-26.46607084376815</v>
+      </c>
+      <c r="AFV3" t="n">
+        <v>-26.01829350000093</v>
+      </c>
+      <c r="AFW3" t="n">
+        <v>-25.60018444595487</v>
+      </c>
+      <c r="AFX3" t="n">
+        <v>-25.13991924425252</v>
+      </c>
+      <c r="AFY3" t="n">
+        <v>-25.82210434595639</v>
+      </c>
+      <c r="AFZ3" t="n">
+        <v>-25.63813873220796</v>
+      </c>
+      <c r="AGA3" t="n">
+        <v>-26.38955726231762</v>
+      </c>
+      <c r="AGB3" t="n">
+        <v>-26.18894885292947</v>
+      </c>
+      <c r="AGC3" t="n">
+        <v>-27.08514689974783</v>
+      </c>
+      <c r="AGD3" t="n">
+        <v>-26.88479805909663</v>
+      </c>
+      <c r="AGE3" t="n">
+        <v>-27.62163277828016</v>
+      </c>
+      <c r="AGF3" t="n">
+        <v>-32.49360253332576</v>
+      </c>
+      <c r="AGG3" t="n">
+        <v>-31.93350582388776</v>
+      </c>
+      <c r="AGH3" t="n">
+        <v>-33.41653204313524</v>
+      </c>
+      <c r="AGI3" t="n">
+        <v>-38.05731718179017</v>
+      </c>
+      <c r="AGJ3" t="n">
+        <v>-45.71028277527319</v>
+      </c>
+      <c r="AGK3" t="n">
+        <v>-44.30192668013011</v>
+      </c>
+      <c r="AGL3" t="n">
+        <v>-42.92591368427721</v>
+      </c>
+      <c r="AGM3" t="n">
+        <v>-42.51713725560941</v>
+      </c>
+      <c r="AGN3" t="n">
+        <v>-41.17150418547892</v>
+      </c>
+      <c r="AGO3" t="n">
+        <v>-41.11236434145664</v>
+      </c>
+      <c r="AGP3" t="n">
+        <v>-39.78704414838891</v>
+      </c>
+      <c r="AGQ3" t="n">
+        <v>-39.93642565852971</v>
+      </c>
+      <c r="AGR3" t="n">
+        <v>-38.63171343245514</v>
+      </c>
+      <c r="AGS3" t="n">
+        <v>-37.37880201942032</v>
+      </c>
+      <c r="AGT3" t="n">
+        <v>-36.1799846499655</v>
+      </c>
+      <c r="AGU3" t="n">
+        <v>-35.69687308394536</v>
+      </c>
+      <c r="AGV3" t="n">
+        <v>-34.50006241449974</v>
+      </c>
+      <c r="AGW3" t="n">
+        <v>-34.22191656778722</v>
+      </c>
+      <c r="AGX3" t="n">
+        <v>-33.09800098765105</v>
+      </c>
+      <c r="AGY3" t="n">
+        <v>-32.54658017127593</v>
+      </c>
+      <c r="AGZ3" t="n">
+        <v>-33.01639937858226</v>
+      </c>
+      <c r="AHA3" t="n">
+        <v>-31.96177314545041</v>
+      </c>
+      <c r="AHB3" t="n">
+        <v>-31.58644824324973</v>
+      </c>
+      <c r="AHC3" t="n">
+        <v>-30.6157668955663</v>
+      </c>
+      <c r="AHD3" t="n">
+        <v>-30.32347622604523</v>
+      </c>
+      <c r="AHE3" t="n">
+        <v>-29.43298856091414</v>
+      </c>
+      <c r="AHF3" t="n">
+        <v>-29.11096198226245</v>
+      </c>
+      <c r="AHG3" t="n">
+        <v>-28.30253641614287</v>
+      </c>
+      <c r="AHH3" t="n">
+        <v>-27.54694900268366</v>
+      </c>
+      <c r="AHI3" t="n">
+        <v>-27.35624427031312</v>
+      </c>
+      <c r="AHJ3" t="n">
+        <v>-26.67527115715535</v>
+      </c>
+      <c r="AHK3" t="n">
+        <v>-26.45586458090622</v>
+      </c>
+      <c r="AHL3" t="n">
+        <v>-25.84896025626741</v>
+      </c>
+      <c r="AHM3" t="n">
+        <v>-25.28766657794628</v>
+      </c>
+      <c r="AHN3" t="n">
+        <v>-25.28372706352005</v>
+      </c>
+      <c r="AHO3" t="n">
+        <v>-24.78177620823226</v>
+      </c>
+      <c r="AHP3" t="n">
+        <v>-24.3205625356167</v>
+      </c>
+      <c r="AHQ3" t="n">
+        <v>-24.41177283264842</v>
+      </c>
+      <c r="AHR3" t="n">
+        <v>-24.0000324177453</v>
+      </c>
+      <c r="AHS3" t="n">
+        <v>-23.62412436683663</v>
+      </c>
+      <c r="AHT3" t="n">
+        <v>-23.28244543823985</v>
+      </c>
+      <c r="AHU3" t="n">
+        <v>-22.97338855652686</v>
+      </c>
+      <c r="AHV3" t="n">
+        <v>-23.10823365859619</v>
+      </c>
+      <c r="AHW3" t="n">
+        <v>-22.90859903511419</v>
+      </c>
+      <c r="AHX3" t="n">
+        <v>-22.66219876906139</v>
+      </c>
+      <c r="AHY3" t="n">
+        <v>-22.4421416504085</v>
+      </c>
+      <c r="AHZ3" t="n">
+        <v>-22.86358707524118</v>
+      </c>
+      <c r="AIA3" t="n">
+        <v>-22.65840200367402</v>
+      </c>
+      <c r="AIB3" t="n">
+        <v>-22.47636583386175</v>
+      </c>
+      <c r="AIC3" t="n">
+        <v>-22.31521369266272</v>
+      </c>
+      <c r="AID3" t="n">
+        <v>-22.17370582121426</v>
+      </c>
+      <c r="AIE3" t="n">
+        <v>-22.45898832257562</v>
+      </c>
+      <c r="AIF3" t="n">
+        <v>-22.33164910005717</v>
+      </c>
+      <c r="AIG3" t="n">
+        <v>-22.21954183271388</v>
+      </c>
+      <c r="AIH3" t="n">
+        <v>-22.12357055202772</v>
+      </c>
+      <c r="AII3" t="n">
+        <v>-22.04173334092806</v>
+      </c>
+      <c r="AIJ3" t="n">
+        <v>-21.97304763970234</v>
+      </c>
+      <c r="AIK3" t="n">
+        <v>-21.91655986364744</v>
+      </c>
+      <c r="AIL3" t="n">
+        <v>-22.3799907759432</v>
+      </c>
+      <c r="AIM3" t="n">
+        <v>-22.31840101597987</v>
+      </c>
+      <c r="AIN3" t="n">
+        <v>-22.7751224604196</v>
+      </c>
+      <c r="AIO3" t="n">
+        <v>-22.70541191126943</v>
+      </c>
+      <c r="AIP3" t="n">
+        <v>-22.64414197768916</v>
+      </c>
+      <c r="AIQ3" t="n">
+        <v>-23.20742603107763</v>
+      </c>
+      <c r="AIR3" t="n">
+        <v>-23.12903805629161</v>
+      </c>
+      <c r="AIS3" t="n">
+        <v>-23.46609143775883</v>
+      </c>
+      <c r="AIT3" t="n">
+        <v>-23.38003650218594</v>
+      </c>
+      <c r="AIU3" t="n">
+        <v>-23.91713643509473</v>
+      </c>
+      <c r="AIV3" t="n">
+        <v>-23.81144317911605</v>
+      </c>
+      <c r="AIW3" t="n">
+        <v>-23.71196080269796</v>
+      </c>
+      <c r="AIX3" t="n">
+        <v>-24.02695769996179</v>
+      </c>
+      <c r="AIY3" t="n">
+        <v>-23.9180966832674</v>
+      </c>
+      <c r="AIZ3" t="n">
+        <v>-24.32384456892239</v>
+      </c>
+      <c r="AJA3" t="n">
+        <v>-24.20009716023694</v>
+      </c>
+      <c r="AJB3" t="n">
+        <v>-24.08231829124553</v>
+      </c>
+      <c r="AJC3" t="n">
+        <v>-24.58716644503552</v>
+      </c>
+      <c r="AJD3" t="n">
+        <v>-24.44891634486299</v>
+      </c>
+      <c r="AJE3" t="n">
+        <v>-24.31677416221653</v>
+      </c>
+      <c r="AJF3" t="n">
+        <v>-24.69946858777874</v>
+      </c>
+      <c r="AJG3" t="n">
+        <v>-24.55299414696804</v>
+      </c>
+      <c r="AJH3" t="n">
+        <v>-24.92154504566102</v>
+      </c>
+      <c r="AJI3" t="n">
+        <v>-24.76117147150926</v>
+      </c>
+      <c r="AJJ3" t="n">
+        <v>-24.60747319093857</v>
+      </c>
+      <c r="AJK3" t="n">
+        <v>-24.46059250131511</v>
+      </c>
+      <c r="AJL3" t="n">
+        <v>-24.32062153438575</v>
+      </c>
+      <c r="AJM3" t="n">
+        <v>-24.69625003450837</v>
+      </c>
+      <c r="AJN3" t="n">
+        <v>-24.54343345614433</v>
+      </c>
+      <c r="AJO3" t="n">
+        <v>-24.39768378237992</v>
+      </c>
+      <c r="AJP3" t="n">
+        <v>-24.87569704008001</v>
+      </c>
+      <c r="AJQ3" t="n">
+        <v>-24.71177575401064</v>
+      </c>
+      <c r="AJR3" t="n">
+        <v>-24.55514498292587</v>
+      </c>
+      <c r="AJS3" t="n">
+        <v>-25.02253573266832</v>
+      </c>
+      <c r="AJT3" t="n">
+        <v>-24.84828064507292</v>
+      </c>
+      <c r="AJU3" t="n">
+        <v>-25.19027360726304</v>
+      </c>
+      <c r="AJV3" t="n">
+        <v>-25.00458246570707</v>
+      </c>
+      <c r="AJW3" t="n">
+        <v>-24.82681634198548</v>
+      </c>
+      <c r="AJX3" t="n">
+        <v>-25.27375416184196</v>
+      </c>
+      <c r="AJY3" t="n">
+        <v>-25.07976809682838</v>
+      </c>
+      <c r="AJZ3" t="n">
+        <v>-25.40278380455922</v>
+      </c>
+      <c r="AKA3" t="n">
+        <v>-27.94973373716917</v>
+      </c>
+      <c r="AKB3" t="n">
+        <v>-27.6098243782606</v>
+      </c>
+      <c r="AKC3" t="n">
+        <v>-27.78817959688431</v>
+      </c>
+      <c r="AKD3" t="n">
+        <v>-29.35939385709829</v>
+      </c>
+      <c r="AKE3" t="n">
+        <v>-28.92301278479496</v>
+      </c>
+      <c r="AKF3" t="n">
+        <v>-29.00762565002125</v>
+      </c>
+      <c r="AKG3" t="n">
+        <v>-28.57018204181892</v>
+      </c>
+      <c r="AKH3" t="n">
+        <v>-28.55542033917379</v>
+      </c>
+      <c r="AKI3" t="n">
+        <v>-28.12592077015404</v>
+      </c>
+      <c r="AKJ3" t="n">
+        <v>-27.71228448345291</v>
+      </c>
+      <c r="AKK3" t="n">
+        <v>-27.72347002169818</v>
+      </c>
+      <c r="AKL3" t="n">
+        <v>-27.32170679917223</v>
+      </c>
+      <c r="AKM3" t="n">
+        <v>-26.93727081445664</v>
+      </c>
+      <c r="AKN3" t="n">
+        <v>-27.18708968797867</v>
+      </c>
+      <c r="AKO3" t="n">
+        <v>-26.80561907479472</v>
+      </c>
+      <c r="AKP3" t="n">
+        <v>-26.44216574253216</v>
+      </c>
+      <c r="AKQ3" t="n">
+        <v>-26.60548614838057</v>
+      </c>
+      <c r="AKR3" t="n">
+        <v>-26.25153689365225</v>
+      </c>
+      <c r="AKS3" t="n">
+        <v>-26.42441534060037</v>
+      </c>
+      <c r="AKT3" t="n">
+        <v>-26.0800223180266</v>
+      </c>
+      <c r="AKU3" t="n">
+        <v>-25.75376175870607</v>
+      </c>
+      <c r="AKV3" t="n">
+        <v>-25.95418257826366</v>
+      </c>
+      <c r="AKW3" t="n">
+        <v>-25.63705508419613</v>
+      </c>
+      <c r="AKX3" t="n">
+        <v>-25.33766720346677</v>
+      </c>
+      <c r="AKY3" t="n">
+        <v>-25.46418765292402</v>
+      </c>
+      <c r="AKZ3" t="n">
+        <v>-25.17812930334423</v>
+      </c>
+      <c r="ALA3" t="n">
+        <v>-24.90912133788556</v>
+      </c>
+      <c r="ALB3" t="n">
+        <v>-25.0652413056991</v>
+      </c>
+      <c r="ALC3" t="n">
+        <v>-24.80792414260965</v>
+      </c>
+      <c r="ALD3" t="n">
+        <v>-25.07537666219215</v>
+      </c>
+      <c r="ALE3" t="n">
+        <v>-24.82320712281258</v>
+      </c>
+      <c r="ALF3" t="n">
+        <v>-24.58656854194389</v>
+      </c>
+      <c r="ALG3" t="n">
+        <v>-24.77351986275057</v>
+      </c>
+      <c r="ALH3" t="n">
+        <v>-24.54548738227153</v>
+      </c>
+      <c r="ALI3" t="n">
+        <v>-24.7404004231543</v>
+      </c>
+      <c r="ALJ3" t="n">
+        <v>-24.5197077804793</v>
+      </c>
+      <c r="ALK3" t="n">
+        <v>-24.3129969241764</v>
+      </c>
+      <c r="ALL3" t="n">
+        <v>-24.62860190332172</v>
+      </c>
+      <c r="ALM3" t="n">
+        <v>-24.42212266059855</v>
       </c>
     </row>
   </sheetData>
